--- a/web_ces/Paneles/global_trimestral/input/DF_paneles.xlsx
+++ b/web_ces/Paneles/global_trimestral/input/DF_paneles.xlsx
@@ -10100,237 +10100,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C5B9F2161CEE1040BBC03CB11300495F" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="126bfeb7ae601119bfc9c37fe78f3e1b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5dd4176-d247-4204-85b8-921214f3ccea" xmlns:ns3="359b39ce-e1f9-4933-8424-33b611e6fdcd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2137ec74e9b380cd6ab08453deebfc43" ns2:_="" ns3:_="">
-    <xsd:import namespace="b5dd4176-d247-4204-85b8-921214f3ccea"/>
-    <xsd:import namespace="359b39ce-e1f9-4933-8424-33b611e6fdcd"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b5dd4176-d247-4204-85b8-921214f3ccea" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="01529062-7a8b-4d76-943d-e0db5644ee6d" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="359b39ce-e1f9-4933-8424-33b611e6fdcd" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c9b73259-0823-4f05-8927-4a40ee49fbe1}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="359b39ce-e1f9-4933-8424-33b611e6fdcd">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5dd4176-d247-4204-85b8-921214f3ccea">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="359b39ce-e1f9-4933-8424-33b611e6fdcd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADC07520-414C-45E2-A2D9-E520E29300AA}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C2976-B574-4ADC-85D3-4E3F12AFDDDA}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{093C2F3A-BDA2-4AC9-8F70-EFA368AFBC1A}"/>
 </file>
--- a/web_ces/Paneles/global_trimestral/input/DF_paneles.xlsx
+++ b/web_ces/Paneles/global_trimestral/input/DF_paneles.xlsx
@@ -10100,4 +10100,237 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C5B9F2161CEE1040BBC03CB11300495F" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="126bfeb7ae601119bfc9c37fe78f3e1b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5dd4176-d247-4204-85b8-921214f3ccea" xmlns:ns3="359b39ce-e1f9-4933-8424-33b611e6fdcd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2137ec74e9b380cd6ab08453deebfc43" ns2:_="" ns3:_="">
+    <xsd:import namespace="b5dd4176-d247-4204-85b8-921214f3ccea"/>
+    <xsd:import namespace="359b39ce-e1f9-4933-8424-33b611e6fdcd"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b5dd4176-d247-4204-85b8-921214f3ccea" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="01529062-7a8b-4d76-943d-e0db5644ee6d" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="359b39ce-e1f9-4933-8424-33b611e6fdcd" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c9b73259-0823-4f05-8927-4a40ee49fbe1}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="359b39ce-e1f9-4933-8424-33b611e6fdcd">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5dd4176-d247-4204-85b8-921214f3ccea">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="359b39ce-e1f9-4933-8424-33b611e6fdcd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2F67EF-CDB4-425E-A8BA-FE7EB60F3988}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50036D6C-9EB1-4E5D-980E-5407739922F9}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F694C860-37D8-4201-9A9E-1B20B3FEECD9}"/>
 </file>
--- a/web_ces/Paneles/global_trimestral/input/DF_paneles.xlsx
+++ b/web_ces/Paneles/global_trimestral/input/DF_paneles.xlsx
@@ -10324,13 +10324,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2F67EF-CDB4-425E-A8BA-FE7EB60F3988}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADC07520-414C-45E2-A2D9-E520E29300AA}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50036D6C-9EB1-4E5D-980E-5407739922F9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C2976-B574-4ADC-85D3-4E3F12AFDDDA}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F694C860-37D8-4201-9A9E-1B20B3FEECD9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{093C2F3A-BDA2-4AC9-8F70-EFA368AFBC1A}"/>
 </file>
--- a/web_ces/Paneles/global_trimestral/input/DF_paneles.xlsx
+++ b/web_ces/Paneles/global_trimestral/input/DF_paneles.xlsx
@@ -10100,4 +10100,237 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C5B9F2161CEE1040BBC03CB11300495F" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="126bfeb7ae601119bfc9c37fe78f3e1b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5dd4176-d247-4204-85b8-921214f3ccea" xmlns:ns3="359b39ce-e1f9-4933-8424-33b611e6fdcd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2137ec74e9b380cd6ab08453deebfc43" ns2:_="" ns3:_="">
+    <xsd:import namespace="b5dd4176-d247-4204-85b8-921214f3ccea"/>
+    <xsd:import namespace="359b39ce-e1f9-4933-8424-33b611e6fdcd"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b5dd4176-d247-4204-85b8-921214f3ccea" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="01529062-7a8b-4d76-943d-e0db5644ee6d" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="359b39ce-e1f9-4933-8424-33b611e6fdcd" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c9b73259-0823-4f05-8927-4a40ee49fbe1}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="359b39ce-e1f9-4933-8424-33b611e6fdcd">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5dd4176-d247-4204-85b8-921214f3ccea">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="359b39ce-e1f9-4933-8424-33b611e6fdcd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD48873E-0FCB-40AC-BA62-547E35BB78E7}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2A22826-2172-4B67-B98E-B52929678189}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{442C3F5D-291A-435D-867A-D99F7570F811}"/>
 </file>
--- a/web_ces/Paneles/global_trimestral/input/DF_paneles.xlsx
+++ b/web_ces/Paneles/global_trimestral/input/DF_paneles.xlsx
@@ -10100,237 +10100,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C5B9F2161CEE1040BBC03CB11300495F" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="126bfeb7ae601119bfc9c37fe78f3e1b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5dd4176-d247-4204-85b8-921214f3ccea" xmlns:ns3="359b39ce-e1f9-4933-8424-33b611e6fdcd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2137ec74e9b380cd6ab08453deebfc43" ns2:_="" ns3:_="">
-    <xsd:import namespace="b5dd4176-d247-4204-85b8-921214f3ccea"/>
-    <xsd:import namespace="359b39ce-e1f9-4933-8424-33b611e6fdcd"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b5dd4176-d247-4204-85b8-921214f3ccea" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="01529062-7a8b-4d76-943d-e0db5644ee6d" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="359b39ce-e1f9-4933-8424-33b611e6fdcd" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c9b73259-0823-4f05-8927-4a40ee49fbe1}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="359b39ce-e1f9-4933-8424-33b611e6fdcd">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5dd4176-d247-4204-85b8-921214f3ccea">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="359b39ce-e1f9-4933-8424-33b611e6fdcd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD48873E-0FCB-40AC-BA62-547E35BB78E7}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2A22826-2172-4B67-B98E-B52929678189}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{442C3F5D-291A-435D-867A-D99F7570F811}"/>
 </file>
--- a/web_ces/Paneles/global_trimestral/input/DF_paneles.xlsx
+++ b/web_ces/Paneles/global_trimestral/input/DF_paneles.xlsx
@@ -10100,4 +10100,237 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C5B9F2161CEE1040BBC03CB11300495F" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="126bfeb7ae601119bfc9c37fe78f3e1b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5dd4176-d247-4204-85b8-921214f3ccea" xmlns:ns3="359b39ce-e1f9-4933-8424-33b611e6fdcd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2137ec74e9b380cd6ab08453deebfc43" ns2:_="" ns3:_="">
+    <xsd:import namespace="b5dd4176-d247-4204-85b8-921214f3ccea"/>
+    <xsd:import namespace="359b39ce-e1f9-4933-8424-33b611e6fdcd"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b5dd4176-d247-4204-85b8-921214f3ccea" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="01529062-7a8b-4d76-943d-e0db5644ee6d" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="359b39ce-e1f9-4933-8424-33b611e6fdcd" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c9b73259-0823-4f05-8927-4a40ee49fbe1}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="359b39ce-e1f9-4933-8424-33b611e6fdcd">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5dd4176-d247-4204-85b8-921214f3ccea">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="359b39ce-e1f9-4933-8424-33b611e6fdcd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8215BDD2-9EC9-477D-9D81-E8C53D7A652D}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FA48DD2-0F04-4200-A3C1-0E58EF7D062D}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E8273F4-2247-41DE-9555-3810A085300A}"/>
 </file>
--- a/web_ces/Paneles/global_trimestral/input/DF_paneles.xlsx
+++ b/web_ces/Paneles/global_trimestral/input/DF_paneles.xlsx
@@ -10100,237 +10100,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C5B9F2161CEE1040BBC03CB11300495F" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="126bfeb7ae601119bfc9c37fe78f3e1b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5dd4176-d247-4204-85b8-921214f3ccea" xmlns:ns3="359b39ce-e1f9-4933-8424-33b611e6fdcd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2137ec74e9b380cd6ab08453deebfc43" ns2:_="" ns3:_="">
-    <xsd:import namespace="b5dd4176-d247-4204-85b8-921214f3ccea"/>
-    <xsd:import namespace="359b39ce-e1f9-4933-8424-33b611e6fdcd"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b5dd4176-d247-4204-85b8-921214f3ccea" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="01529062-7a8b-4d76-943d-e0db5644ee6d" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="359b39ce-e1f9-4933-8424-33b611e6fdcd" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c9b73259-0823-4f05-8927-4a40ee49fbe1}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="359b39ce-e1f9-4933-8424-33b611e6fdcd">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5dd4176-d247-4204-85b8-921214f3ccea">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="359b39ce-e1f9-4933-8424-33b611e6fdcd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8215BDD2-9EC9-477D-9D81-E8C53D7A652D}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FA48DD2-0F04-4200-A3C1-0E58EF7D062D}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E8273F4-2247-41DE-9555-3810A085300A}"/>
 </file>
--- a/web_ces/Paneles/global_trimestral/input/DF_paneles.xlsx
+++ b/web_ces/Paneles/global_trimestral/input/DF_paneles.xlsx
@@ -379,32 +379,32 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>GSF-EPUB</t>
+          <t>GR-EPRIV-FOR</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>GR-EPRIV-INF</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>GR-EPUB</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>GSF-EPRIV-FOR</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>GSF-EPRIV-INF</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>GR-EPUB</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>GR-EPRIV-FOR</t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>GR-EPRIV-INF</t>
+          <t>GSF-EPUB</t>
         </is>
       </c>
     </row>
@@ -1503,14 +1503,14 @@
       <c r="B138">
         <v>486756.288670139</v>
       </c>
-      <c r="F138">
+      <c r="C138">
+        <v>189.893019136992</v>
+      </c>
+      <c r="D138">
+        <v>189.338238249839</v>
+      </c>
+      <c r="E138">
         <v>67.63700085781841</v>
-      </c>
-      <c r="G138">
-        <v>189.893019136992</v>
-      </c>
-      <c r="H138">
-        <v>189.338238249839</v>
       </c>
     </row>
     <row r="139">
@@ -1520,14 +1520,14 @@
       <c r="B139">
         <v>478425.42471922</v>
       </c>
-      <c r="F139">
+      <c r="C139">
+        <v>193.955403076506</v>
+      </c>
+      <c r="D139">
+        <v>188.841773101594</v>
+      </c>
+      <c r="E139">
         <v>66.70750903453779</v>
-      </c>
-      <c r="G139">
-        <v>193.955403076506</v>
-      </c>
-      <c r="H139">
-        <v>188.841773101594</v>
       </c>
     </row>
     <row r="140">
@@ -1537,14 +1537,14 @@
       <c r="B140">
         <v>484354.845989316</v>
       </c>
-      <c r="F140">
+      <c r="C140">
+        <v>198.559789415938</v>
+      </c>
+      <c r="D140">
+        <v>185.908992656167</v>
+      </c>
+      <c r="E140">
         <v>65.9049689916216</v>
-      </c>
-      <c r="G140">
-        <v>198.559789415938</v>
-      </c>
-      <c r="H140">
-        <v>185.908992656167</v>
       </c>
     </row>
     <row r="141">
@@ -1554,14 +1554,14 @@
       <c r="B141">
         <v>494926.283218891</v>
       </c>
-      <c r="F141">
+      <c r="C141">
+        <v>199.133694013835</v>
+      </c>
+      <c r="D141">
+        <v>183.580273281766</v>
+      </c>
+      <c r="E141">
         <v>67.5525312187813</v>
-      </c>
-      <c r="G141">
-        <v>199.133694013835</v>
-      </c>
-      <c r="H141">
-        <v>183.580273281766</v>
       </c>
     </row>
     <row r="142">
@@ -1571,14 +1571,14 @@
       <c r="B142">
         <v>518512.745500018</v>
       </c>
-      <c r="F142">
+      <c r="C142">
+        <v>202.994220648372</v>
+      </c>
+      <c r="D142">
+        <v>184.049481280107</v>
+      </c>
+      <c r="E142">
         <v>67.3700113163942</v>
-      </c>
-      <c r="G142">
-        <v>202.994220648372</v>
-      </c>
-      <c r="H142">
-        <v>184.049481280107</v>
       </c>
     </row>
     <row r="143">
@@ -1588,14 +1588,14 @@
       <c r="B143">
         <v>533429.024793644</v>
       </c>
-      <c r="F143">
+      <c r="C143">
+        <v>212.454886762193</v>
+      </c>
+      <c r="D143">
+        <v>186.538857046527</v>
+      </c>
+      <c r="E143">
         <v>65.7675094293036</v>
-      </c>
-      <c r="G143">
-        <v>212.454886762193</v>
-      </c>
-      <c r="H143">
-        <v>186.538857046527</v>
       </c>
     </row>
     <row r="144">
@@ -1605,14 +1605,14 @@
       <c r="B144">
         <v>527363.202644246</v>
       </c>
-      <c r="F144">
+      <c r="C144">
+        <v>221.287717162365</v>
+      </c>
+      <c r="D144">
+        <v>187.260668997654</v>
+      </c>
+      <c r="E144">
         <v>67.0078403342344</v>
-      </c>
-      <c r="G144">
-        <v>221.287717162365</v>
-      </c>
-      <c r="H144">
-        <v>187.260668997654</v>
       </c>
     </row>
     <row r="145">
@@ -1622,14 +1622,14 @@
       <c r="B145">
         <v>535686.312732418</v>
       </c>
-      <c r="F145">
+      <c r="C145">
+        <v>228.937994908781</v>
+      </c>
+      <c r="D145">
+        <v>186.747666368044</v>
+      </c>
+      <c r="E145">
         <v>66.00674341870391</v>
-      </c>
-      <c r="G145">
-        <v>228.937994908781</v>
-      </c>
-      <c r="H145">
-        <v>186.747666368044</v>
       </c>
     </row>
     <row r="146">
@@ -1639,14 +1639,14 @@
       <c r="B146">
         <v>557628.523922661</v>
       </c>
-      <c r="F146">
+      <c r="C146">
+        <v>235.172940617372</v>
+      </c>
+      <c r="D146">
+        <v>186.450813742765</v>
+      </c>
+      <c r="E146">
         <v>62.4818800225689</v>
-      </c>
-      <c r="G146">
-        <v>235.172940617372</v>
-      </c>
-      <c r="H146">
-        <v>186.450813742765</v>
       </c>
     </row>
     <row r="147">
@@ -1656,14 +1656,14 @@
       <c r="B147">
         <v>564423.7972888499</v>
       </c>
-      <c r="F147">
+      <c r="C147">
+        <v>240.776474988123</v>
+      </c>
+      <c r="D147">
+        <v>185.196915250819</v>
+      </c>
+      <c r="E147">
         <v>61.4670187176802</v>
-      </c>
-      <c r="G147">
-        <v>240.776474988123</v>
-      </c>
-      <c r="H147">
-        <v>185.196915250819</v>
       </c>
     </row>
     <row r="148">
@@ -1673,14 +1673,14 @@
       <c r="B148">
         <v>572994.484012327</v>
       </c>
-      <c r="F148">
+      <c r="C148">
+        <v>250.741102935807</v>
+      </c>
+      <c r="D148">
+        <v>184.017025552393</v>
+      </c>
+      <c r="E148">
         <v>60.6796438567811</v>
-      </c>
-      <c r="G148">
-        <v>250.741102935807</v>
-      </c>
-      <c r="H148">
-        <v>184.017025552393</v>
       </c>
     </row>
     <row r="149">
@@ -1690,14 +1690,14 @@
       <c r="B149">
         <v>587500.962444731</v>
       </c>
-      <c r="F149">
+      <c r="C149">
+        <v>264.13933584906</v>
+      </c>
+      <c r="D149">
+        <v>181.208214783923</v>
+      </c>
+      <c r="E149">
         <v>59.8814148436764</v>
-      </c>
-      <c r="G149">
-        <v>264.13933584906</v>
-      </c>
-      <c r="H149">
-        <v>181.208214783923</v>
       </c>
     </row>
     <row r="150">
@@ -1708,22 +1708,22 @@
         <v>604350.836535187</v>
       </c>
       <c r="C150">
+        <v>271.039573457996</v>
+      </c>
+      <c r="D150">
+        <v>175.759376211545</v>
+      </c>
+      <c r="E150">
+        <v>62.9168563894588</v>
+      </c>
+      <c r="F150">
+        <v>72.9741437246837</v>
+      </c>
+      <c r="G150">
+        <v>61.325879954663</v>
+      </c>
+      <c r="H150">
         <v>38.5027322084586</v>
-      </c>
-      <c r="D150">
-        <v>72.9741437246837</v>
-      </c>
-      <c r="E150">
-        <v>61.325879954663</v>
-      </c>
-      <c r="F150">
-        <v>62.9168563894588</v>
-      </c>
-      <c r="G150">
-        <v>271.039573457996</v>
-      </c>
-      <c r="H150">
-        <v>175.759376211545</v>
       </c>
     </row>
     <row r="151">
@@ -1734,22 +1734,22 @@
         <v>621320.584218415</v>
       </c>
       <c r="C151">
+        <v>272.020292801928</v>
+      </c>
+      <c r="D151">
+        <v>172.231927219849</v>
+      </c>
+      <c r="E151">
+        <v>64.7011935210751</v>
+      </c>
+      <c r="F151">
+        <v>71.93298752434249</v>
+      </c>
+      <c r="G151">
+        <v>70.7461073186827</v>
+      </c>
+      <c r="H151">
         <v>38.8538928640858</v>
-      </c>
-      <c r="D151">
-        <v>71.93298752434249</v>
-      </c>
-      <c r="E151">
-        <v>70.7461073186827</v>
-      </c>
-      <c r="F151">
-        <v>64.7011935210751</v>
-      </c>
-      <c r="G151">
-        <v>272.020292801928</v>
-      </c>
-      <c r="H151">
-        <v>172.231927219849</v>
       </c>
     </row>
     <row r="152">
@@ -1760,22 +1760,22 @@
         <v>620705.402559893</v>
       </c>
       <c r="C152">
+        <v>277.238501791449</v>
+      </c>
+      <c r="D152">
+        <v>173.904700972579</v>
+      </c>
+      <c r="E152">
+        <v>60.8055828899521</v>
+      </c>
+      <c r="F152">
+        <v>73.2012792409348</v>
+      </c>
+      <c r="G152">
+        <v>68.58492598369369</v>
+      </c>
+      <c r="H152">
         <v>39.264993058892</v>
-      </c>
-      <c r="D152">
-        <v>73.2012792409348</v>
-      </c>
-      <c r="E152">
-        <v>68.58492598369369</v>
-      </c>
-      <c r="F152">
-        <v>60.8055828899521</v>
-      </c>
-      <c r="G152">
-        <v>277.238501791449</v>
-      </c>
-      <c r="H152">
-        <v>173.904700972579</v>
       </c>
     </row>
     <row r="153">
@@ -1786,22 +1786,22 @@
         <v>640163.551931664</v>
       </c>
       <c r="C153">
+        <v>283.322935911223</v>
+      </c>
+      <c r="D153">
+        <v>176.002894729787</v>
+      </c>
+      <c r="E153">
+        <v>56.6457514678616</v>
+      </c>
+      <c r="F153">
+        <v>73.95975769848209</v>
+      </c>
+      <c r="G153">
+        <v>71.52778465566151</v>
+      </c>
+      <c r="H153">
         <v>39.4823472633203</v>
-      </c>
-      <c r="D153">
-        <v>73.95975769848209</v>
-      </c>
-      <c r="E153">
-        <v>71.52778465566151</v>
-      </c>
-      <c r="F153">
-        <v>56.6457514678616</v>
-      </c>
-      <c r="G153">
-        <v>283.322935911223</v>
-      </c>
-      <c r="H153">
-        <v>176.002894729787</v>
       </c>
     </row>
     <row r="154">
@@ -1812,22 +1812,22 @@
         <v>647511.571602066</v>
       </c>
       <c r="C154">
+        <v>286.924728337009</v>
+      </c>
+      <c r="D154">
+        <v>177.871787362456</v>
+      </c>
+      <c r="E154">
+        <v>53.3905440781326</v>
+      </c>
+      <c r="F154">
+        <v>69.7482269867854</v>
+      </c>
+      <c r="G154">
+        <v>75.02353080457431</v>
+      </c>
+      <c r="H154">
         <v>38.0929027495003</v>
-      </c>
-      <c r="D154">
-        <v>69.7482269867854</v>
-      </c>
-      <c r="E154">
-        <v>75.02353080457431</v>
-      </c>
-      <c r="F154">
-        <v>53.3905440781326</v>
-      </c>
-      <c r="G154">
-        <v>286.924728337009</v>
-      </c>
-      <c r="H154">
-        <v>177.871787362456</v>
       </c>
     </row>
     <row r="155">
@@ -1838,22 +1838,22 @@
         <v>656783.65719026</v>
       </c>
       <c r="C155">
+        <v>292.018013193259</v>
+      </c>
+      <c r="D155">
+        <v>182.281375335588</v>
+      </c>
+      <c r="E155">
+        <v>50.2524987391664</v>
+      </c>
+      <c r="F155">
+        <v>73.8715497978683</v>
+      </c>
+      <c r="G155">
+        <v>75.94763900218641</v>
+      </c>
+      <c r="H155">
         <v>35.9226378834876</v>
-      </c>
-      <c r="D155">
-        <v>73.8715497978683</v>
-      </c>
-      <c r="E155">
-        <v>75.94763900218641</v>
-      </c>
-      <c r="F155">
-        <v>50.2524987391664</v>
-      </c>
-      <c r="G155">
-        <v>292.018013193259</v>
-      </c>
-      <c r="H155">
-        <v>182.281375335588</v>
       </c>
     </row>
     <row r="156">
@@ -1864,22 +1864,22 @@
         <v>655185.264315897</v>
       </c>
       <c r="C156">
+        <v>295.385453954293</v>
+      </c>
+      <c r="D156">
+        <v>184.301647684098</v>
+      </c>
+      <c r="E156">
+        <v>49.7768928951175</v>
+      </c>
+      <c r="F156">
+        <v>75.8636494492804</v>
+      </c>
+      <c r="G156">
+        <v>73.93350810571241</v>
+      </c>
+      <c r="H156">
         <v>35.7040002548848</v>
-      </c>
-      <c r="D156">
-        <v>75.8636494492804</v>
-      </c>
-      <c r="E156">
-        <v>73.93350810571241</v>
-      </c>
-      <c r="F156">
-        <v>49.7768928951175</v>
-      </c>
-      <c r="G156">
-        <v>295.385453954293</v>
-      </c>
-      <c r="H156">
-        <v>184.301647684098</v>
       </c>
     </row>
     <row r="157">
@@ -1890,22 +1890,22 @@
         <v>628102.34149148</v>
       </c>
       <c r="C157">
+        <v>292.844610458544</v>
+      </c>
+      <c r="D157">
+        <v>182.56661271267</v>
+      </c>
+      <c r="E157">
+        <v>50.9740925229199</v>
+      </c>
+      <c r="F157">
+        <v>80.65364879301499</v>
+      </c>
+      <c r="G157">
+        <v>66.2399180643915</v>
+      </c>
+      <c r="H157">
         <v>37.1534635535895</v>
-      </c>
-      <c r="D157">
-        <v>80.65364879301499</v>
-      </c>
-      <c r="E157">
-        <v>66.2399180643915</v>
-      </c>
-      <c r="F157">
-        <v>50.9740925229199</v>
-      </c>
-      <c r="G157">
-        <v>292.844610458544</v>
-      </c>
-      <c r="H157">
-        <v>182.56661271267</v>
       </c>
     </row>
     <row r="158">
@@ -1916,22 +1916,22 @@
         <v>611861.456170615</v>
       </c>
       <c r="C158">
+        <v>288.625962924301</v>
+      </c>
+      <c r="D158">
+        <v>179.350428970637</v>
+      </c>
+      <c r="E158">
+        <v>52.7870673344179</v>
+      </c>
+      <c r="F158">
+        <v>80.2282595175929</v>
+      </c>
+      <c r="G158">
+        <v>66.5773878004979</v>
+      </c>
+      <c r="H158">
         <v>39.2741042562901</v>
-      </c>
-      <c r="D158">
-        <v>80.2282595175929</v>
-      </c>
-      <c r="E158">
-        <v>66.5773878004979</v>
-      </c>
-      <c r="F158">
-        <v>52.7870673344179</v>
-      </c>
-      <c r="G158">
-        <v>288.625962924301</v>
-      </c>
-      <c r="H158">
-        <v>179.350428970637</v>
       </c>
     </row>
     <row r="159">
@@ -1942,22 +1942,22 @@
         <v>600012.417211298</v>
       </c>
       <c r="C159">
+        <v>286.746718352028</v>
+      </c>
+      <c r="D159">
+        <v>176.353951773111</v>
+      </c>
+      <c r="E159">
+        <v>55.2364560893482</v>
+      </c>
+      <c r="F159">
+        <v>77.5900949460502</v>
+      </c>
+      <c r="G159">
+        <v>70.7469478692058</v>
+      </c>
+      <c r="H159">
         <v>41.7419958422861</v>
-      </c>
-      <c r="D159">
-        <v>77.5900949460502</v>
-      </c>
-      <c r="E159">
-        <v>70.7469478692058</v>
-      </c>
-      <c r="F159">
-        <v>55.2364560893482</v>
-      </c>
-      <c r="G159">
-        <v>286.746718352028</v>
-      </c>
-      <c r="H159">
-        <v>176.353951773111</v>
       </c>
     </row>
     <row r="160">
@@ -1968,22 +1968,22 @@
         <v>611185.4847086139</v>
       </c>
       <c r="C160">
+        <v>283.515035796902</v>
+      </c>
+      <c r="D160">
+        <v>178.192176061554</v>
+      </c>
+      <c r="E160">
+        <v>56.068518902035</v>
+      </c>
+      <c r="F160">
+        <v>73.2032703258663</v>
+      </c>
+      <c r="G160">
+        <v>69.8917119803837</v>
+      </c>
+      <c r="H160">
         <v>42.8094071247736</v>
-      </c>
-      <c r="D160">
-        <v>73.2032703258663</v>
-      </c>
-      <c r="E160">
-        <v>69.8917119803837</v>
-      </c>
-      <c r="F160">
-        <v>56.068518902035</v>
-      </c>
-      <c r="G160">
-        <v>283.515035796902</v>
-      </c>
-      <c r="H160">
-        <v>178.192176061554</v>
       </c>
     </row>
     <row r="161">
@@ -1994,22 +1994,22 @@
         <v>629321.3163703959</v>
       </c>
       <c r="C161">
+        <v>282.582498583486</v>
+      </c>
+      <c r="D161">
+        <v>186.000765535238</v>
+      </c>
+      <c r="E161">
+        <v>54.8854258286948</v>
+      </c>
+      <c r="F161">
+        <v>78.88321150040341</v>
+      </c>
+      <c r="G161">
+        <v>78.46382646345</v>
+      </c>
+      <c r="H161">
         <v>42.0434572034751</v>
-      </c>
-      <c r="D161">
-        <v>78.88321150040341</v>
-      </c>
-      <c r="E161">
-        <v>78.46382646345</v>
-      </c>
-      <c r="F161">
-        <v>54.8854258286948</v>
-      </c>
-      <c r="G161">
-        <v>282.582498583486</v>
-      </c>
-      <c r="H161">
-        <v>186.000765535238</v>
       </c>
     </row>
     <row r="162">
@@ -2020,22 +2020,22 @@
         <v>646923.395711799</v>
       </c>
       <c r="C162">
+        <v>288.162359666875</v>
+      </c>
+      <c r="D162">
+        <v>190.889905692821</v>
+      </c>
+      <c r="E162">
+        <v>53.9837264577365</v>
+      </c>
+      <c r="F162">
+        <v>80.0319959146932</v>
+      </c>
+      <c r="G162">
+        <v>77.69529052954189</v>
+      </c>
+      <c r="H162">
         <v>41.9566965024896</v>
-      </c>
-      <c r="D162">
-        <v>80.0319959146932</v>
-      </c>
-      <c r="E162">
-        <v>77.69529052954189</v>
-      </c>
-      <c r="F162">
-        <v>53.9837264577365</v>
-      </c>
-      <c r="G162">
-        <v>288.162359666875</v>
-      </c>
-      <c r="H162">
-        <v>190.889905692821</v>
       </c>
     </row>
     <row r="163">
@@ -2046,22 +2046,22 @@
         <v>674259.720229451</v>
       </c>
       <c r="C163">
+        <v>294.451735922864</v>
+      </c>
+      <c r="D163">
+        <v>184.658878704177</v>
+      </c>
+      <c r="E163">
+        <v>55.8694372868489</v>
+      </c>
+      <c r="F163">
+        <v>73.97214265821469</v>
+      </c>
+      <c r="G163">
+        <v>74.5668547630334</v>
+      </c>
+      <c r="H163">
         <v>43.3595168445624</v>
-      </c>
-      <c r="D163">
-        <v>73.97214265821469</v>
-      </c>
-      <c r="E163">
-        <v>74.5668547630334</v>
-      </c>
-      <c r="F163">
-        <v>55.8694372868489</v>
-      </c>
-      <c r="G163">
-        <v>294.451735922864</v>
-      </c>
-      <c r="H163">
-        <v>184.658878704177</v>
       </c>
     </row>
     <row r="164">
@@ -2072,22 +2072,22 @@
         <v>674453.500946668</v>
       </c>
       <c r="C164">
+        <v>297.855075171018</v>
+      </c>
+      <c r="D164">
+        <v>176.390906871443</v>
+      </c>
+      <c r="E164">
+        <v>59.7988473248408</v>
+      </c>
+      <c r="F164">
+        <v>76.75501203200329</v>
+      </c>
+      <c r="G164">
+        <v>78.23714249019829</v>
+      </c>
+      <c r="H164">
         <v>44.5241684317088</v>
-      </c>
-      <c r="D164">
-        <v>76.75501203200329</v>
-      </c>
-      <c r="E164">
-        <v>78.23714249019829</v>
-      </c>
-      <c r="F164">
-        <v>59.7988473248408</v>
-      </c>
-      <c r="G164">
-        <v>297.855075171018</v>
-      </c>
-      <c r="H164">
-        <v>176.390906871443</v>
       </c>
     </row>
     <row r="165">
@@ -2098,22 +2098,22 @@
         <v>681549.974219844</v>
       </c>
       <c r="C165">
+        <v>300.393157122976</v>
+      </c>
+      <c r="D165">
+        <v>174.508649074626</v>
+      </c>
+      <c r="E165">
+        <v>61.200171187738</v>
+      </c>
+      <c r="F165">
+        <v>75.3369931382947</v>
+      </c>
+      <c r="G165">
+        <v>74.9819326263937</v>
+      </c>
+      <c r="H165">
         <v>44.8546454356178</v>
-      </c>
-      <c r="D165">
-        <v>75.3369931382947</v>
-      </c>
-      <c r="E165">
-        <v>74.9819326263937</v>
-      </c>
-      <c r="F165">
-        <v>61.200171187738</v>
-      </c>
-      <c r="G165">
-        <v>300.393157122976</v>
-      </c>
-      <c r="H165">
-        <v>174.508649074626</v>
       </c>
     </row>
     <row r="166">
@@ -2124,22 +2124,22 @@
         <v>698616.659535502</v>
       </c>
       <c r="C166">
+        <v>305.101143263589</v>
+      </c>
+      <c r="D166">
+        <v>176.14163987151</v>
+      </c>
+      <c r="E166">
+        <v>59.2105231681156</v>
+      </c>
+      <c r="F166">
+        <v>79.95593088333671</v>
+      </c>
+      <c r="G166">
+        <v>74.6144516968768</v>
+      </c>
+      <c r="H166">
         <v>45.0325185044196</v>
-      </c>
-      <c r="D166">
-        <v>79.95593088333671</v>
-      </c>
-      <c r="E166">
-        <v>74.6144516968768</v>
-      </c>
-      <c r="F166">
-        <v>59.2105231681156</v>
-      </c>
-      <c r="G166">
-        <v>305.101143263589</v>
-      </c>
-      <c r="H166">
-        <v>176.14163987151</v>
       </c>
     </row>
     <row r="167">
@@ -2150,22 +2150,22 @@
         <v>711708.806816706</v>
       </c>
       <c r="C167">
+        <v>308.219293319939</v>
+      </c>
+      <c r="D167">
+        <v>178.901067658983</v>
+      </c>
+      <c r="E167">
+        <v>57.7682192293999</v>
+      </c>
+      <c r="F167">
+        <v>81.0003493514854</v>
+      </c>
+      <c r="G167">
+        <v>69.7897412070383</v>
+      </c>
+      <c r="H167">
         <v>45.1272228346717</v>
-      </c>
-      <c r="D167">
-        <v>81.0003493514854</v>
-      </c>
-      <c r="E167">
-        <v>69.7897412070383</v>
-      </c>
-      <c r="F167">
-        <v>57.7682192293999</v>
-      </c>
-      <c r="G167">
-        <v>308.219293319939</v>
-      </c>
-      <c r="H167">
-        <v>178.901067658983</v>
       </c>
     </row>
     <row r="168">
@@ -2176,22 +2176,22 @@
         <v>716692.870434558</v>
       </c>
       <c r="C168">
+        <v>309.901434865151</v>
+      </c>
+      <c r="D168">
+        <v>179.078578706954</v>
+      </c>
+      <c r="E168">
+        <v>57.9133824676443</v>
+      </c>
+      <c r="F168">
+        <v>80.1472417696512</v>
+      </c>
+      <c r="G168">
+        <v>73.0795944563712</v>
+      </c>
+      <c r="H168">
         <v>46.0955021994268</v>
-      </c>
-      <c r="D168">
-        <v>80.1472417696512</v>
-      </c>
-      <c r="E168">
-        <v>73.0795944563712</v>
-      </c>
-      <c r="F168">
-        <v>57.9133824676443</v>
-      </c>
-      <c r="G168">
-        <v>309.901434865151</v>
-      </c>
-      <c r="H168">
-        <v>179.078578706954</v>
       </c>
     </row>
     <row r="169">
@@ -2202,22 +2202,22 @@
         <v>714948.496797962</v>
       </c>
       <c r="C169">
+        <v>312.508492058945</v>
+      </c>
+      <c r="D169">
+        <v>175.798436117305</v>
+      </c>
+      <c r="E169">
+        <v>57.9611136801954</v>
+      </c>
+      <c r="F169">
+        <v>73.8417822338438</v>
+      </c>
+      <c r="G169">
+        <v>76.9990355550716</v>
+      </c>
+      <c r="H169">
         <v>49.2345260644284</v>
-      </c>
-      <c r="D169">
-        <v>73.8417822338438</v>
-      </c>
-      <c r="E169">
-        <v>76.9990355550716</v>
-      </c>
-      <c r="F169">
-        <v>57.9611136801954</v>
-      </c>
-      <c r="G169">
-        <v>312.508492058945</v>
-      </c>
-      <c r="H169">
-        <v>175.798436117305</v>
       </c>
     </row>
     <row r="170">
@@ -2228,22 +2228,22 @@
         <v>709886.655434077</v>
       </c>
       <c r="C170">
+        <v>312.796061765227</v>
+      </c>
+      <c r="D170">
+        <v>173.407231995604</v>
+      </c>
+      <c r="E170">
+        <v>57.947118766408</v>
+      </c>
+      <c r="F170">
+        <v>80.5604562883473</v>
+      </c>
+      <c r="G170">
+        <v>73.60352948344089</v>
+      </c>
+      <c r="H170">
         <v>52.350837469462</v>
-      </c>
-      <c r="D170">
-        <v>80.5604562883473</v>
-      </c>
-      <c r="E170">
-        <v>73.60352948344089</v>
-      </c>
-      <c r="F170">
-        <v>57.947118766408</v>
-      </c>
-      <c r="G170">
-        <v>312.796061765227</v>
-      </c>
-      <c r="H170">
-        <v>173.407231995604</v>
       </c>
     </row>
     <row r="171">
@@ -2254,22 +2254,22 @@
         <v>701246.373967591</v>
       </c>
       <c r="C171">
+        <v>314.857578245159</v>
+      </c>
+      <c r="D171">
+        <v>172.60980150993</v>
+      </c>
+      <c r="E171">
+        <v>57.308603714868</v>
+      </c>
+      <c r="F171">
+        <v>90.1339275348045</v>
+      </c>
+      <c r="G171">
+        <v>64.1301301372129</v>
+      </c>
+      <c r="H171">
         <v>52.5838876717847</v>
-      </c>
-      <c r="D171">
-        <v>90.1339275348045</v>
-      </c>
-      <c r="E171">
-        <v>64.1301301372129</v>
-      </c>
-      <c r="F171">
-        <v>57.308603714868</v>
-      </c>
-      <c r="G171">
-        <v>314.857578245159</v>
-      </c>
-      <c r="H171">
-        <v>172.60980150993</v>
       </c>
     </row>
     <row r="172">
@@ -2280,22 +2280,22 @@
         <v>708119.32777939</v>
       </c>
       <c r="C172">
+        <v>323.315275868948</v>
+      </c>
+      <c r="D172">
+        <v>168.518746736665</v>
+      </c>
+      <c r="E172">
+        <v>56.5738169002511</v>
+      </c>
+      <c r="F172">
+        <v>88.3982328173293</v>
+      </c>
+      <c r="G172">
+        <v>70.0065078288935</v>
+      </c>
+      <c r="H172">
         <v>51.137295746701</v>
-      </c>
-      <c r="D172">
-        <v>88.3982328173293</v>
-      </c>
-      <c r="E172">
-        <v>70.0065078288935</v>
-      </c>
-      <c r="F172">
-        <v>56.5738169002511</v>
-      </c>
-      <c r="G172">
-        <v>323.315275868948</v>
-      </c>
-      <c r="H172">
-        <v>168.518746736665</v>
       </c>
     </row>
     <row r="173">
@@ -2306,22 +2306,22 @@
         <v>718422.919670273</v>
       </c>
       <c r="C173">
+        <v>329.732317868202</v>
+      </c>
+      <c r="D173">
+        <v>164.946995400355</v>
+      </c>
+      <c r="E173">
+        <v>57.6137719933715</v>
+      </c>
+      <c r="F173">
+        <v>92.1007062466161</v>
+      </c>
+      <c r="G173">
+        <v>65.0289295102063</v>
+      </c>
+      <c r="H173">
         <v>50.6487624635554</v>
-      </c>
-      <c r="D173">
-        <v>92.1007062466161</v>
-      </c>
-      <c r="E173">
-        <v>65.0289295102063</v>
-      </c>
-      <c r="F173">
-        <v>57.6137719933715</v>
-      </c>
-      <c r="G173">
-        <v>329.732317868202</v>
-      </c>
-      <c r="H173">
-        <v>164.946995400355</v>
       </c>
     </row>
     <row r="174">
@@ -2332,22 +2332,22 @@
         <v>715256.029032939</v>
       </c>
       <c r="C174">
+        <v>327.023234539354</v>
+      </c>
+      <c r="D174">
+        <v>171.663072912787</v>
+      </c>
+      <c r="E174">
+        <v>59.8949019719184</v>
+      </c>
+      <c r="F174">
+        <v>88.66910913136</v>
+      </c>
+      <c r="G174">
+        <v>61.798634323063</v>
+      </c>
+      <c r="H174">
         <v>50.7092377350558</v>
-      </c>
-      <c r="D174">
-        <v>88.66910913136</v>
-      </c>
-      <c r="E174">
-        <v>61.798634323063</v>
-      </c>
-      <c r="F174">
-        <v>59.8949019719184</v>
-      </c>
-      <c r="G174">
-        <v>327.023234539354</v>
-      </c>
-      <c r="H174">
-        <v>171.663072912787</v>
       </c>
     </row>
     <row r="175">
@@ -2358,22 +2358,22 @@
         <v>722085.891947709</v>
       </c>
       <c r="C175">
+        <v>321.71199961904</v>
+      </c>
+      <c r="D175">
+        <v>184.372666859394</v>
+      </c>
+      <c r="E175">
+        <v>63.1537798724184</v>
+      </c>
+      <c r="F175">
+        <v>89.667056881658</v>
+      </c>
+      <c r="G175">
+        <v>68.6509101667292</v>
+      </c>
+      <c r="H175">
         <v>50.8062908687371</v>
-      </c>
-      <c r="D175">
-        <v>89.667056881658</v>
-      </c>
-      <c r="E175">
-        <v>68.6509101667292</v>
-      </c>
-      <c r="F175">
-        <v>63.1537798724184</v>
-      </c>
-      <c r="G175">
-        <v>321.71199961904</v>
-      </c>
-      <c r="H175">
-        <v>184.372666859394</v>
       </c>
     </row>
     <row r="176">
@@ -2384,22 +2384,22 @@
         <v>725965.925518658</v>
       </c>
       <c r="C176">
+        <v>320.088174827473</v>
+      </c>
+      <c r="D176">
+        <v>190.904616590158</v>
+      </c>
+      <c r="E176">
+        <v>67.4615789614256</v>
+      </c>
+      <c r="F176">
+        <v>87.65661561490791</v>
+      </c>
+      <c r="G176">
+        <v>68.4137196628742</v>
+      </c>
+      <c r="H176">
         <v>50.2100541960417</v>
-      </c>
-      <c r="D176">
-        <v>87.65661561490791</v>
-      </c>
-      <c r="E176">
-        <v>68.4137196628742</v>
-      </c>
-      <c r="F176">
-        <v>67.4615789614256</v>
-      </c>
-      <c r="G176">
-        <v>320.088174827473</v>
-      </c>
-      <c r="H176">
-        <v>190.904616590158</v>
       </c>
     </row>
     <row r="177">
@@ -2410,22 +2410,22 @@
         <v>718947.9726696711</v>
       </c>
       <c r="C177">
+        <v>326.344141527457</v>
+      </c>
+      <c r="D177">
+        <v>189.8175977433</v>
+      </c>
+      <c r="E177">
+        <v>71.81491229042081</v>
+      </c>
+      <c r="F177">
+        <v>86.1040147436953</v>
+      </c>
+      <c r="G177">
+        <v>73.4769330155893</v>
+      </c>
+      <c r="H177">
         <v>47.4128335948651</v>
-      </c>
-      <c r="D177">
-        <v>86.1040147436953</v>
-      </c>
-      <c r="E177">
-        <v>73.4769330155893</v>
-      </c>
-      <c r="F177">
-        <v>71.81491229042081</v>
-      </c>
-      <c r="G177">
-        <v>326.344141527457</v>
-      </c>
-      <c r="H177">
-        <v>189.8175977433</v>
       </c>
     </row>
     <row r="178">
@@ -2436,22 +2436,22 @@
         <v>708731.990693028</v>
       </c>
       <c r="C178">
+        <v>340.834656357123</v>
+      </c>
+      <c r="D178">
+        <v>185.128782550628</v>
+      </c>
+      <c r="E178">
+        <v>74.3470562552328</v>
+      </c>
+      <c r="F178">
+        <v>81.70988445981391</v>
+      </c>
+      <c r="G178">
+        <v>80.90212307173729</v>
+      </c>
+      <c r="H178">
         <v>44.8199861637259</v>
-      </c>
-      <c r="D178">
-        <v>81.70988445981391</v>
-      </c>
-      <c r="E178">
-        <v>80.90212307173729</v>
-      </c>
-      <c r="F178">
-        <v>74.3470562552328</v>
-      </c>
-      <c r="G178">
-        <v>340.834656357123</v>
-      </c>
-      <c r="H178">
-        <v>185.128782550628</v>
       </c>
     </row>
     <row r="179">
@@ -2462,22 +2462,22 @@
         <v>704955.381216072</v>
       </c>
       <c r="C179">
+        <v>350.7056550844</v>
+      </c>
+      <c r="D179">
+        <v>182.56029574269</v>
+      </c>
+      <c r="E179">
+        <v>74.0850611081834</v>
+      </c>
+      <c r="F179">
+        <v>83.8117689375218</v>
+      </c>
+      <c r="G179">
+        <v>82.9083063311829</v>
+      </c>
+      <c r="H179">
         <v>44.1310098696079</v>
-      </c>
-      <c r="D179">
-        <v>83.8117689375218</v>
-      </c>
-      <c r="E179">
-        <v>82.9083063311829</v>
-      </c>
-      <c r="F179">
-        <v>74.0850611081834</v>
-      </c>
-      <c r="G179">
-        <v>350.7056550844</v>
-      </c>
-      <c r="H179">
-        <v>182.56029574269</v>
       </c>
     </row>
     <row r="180">
@@ -2488,22 +2488,22 @@
         <v>696621.976996852</v>
       </c>
       <c r="C180">
+        <v>347.325483953641</v>
+      </c>
+      <c r="D180">
+        <v>188.231408557127</v>
+      </c>
+      <c r="E180">
+        <v>73.21144584957931</v>
+      </c>
+      <c r="F180">
+        <v>88.0788222659482</v>
+      </c>
+      <c r="G180">
+        <v>70.6626511747349</v>
+      </c>
+      <c r="H180">
         <v>44.4578097632855</v>
-      </c>
-      <c r="D180">
-        <v>88.0788222659482</v>
-      </c>
-      <c r="E180">
-        <v>70.6626511747349</v>
-      </c>
-      <c r="F180">
-        <v>73.21144584957931</v>
-      </c>
-      <c r="G180">
-        <v>347.325483953641</v>
-      </c>
-      <c r="H180">
-        <v>188.231408557127</v>
       </c>
     </row>
     <row r="181">
@@ -2514,22 +2514,22 @@
         <v>700196.353049362</v>
       </c>
       <c r="C181">
+        <v>343.465356254343</v>
+      </c>
+      <c r="D181">
+        <v>195.367178772454</v>
+      </c>
+      <c r="E181">
+        <v>73.49077333671001</v>
+      </c>
+      <c r="F181">
+        <v>90.51360486277611</v>
+      </c>
+      <c r="G181">
+        <v>71.59081263312891</v>
+      </c>
+      <c r="H181">
         <v>45.2605782301099</v>
-      </c>
-      <c r="D181">
-        <v>90.51360486277611</v>
-      </c>
-      <c r="E181">
-        <v>71.59081263312891</v>
-      </c>
-      <c r="F181">
-        <v>73.49077333671001</v>
-      </c>
-      <c r="G181">
-        <v>343.465356254343</v>
-      </c>
-      <c r="H181">
-        <v>195.367178772454</v>
       </c>
     </row>
     <row r="182">
@@ -2540,22 +2540,22 @@
         <v>713049.9749922639</v>
       </c>
       <c r="C182">
+        <v>350.934200249855</v>
+      </c>
+      <c r="D182">
+        <v>197.918589287808</v>
+      </c>
+      <c r="E182">
+        <v>73.5572736234123</v>
+      </c>
+      <c r="F182">
+        <v>95.84093893464519</v>
+      </c>
+      <c r="G182">
+        <v>69.6492744030465</v>
+      </c>
+      <c r="H182">
         <v>45.7833641258168</v>
-      </c>
-      <c r="D182">
-        <v>95.84093893464519</v>
-      </c>
-      <c r="E182">
-        <v>69.6492744030465</v>
-      </c>
-      <c r="F182">
-        <v>73.5572736234123</v>
-      </c>
-      <c r="G182">
-        <v>350.934200249855</v>
-      </c>
-      <c r="H182">
-        <v>197.918589287808</v>
       </c>
     </row>
     <row r="183">
@@ -2566,22 +2566,22 @@
         <v>723337.881674641</v>
       </c>
       <c r="C183">
+        <v>356.415460529794</v>
+      </c>
+      <c r="D183">
+        <v>202.211850139525</v>
+      </c>
+      <c r="E183">
+        <v>72.1564276865938</v>
+      </c>
+      <c r="F183">
+        <v>97.6872291497187</v>
+      </c>
+      <c r="G183">
+        <v>68.59211306591349</v>
+      </c>
+      <c r="H183">
         <v>46.3035693309845</v>
-      </c>
-      <c r="D183">
-        <v>97.6872291497187</v>
-      </c>
-      <c r="E183">
-        <v>68.59211306591349</v>
-      </c>
-      <c r="F183">
-        <v>72.1564276865938</v>
-      </c>
-      <c r="G183">
-        <v>356.415460529794</v>
-      </c>
-      <c r="H183">
-        <v>202.211850139525</v>
       </c>
     </row>
     <row r="184">
@@ -2592,22 +2592,22 @@
         <v>725728.363869571</v>
       </c>
       <c r="C184">
+        <v>350.518002034241</v>
+      </c>
+      <c r="D184">
+        <v>211.894162133538</v>
+      </c>
+      <c r="E184">
+        <v>70.5941776435659</v>
+      </c>
+      <c r="F184">
+        <v>102.347223960199</v>
+      </c>
+      <c r="G184">
+        <v>63.1619295836263</v>
+      </c>
+      <c r="H184">
         <v>46.832072212308</v>
-      </c>
-      <c r="D184">
-        <v>102.347223960199</v>
-      </c>
-      <c r="E184">
-        <v>63.1619295836263</v>
-      </c>
-      <c r="F184">
-        <v>70.5941776435659</v>
-      </c>
-      <c r="G184">
-        <v>350.518002034241</v>
-      </c>
-      <c r="H184">
-        <v>211.894162133538</v>
       </c>
     </row>
     <row r="185">
@@ -2618,22 +2618,22 @@
         <v>717642.200476464</v>
       </c>
       <c r="C185">
+        <v>344.263985919549</v>
+      </c>
+      <c r="D185">
+        <v>217.264079543981</v>
+      </c>
+      <c r="E185">
+        <v>68.1489062900298</v>
+      </c>
+      <c r="F185">
+        <v>98.39015948919079</v>
+      </c>
+      <c r="G185">
+        <v>61.1310964660248</v>
+      </c>
+      <c r="H185">
         <v>46.3039041293688</v>
-      </c>
-      <c r="D185">
-        <v>98.39015948919079</v>
-      </c>
-      <c r="E185">
-        <v>61.1310964660248</v>
-      </c>
-      <c r="F185">
-        <v>68.1489062900298</v>
-      </c>
-      <c r="G185">
-        <v>344.263985919549</v>
-      </c>
-      <c r="H185">
-        <v>217.264079543981</v>
       </c>
     </row>
     <row r="186">
@@ -2644,22 +2644,22 @@
         <v>710077.3197393341</v>
       </c>
       <c r="C186">
+        <v>336.042319037731</v>
+      </c>
+      <c r="D186">
+        <v>207.258966119556</v>
+      </c>
+      <c r="E186">
+        <v>64.02282518379749</v>
+      </c>
+      <c r="F186">
+        <v>98.99491110406029</v>
+      </c>
+      <c r="G186">
+        <v>63.6501246146644</v>
+      </c>
+      <c r="H186">
         <v>45.4301160595692</v>
-      </c>
-      <c r="D186">
-        <v>98.99491110406029</v>
-      </c>
-      <c r="E186">
-        <v>63.6501246146644</v>
-      </c>
-      <c r="F186">
-        <v>64.02282518379749</v>
-      </c>
-      <c r="G186">
-        <v>336.042319037731</v>
-      </c>
-      <c r="H186">
-        <v>207.258966119556</v>
       </c>
     </row>
     <row r="187">
@@ -2670,22 +2670,22 @@
         <v>707251.450847102</v>
       </c>
       <c r="C187">
+        <v>323.744816281688</v>
+      </c>
+      <c r="D187">
+        <v>190.930833290772</v>
+      </c>
+      <c r="E187">
+        <v>61.3753273844577</v>
+      </c>
+      <c r="F187">
+        <v>94.2476054867391</v>
+      </c>
+      <c r="G187">
+        <v>62.5384764504201</v>
+      </c>
+      <c r="H187">
         <v>45.6360904547007</v>
-      </c>
-      <c r="D187">
-        <v>94.2476054867391</v>
-      </c>
-      <c r="E187">
-        <v>62.5384764504201</v>
-      </c>
-      <c r="F187">
-        <v>61.3753273844577</v>
-      </c>
-      <c r="G187">
-        <v>323.744816281688</v>
-      </c>
-      <c r="H187">
-        <v>190.930833290772</v>
       </c>
     </row>
     <row r="188">
@@ -2696,22 +2696,22 @@
         <v>702626.034003382</v>
       </c>
       <c r="C188">
+        <v>322.139343265685</v>
+      </c>
+      <c r="D188">
+        <v>180.25633944791</v>
+      </c>
+      <c r="E188">
+        <v>61.6124021243066</v>
+      </c>
+      <c r="F188">
+        <v>86.39598012507069</v>
+      </c>
+      <c r="G188">
+        <v>68.3979372283229</v>
+      </c>
+      <c r="H188">
         <v>47.40574422295</v>
-      </c>
-      <c r="D188">
-        <v>86.39598012507069</v>
-      </c>
-      <c r="E188">
-        <v>68.3979372283229</v>
-      </c>
-      <c r="F188">
-        <v>61.6124021243066</v>
-      </c>
-      <c r="G188">
-        <v>322.139343265685</v>
-      </c>
-      <c r="H188">
-        <v>180.25633944791</v>
       </c>
     </row>
     <row r="189">
@@ -2722,22 +2722,22 @@
         <v>706410.4804120919</v>
       </c>
       <c r="C189">
+        <v>324.434925600605</v>
+      </c>
+      <c r="D189">
+        <v>172.972920490525</v>
+      </c>
+      <c r="E189">
+        <v>64.03334825741589</v>
+      </c>
+      <c r="F189">
+        <v>85.8104005544496</v>
+      </c>
+      <c r="G189">
+        <v>69.96607351386049</v>
+      </c>
+      <c r="H189">
         <v>50.209150236926</v>
-      </c>
-      <c r="D189">
-        <v>85.8104005544496</v>
-      </c>
-      <c r="E189">
-        <v>69.96607351386049</v>
-      </c>
-      <c r="F189">
-        <v>64.03334825741589</v>
-      </c>
-      <c r="G189">
-        <v>324.434925600605</v>
-      </c>
-      <c r="H189">
-        <v>172.972920490525</v>
       </c>
     </row>
     <row r="190">
@@ -2748,22 +2748,22 @@
         <v>710959.8435629969</v>
       </c>
       <c r="C190">
+        <v>314.089895905874</v>
+      </c>
+      <c r="D190">
+        <v>170.672756613548</v>
+      </c>
+      <c r="E190">
+        <v>66.6344729518251</v>
+      </c>
+      <c r="F190">
+        <v>85.8236921627211</v>
+      </c>
+      <c r="G190">
+        <v>64.8450342284857</v>
+      </c>
+      <c r="H190">
         <v>51.7500928195642</v>
-      </c>
-      <c r="D190">
-        <v>85.8236921627211</v>
-      </c>
-      <c r="E190">
-        <v>64.8450342284857</v>
-      </c>
-      <c r="F190">
-        <v>66.6344729518251</v>
-      </c>
-      <c r="G190">
-        <v>314.089895905874</v>
-      </c>
-      <c r="H190">
-        <v>170.672756613548</v>
       </c>
     </row>
     <row r="191">
@@ -2774,22 +2774,22 @@
         <v>728469.542731865</v>
       </c>
       <c r="C191">
+        <v>305.663529478081</v>
+      </c>
+      <c r="D191">
+        <v>173.015762851749</v>
+      </c>
+      <c r="E191">
+        <v>66.462477919367</v>
+      </c>
+      <c r="F191">
+        <v>89.2741976274381</v>
+      </c>
+      <c r="G191">
+        <v>69.1774367779124</v>
+      </c>
+      <c r="H191">
         <v>51.32113405097</v>
-      </c>
-      <c r="D191">
-        <v>89.2741976274381</v>
-      </c>
-      <c r="E191">
-        <v>69.1774367779124</v>
-      </c>
-      <c r="F191">
-        <v>66.462477919367</v>
-      </c>
-      <c r="G191">
-        <v>305.663529478081</v>
-      </c>
-      <c r="H191">
-        <v>173.015762851749</v>
       </c>
     </row>
     <row r="192">
@@ -2800,22 +2800,22 @@
         <v>729973.005266218</v>
       </c>
       <c r="C192">
+        <v>312.635630508297</v>
+      </c>
+      <c r="D192">
+        <v>171.936016296195</v>
+      </c>
+      <c r="E192">
+        <v>64.2683177505848</v>
+      </c>
+      <c r="F192">
+        <v>88.17592866563911</v>
+      </c>
+      <c r="G192">
+        <v>75.5309590883836</v>
+      </c>
+      <c r="H192">
         <v>50.480789397663</v>
-      </c>
-      <c r="D192">
-        <v>88.17592866563911</v>
-      </c>
-      <c r="E192">
-        <v>75.5309590883836</v>
-      </c>
-      <c r="F192">
-        <v>64.2683177505848</v>
-      </c>
-      <c r="G192">
-        <v>312.635630508297</v>
-      </c>
-      <c r="H192">
-        <v>171.936016296195</v>
       </c>
     </row>
     <row r="193">
@@ -2826,22 +2826,22 @@
         <v>735799.597076848</v>
       </c>
       <c r="C193">
+        <v>319.01525317118</v>
+      </c>
+      <c r="D193">
+        <v>172.578354361126</v>
+      </c>
+      <c r="E193">
+        <v>62.4846865381779</v>
+      </c>
+      <c r="F193">
+        <v>86.0368513460343</v>
+      </c>
+      <c r="G193">
+        <v>68.90602862548459</v>
+      </c>
+      <c r="H193">
         <v>50.7753002578821</v>
-      </c>
-      <c r="D193">
-        <v>86.0368513460343</v>
-      </c>
-      <c r="E193">
-        <v>68.90602862548459</v>
-      </c>
-      <c r="F193">
-        <v>62.4846865381779</v>
-      </c>
-      <c r="G193">
-        <v>319.01525317118</v>
-      </c>
-      <c r="H193">
-        <v>172.578354361126</v>
       </c>
     </row>
     <row r="194">
@@ -2852,22 +2852,22 @@
         <v>734013.763179536</v>
       </c>
       <c r="C194">
+        <v>317.697980949052</v>
+      </c>
+      <c r="D194">
+        <v>183.568919766548</v>
+      </c>
+      <c r="E194">
+        <v>61.9306759672269</v>
+      </c>
+      <c r="F194">
+        <v>82.13964874958241</v>
+      </c>
+      <c r="G194">
+        <v>73.7694610562433</v>
+      </c>
+      <c r="H194">
         <v>52.3066902851334</v>
-      </c>
-      <c r="D194">
-        <v>82.13964874958241</v>
-      </c>
-      <c r="E194">
-        <v>73.7694610562433</v>
-      </c>
-      <c r="F194">
-        <v>61.9306759672269</v>
-      </c>
-      <c r="G194">
-        <v>317.697980949052</v>
-      </c>
-      <c r="H194">
-        <v>183.568919766548</v>
       </c>
     </row>
     <row r="195">
@@ -2878,22 +2878,22 @@
         <v>702753.762158665</v>
       </c>
       <c r="C195">
+        <v>319.138615800475</v>
+      </c>
+      <c r="D195">
+        <v>191.742486453939</v>
+      </c>
+      <c r="E195">
+        <v>62.3179536368848</v>
+      </c>
+      <c r="F195">
+        <v>81.2188000356925</v>
+      </c>
+      <c r="G195">
+        <v>66.4470705442214</v>
+      </c>
+      <c r="H195">
         <v>53.7210552640912</v>
-      </c>
-      <c r="D195">
-        <v>81.2188000356925</v>
-      </c>
-      <c r="E195">
-        <v>66.4470705442214</v>
-      </c>
-      <c r="F195">
-        <v>62.3179536368848</v>
-      </c>
-      <c r="G195">
-        <v>319.138615800475</v>
-      </c>
-      <c r="H195">
-        <v>191.742486453939</v>
       </c>
     </row>
     <row r="196">
@@ -2904,22 +2904,22 @@
         <v>704327.123541354</v>
       </c>
       <c r="C196">
+        <v>312.669742971183</v>
+      </c>
+      <c r="D196">
+        <v>187.333460331443</v>
+      </c>
+      <c r="E196">
+        <v>63.2821910427103</v>
+      </c>
+      <c r="F196">
+        <v>85.47947112365731</v>
+      </c>
+      <c r="G196">
+        <v>64.5426723316688</v>
+      </c>
+      <c r="H196">
         <v>54.2024082017939</v>
-      </c>
-      <c r="D196">
-        <v>85.47947112365731</v>
-      </c>
-      <c r="E196">
-        <v>64.5426723316688</v>
-      </c>
-      <c r="F196">
-        <v>63.2821910427103</v>
-      </c>
-      <c r="G196">
-        <v>312.669742971183</v>
-      </c>
-      <c r="H196">
-        <v>187.333460331443</v>
       </c>
     </row>
     <row r="197">
@@ -2930,22 +2930,22 @@
         <v>687625.512381659</v>
       </c>
       <c r="C197">
+        <v>294.942753645792</v>
+      </c>
+      <c r="D197">
+        <v>183.339413405998</v>
+      </c>
+      <c r="E197">
+        <v>65.55590913744351</v>
+      </c>
+      <c r="F197">
+        <v>89.0611110878646</v>
+      </c>
+      <c r="G197">
+        <v>61.6625641969818</v>
+      </c>
+      <c r="H197">
         <v>54.4392392302909</v>
-      </c>
-      <c r="D197">
-        <v>89.0611110878646</v>
-      </c>
-      <c r="E197">
-        <v>61.6625641969818</v>
-      </c>
-      <c r="F197">
-        <v>65.55590913744351</v>
-      </c>
-      <c r="G197">
-        <v>294.942753645792</v>
-      </c>
-      <c r="H197">
-        <v>183.339413405998</v>
       </c>
     </row>
     <row r="198">
@@ -2956,22 +2956,22 @@
         <v>691473.967202635</v>
       </c>
       <c r="C198">
+        <v>289.423502579045</v>
+      </c>
+      <c r="D198">
+        <v>185.607520573097</v>
+      </c>
+      <c r="E198">
+        <v>68.40262607480371</v>
+      </c>
+      <c r="F198">
+        <v>87.36755581758661</v>
+      </c>
+      <c r="G198">
+        <v>57.3942585629739</v>
+      </c>
+      <c r="H198">
         <v>55.277766787221</v>
-      </c>
-      <c r="D198">
-        <v>87.36755581758661</v>
-      </c>
-      <c r="E198">
-        <v>57.3942585629739</v>
-      </c>
-      <c r="F198">
-        <v>68.40262607480371</v>
-      </c>
-      <c r="G198">
-        <v>289.423502579045</v>
-      </c>
-      <c r="H198">
-        <v>185.607520573097</v>
       </c>
     </row>
     <row r="199">
@@ -2982,22 +2982,22 @@
         <v>709920.8608871381</v>
       </c>
       <c r="C199">
+        <v>293.184351501129</v>
+      </c>
+      <c r="D199">
+        <v>186.54573979457</v>
+      </c>
+      <c r="E199">
+        <v>71.3406456287544</v>
+      </c>
+      <c r="F199">
+        <v>88.39058542216389</v>
+      </c>
+      <c r="G199">
+        <v>61.1683416713869</v>
+      </c>
+      <c r="H199">
         <v>56.1729971922931</v>
-      </c>
-      <c r="D199">
-        <v>88.39058542216389</v>
-      </c>
-      <c r="E199">
-        <v>61.1683416713869</v>
-      </c>
-      <c r="F199">
-        <v>71.3406456287544</v>
-      </c>
-      <c r="G199">
-        <v>293.184351501129</v>
-      </c>
-      <c r="H199">
-        <v>186.54573979457</v>
       </c>
     </row>
     <row r="200">
@@ -3008,22 +3008,22 @@
         <v>692704.682898948</v>
       </c>
       <c r="C200">
+        <v>292.072712680828</v>
+      </c>
+      <c r="D200">
+        <v>188.186048628393</v>
+      </c>
+      <c r="E200">
+        <v>73.3463774744765</v>
+      </c>
+      <c r="F200">
+        <v>87.0284431889814</v>
+      </c>
+      <c r="G200">
+        <v>65.63074962893231</v>
+      </c>
+      <c r="H200">
         <v>56.9732212861872</v>
-      </c>
-      <c r="D200">
-        <v>87.0284431889814</v>
-      </c>
-      <c r="E200">
-        <v>65.63074962893231</v>
-      </c>
-      <c r="F200">
-        <v>73.3463774744765</v>
-      </c>
-      <c r="G200">
-        <v>292.072712680828</v>
-      </c>
-      <c r="H200">
-        <v>188.186048628393</v>
       </c>
     </row>
     <row r="201">
@@ -3034,22 +3034,22 @@
         <v>678110.282702437</v>
       </c>
       <c r="C201">
+        <v>289.027663488048</v>
+      </c>
+      <c r="D201">
+        <v>190.06051847678</v>
+      </c>
+      <c r="E201">
+        <v>72.0084864973699</v>
+      </c>
+      <c r="F201">
+        <v>87.34591731495421</v>
+      </c>
+      <c r="G201">
+        <v>65.3116245483474</v>
+      </c>
+      <c r="H201">
         <v>56.4436102518425</v>
-      </c>
-      <c r="D201">
-        <v>87.34591731495421</v>
-      </c>
-      <c r="E201">
-        <v>65.3116245483474</v>
-      </c>
-      <c r="F201">
-        <v>72.0084864973699</v>
-      </c>
-      <c r="G201">
-        <v>289.027663488048</v>
-      </c>
-      <c r="H201">
-        <v>190.06051847678</v>
       </c>
     </row>
     <row r="202">
@@ -3060,22 +3060,22 @@
         <v>636415.811380394</v>
       </c>
       <c r="C202">
+        <v>283.898157780291</v>
+      </c>
+      <c r="D202">
+        <v>181.079918318769</v>
+      </c>
+      <c r="E202">
+        <v>70.4338961188289</v>
+      </c>
+      <c r="F202">
+        <v>85.7807092490646</v>
+      </c>
+      <c r="G202">
+        <v>57.0607321700195</v>
+      </c>
+      <c r="H202">
         <v>54.0550584241247</v>
-      </c>
-      <c r="D202">
-        <v>85.7807092490646</v>
-      </c>
-      <c r="E202">
-        <v>57.0607321700195</v>
-      </c>
-      <c r="F202">
-        <v>70.4338961188289</v>
-      </c>
-      <c r="G202">
-        <v>283.898157780291</v>
-      </c>
-      <c r="H202">
-        <v>181.079918318769</v>
       </c>
     </row>
     <row r="203">
@@ -3086,22 +3086,22 @@
         <v>611572.910995807</v>
       </c>
       <c r="C203">
+        <v>278.742142814642</v>
+      </c>
+      <c r="D203">
+        <v>169.531380053538</v>
+      </c>
+      <c r="E203">
+        <v>70.71187647338721</v>
+      </c>
+      <c r="F203">
+        <v>82.92982069478001</v>
+      </c>
+      <c r="G203">
+        <v>53.4514464478671</v>
+      </c>
+      <c r="H203">
         <v>51.6060882207792</v>
-      </c>
-      <c r="D203">
-        <v>82.92982069478001</v>
-      </c>
-      <c r="E203">
-        <v>53.4514464478671</v>
-      </c>
-      <c r="F203">
-        <v>70.71187647338721</v>
-      </c>
-      <c r="G203">
-        <v>278.742142814642</v>
-      </c>
-      <c r="H203">
-        <v>169.531380053538</v>
       </c>
     </row>
     <row r="204">
@@ -3112,22 +3112,22 @@
         <v>621760.930102388</v>
       </c>
       <c r="C204">
+        <v>279.773208228275</v>
+      </c>
+      <c r="D204">
+        <v>171.81529671816</v>
+      </c>
+      <c r="E204">
+        <v>71.3124347573109</v>
+      </c>
+      <c r="F204">
+        <v>82.2162402470331</v>
+      </c>
+      <c r="G204">
+        <v>61.5709560840207</v>
+      </c>
+      <c r="H204">
         <v>49.9651175238582</v>
-      </c>
-      <c r="D204">
-        <v>82.2162402470331</v>
-      </c>
-      <c r="E204">
-        <v>61.5709560840207</v>
-      </c>
-      <c r="F204">
-        <v>71.3124347573109</v>
-      </c>
-      <c r="G204">
-        <v>279.773208228275</v>
-      </c>
-      <c r="H204">
-        <v>171.81529671816</v>
       </c>
     </row>
     <row r="205">
@@ -3138,22 +3138,22 @@
         <v>649821.532079021</v>
       </c>
       <c r="C205">
+        <v>288.578542481714</v>
+      </c>
+      <c r="D205">
+        <v>185.331359177905</v>
+      </c>
+      <c r="E205">
+        <v>73.3774176045397</v>
+      </c>
+      <c r="F205">
+        <v>88.3798139795918</v>
+      </c>
+      <c r="G205">
+        <v>73.6839051148938</v>
+      </c>
+      <c r="H205">
         <v>49.8755942125234</v>
-      </c>
-      <c r="D205">
-        <v>88.3798139795918</v>
-      </c>
-      <c r="E205">
-        <v>73.6839051148938</v>
-      </c>
-      <c r="F205">
-        <v>73.3774176045397</v>
-      </c>
-      <c r="G205">
-        <v>288.578542481714</v>
-      </c>
-      <c r="H205">
-        <v>185.331359177905</v>
       </c>
     </row>
     <row r="206">
@@ -3164,22 +3164,22 @@
         <v>676857.120540407</v>
       </c>
       <c r="C206">
+        <v>302.686693948455</v>
+      </c>
+      <c r="D206">
+        <v>198.114892552544</v>
+      </c>
+      <c r="E206">
+        <v>74.60581463862751</v>
+      </c>
+      <c r="F206">
+        <v>93.7095325098757</v>
+      </c>
+      <c r="G206">
+        <v>77.3819411694495</v>
+      </c>
+      <c r="H206">
         <v>50.8873833158463</v>
-      </c>
-      <c r="D206">
-        <v>93.7095325098757</v>
-      </c>
-      <c r="E206">
-        <v>77.3819411694495</v>
-      </c>
-      <c r="F206">
-        <v>74.60581463862751</v>
-      </c>
-      <c r="G206">
-        <v>302.686693948455</v>
-      </c>
-      <c r="H206">
-        <v>198.114892552544</v>
       </c>
     </row>
     <row r="207">
@@ -3190,22 +3190,22 @@
         <v>684844.457236709</v>
       </c>
       <c r="C207">
+        <v>316.211111532124</v>
+      </c>
+      <c r="D207">
+        <v>205.13048426732</v>
+      </c>
+      <c r="E207">
+        <v>72.2772409092926</v>
+      </c>
+      <c r="F207">
+        <v>90.67511085570651</v>
+      </c>
+      <c r="G207">
+        <v>83.0603471075508</v>
+      </c>
+      <c r="H207">
         <v>52.0551327068476</v>
-      </c>
-      <c r="D207">
-        <v>90.67511085570651</v>
-      </c>
-      <c r="E207">
-        <v>83.0603471075508</v>
-      </c>
-      <c r="F207">
-        <v>72.2772409092926</v>
-      </c>
-      <c r="G207">
-        <v>316.211111532124</v>
-      </c>
-      <c r="H207">
-        <v>205.13048426732</v>
       </c>
     </row>
     <row r="208">
@@ -3216,22 +3216,22 @@
         <v>693095.770509021</v>
       </c>
       <c r="C208">
+        <v>329.326885200818</v>
+      </c>
+      <c r="D208">
+        <v>204.291984464828</v>
+      </c>
+      <c r="E208">
+        <v>70.4964742245389</v>
+      </c>
+      <c r="F208">
+        <v>96.525113414646</v>
+      </c>
+      <c r="G208">
+        <v>77.6184227037311</v>
+      </c>
+      <c r="H208">
         <v>53.4409619775493</v>
-      </c>
-      <c r="D208">
-        <v>96.525113414646</v>
-      </c>
-      <c r="E208">
-        <v>77.6184227037311</v>
-      </c>
-      <c r="F208">
-        <v>70.4964742245389</v>
-      </c>
-      <c r="G208">
-        <v>329.326885200818</v>
-      </c>
-      <c r="H208">
-        <v>204.291984464828</v>
       </c>
     </row>
     <row r="209">
@@ -3242,22 +3242,22 @@
         <v>704680.845448695</v>
       </c>
       <c r="C209">
+        <v>339.191893344584</v>
+      </c>
+      <c r="D209">
+        <v>199.110369067753</v>
+      </c>
+      <c r="E209">
+        <v>74.0088327311681</v>
+      </c>
+      <c r="F209">
+        <v>91.2790696468772</v>
+      </c>
+      <c r="G209">
+        <v>72.1959304434239</v>
+      </c>
+      <c r="H209">
         <v>54.2668267574952</v>
-      </c>
-      <c r="D209">
-        <v>91.2790696468772</v>
-      </c>
-      <c r="E209">
-        <v>72.1959304434239</v>
-      </c>
-      <c r="F209">
-        <v>74.0088327311681</v>
-      </c>
-      <c r="G209">
-        <v>339.191893344584</v>
-      </c>
-      <c r="H209">
-        <v>199.110369067753</v>
       </c>
     </row>
     <row r="210">
@@ -3268,22 +3268,22 @@
         <v>721446.536418103</v>
       </c>
       <c r="C210">
+        <v>339.950998862202</v>
+      </c>
+      <c r="D210">
+        <v>200.371219321864</v>
+      </c>
+      <c r="E210">
+        <v>81.3506074329749</v>
+      </c>
+      <c r="F210">
+        <v>93.2874322077144</v>
+      </c>
+      <c r="G210">
+        <v>78.96640616768759</v>
+      </c>
+      <c r="H210">
         <v>54.1222393372008</v>
-      </c>
-      <c r="D210">
-        <v>93.2874322077144</v>
-      </c>
-      <c r="E210">
-        <v>78.96640616768759</v>
-      </c>
-      <c r="F210">
-        <v>81.3506074329749</v>
-      </c>
-      <c r="G210">
-        <v>339.950998862202</v>
-      </c>
-      <c r="H210">
-        <v>200.371219321864</v>
       </c>
     </row>
     <row r="211">
@@ -3294,22 +3294,22 @@
         <v>744971.271605488</v>
       </c>
       <c r="C211">
+        <v>337.071944394972</v>
+      </c>
+      <c r="D211">
+        <v>207.76926683378</v>
+      </c>
+      <c r="E211">
+        <v>85.9652303160166</v>
+      </c>
+      <c r="F211">
+        <v>95.332903704478</v>
+      </c>
+      <c r="G211">
+        <v>90.3402221317907</v>
+      </c>
+      <c r="H211">
         <v>53.517784433608</v>
-      </c>
-      <c r="D211">
-        <v>95.332903704478</v>
-      </c>
-      <c r="E211">
-        <v>90.3402221317907</v>
-      </c>
-      <c r="F211">
-        <v>85.9652303160166</v>
-      </c>
-      <c r="G211">
-        <v>337.071944394972</v>
-      </c>
-      <c r="H211">
-        <v>207.76926683378</v>
       </c>
     </row>
     <row r="212">
@@ -3320,22 +3320,22 @@
         <v>736116.350532481</v>
       </c>
       <c r="C212">
+        <v>327.295198131455</v>
+      </c>
+      <c r="D212">
+        <v>218.422807686335</v>
+      </c>
+      <c r="E212">
+        <v>85.530570668284</v>
+      </c>
+      <c r="F212">
+        <v>90.06137640832689</v>
+      </c>
+      <c r="G212">
+        <v>75.0706994251322</v>
+      </c>
+      <c r="H212">
         <v>51.9622442809669</v>
-      </c>
-      <c r="D212">
-        <v>90.06137640832689</v>
-      </c>
-      <c r="E212">
-        <v>75.0706994251322</v>
-      </c>
-      <c r="F212">
-        <v>85.530570668284</v>
-      </c>
-      <c r="G212">
-        <v>327.295198131455</v>
-      </c>
-      <c r="H212">
-        <v>218.422807686335</v>
       </c>
     </row>
     <row r="213">
@@ -3346,22 +3346,22 @@
         <v>722682.313284357</v>
       </c>
       <c r="C213">
+        <v>317.479892239147</v>
+      </c>
+      <c r="D213">
+        <v>226.937124481279</v>
+      </c>
+      <c r="E213">
+        <v>84.01420472375619</v>
+      </c>
+      <c r="F213">
+        <v>93.1209066079918</v>
+      </c>
+      <c r="G213">
+        <v>82.18262159561441</v>
+      </c>
+      <c r="H213">
         <v>48.6609530432126</v>
-      </c>
-      <c r="D213">
-        <v>93.1209066079918</v>
-      </c>
-      <c r="E213">
-        <v>82.18262159561441</v>
-      </c>
-      <c r="F213">
-        <v>84.01420472375619</v>
-      </c>
-      <c r="G213">
-        <v>317.479892239147</v>
-      </c>
-      <c r="H213">
-        <v>226.937124481279</v>
       </c>
     </row>
     <row r="214">
@@ -3372,22 +3372,22 @@
         <v>728033.006743236</v>
       </c>
       <c r="C214">
+        <v>320.817397729792</v>
+      </c>
+      <c r="D214">
+        <v>223.149040015819</v>
+      </c>
+      <c r="E214">
+        <v>85.3271072673365</v>
+      </c>
+      <c r="F214">
+        <v>94.2319053245897</v>
+      </c>
+      <c r="G214">
+        <v>83.6403020437851</v>
+      </c>
+      <c r="H214">
         <v>45.3614293818434</v>
-      </c>
-      <c r="D214">
-        <v>94.2319053245897</v>
-      </c>
-      <c r="E214">
-        <v>83.6403020437851</v>
-      </c>
-      <c r="F214">
-        <v>85.3271072673365</v>
-      </c>
-      <c r="G214">
-        <v>320.817397729792</v>
-      </c>
-      <c r="H214">
-        <v>223.149040015819</v>
       </c>
     </row>
     <row r="215">
@@ -3398,22 +3398,22 @@
         <v>720937.812933063</v>
       </c>
       <c r="C215">
+        <v>324.635181170563</v>
+      </c>
+      <c r="D215">
+        <v>211.765159175606</v>
+      </c>
+      <c r="E215">
+        <v>88.86104294829219</v>
+      </c>
+      <c r="F215">
+        <v>97.5244944012429</v>
+      </c>
+      <c r="G215">
+        <v>85.3091854693748</v>
+      </c>
+      <c r="H215">
         <v>44.5749597392325</v>
-      </c>
-      <c r="D215">
-        <v>97.5244944012429</v>
-      </c>
-      <c r="E215">
-        <v>85.3091854693748</v>
-      </c>
-      <c r="F215">
-        <v>88.86104294829219</v>
-      </c>
-      <c r="G215">
-        <v>324.635181170563</v>
-      </c>
-      <c r="H215">
-        <v>211.765159175606</v>
       </c>
     </row>
     <row r="216">
@@ -3424,22 +3424,22 @@
         <v>715600.872168771</v>
       </c>
       <c r="C216">
+        <v>326.80095433483</v>
+      </c>
+      <c r="D216">
+        <v>204.656043450177</v>
+      </c>
+      <c r="E216">
+        <v>90.2519495868754</v>
+      </c>
+      <c r="F216">
+        <v>97.99904632370639</v>
+      </c>
+      <c r="G216">
+        <v>87.172968268516</v>
+      </c>
+      <c r="H216">
         <v>44.9425390982887</v>
-      </c>
-      <c r="D216">
-        <v>97.99904632370639</v>
-      </c>
-      <c r="E216">
-        <v>87.172968268516</v>
-      </c>
-      <c r="F216">
-        <v>90.2519495868754</v>
-      </c>
-      <c r="G216">
-        <v>326.80095433483</v>
-      </c>
-      <c r="H216">
-        <v>204.656043450177</v>
       </c>
     </row>
     <row r="217">
@@ -3450,22 +3450,22 @@
         <v>709485.089460151</v>
       </c>
       <c r="C217">
+        <v>329.849169773813</v>
+      </c>
+      <c r="D217">
+        <v>205.283362796116</v>
+      </c>
+      <c r="E217">
+        <v>87.5050692637119</v>
+      </c>
+      <c r="F217">
+        <v>94.3347325442419</v>
+      </c>
+      <c r="G217">
+        <v>82.2068212056225</v>
+      </c>
+      <c r="H217">
         <v>45.0667589282927</v>
-      </c>
-      <c r="D217">
-        <v>94.3347325442419</v>
-      </c>
-      <c r="E217">
-        <v>82.2068212056225</v>
-      </c>
-      <c r="F217">
-        <v>87.5050692637119</v>
-      </c>
-      <c r="G217">
-        <v>329.849169773813</v>
-      </c>
-      <c r="H217">
-        <v>205.283362796116</v>
       </c>
     </row>
     <row r="218">
@@ -3476,22 +3476,22 @@
         <v>694743.7829797009</v>
       </c>
       <c r="C218">
+        <v>329.673185772919</v>
+      </c>
+      <c r="D218">
+        <v>211.362355872343</v>
+      </c>
+      <c r="E218">
+        <v>83.48614480277659</v>
+      </c>
+      <c r="F218">
+        <v>93.29053060659039</v>
+      </c>
+      <c r="G218">
+        <v>88.2348636287085</v>
+      </c>
+      <c r="H218">
         <v>45.7597442922852</v>
-      </c>
-      <c r="D218">
-        <v>93.29053060659039</v>
-      </c>
-      <c r="E218">
-        <v>88.2348636287085</v>
-      </c>
-      <c r="F218">
-        <v>83.48614480277659</v>
-      </c>
-      <c r="G218">
-        <v>329.673185772919</v>
-      </c>
-      <c r="H218">
-        <v>211.362355872343</v>
       </c>
     </row>
     <row r="219">
@@ -3502,22 +3502,22 @@
         <v>695548.499528537</v>
       </c>
       <c r="C219">
+        <v>330.354133987123</v>
+      </c>
+      <c r="D219">
+        <v>217.483182315306</v>
+      </c>
+      <c r="E219">
+        <v>82.9805933791714</v>
+      </c>
+      <c r="F219">
+        <v>89.5869411198626</v>
+      </c>
+      <c r="G219">
+        <v>84.90932058444901</v>
+      </c>
+      <c r="H219">
         <v>46.1034891583009</v>
-      </c>
-      <c r="D219">
-        <v>89.5869411198626</v>
-      </c>
-      <c r="E219">
-        <v>84.90932058444901</v>
-      </c>
-      <c r="F219">
-        <v>82.9805933791714</v>
-      </c>
-      <c r="G219">
-        <v>330.354133987123</v>
-      </c>
-      <c r="H219">
-        <v>217.483182315306</v>
       </c>
     </row>
     <row r="220">
@@ -3528,22 +3528,22 @@
         <v>714094.096369447</v>
       </c>
       <c r="C220">
+        <v>332.932255191103</v>
+      </c>
+      <c r="D220">
+        <v>218.124364410531</v>
+      </c>
+      <c r="E220">
+        <v>85.773419357371</v>
+      </c>
+      <c r="F220">
+        <v>95.1828542202671</v>
+      </c>
+      <c r="G220">
+        <v>83.283885574674</v>
+      </c>
+      <c r="H220">
         <v>46.5386607303382</v>
-      </c>
-      <c r="D220">
-        <v>95.1828542202671</v>
-      </c>
-      <c r="E220">
-        <v>83.283885574674</v>
-      </c>
-      <c r="F220">
-        <v>85.773419357371</v>
-      </c>
-      <c r="G220">
-        <v>332.932255191103</v>
-      </c>
-      <c r="H220">
-        <v>218.124364410531</v>
       </c>
     </row>
     <row r="221">
@@ -3554,22 +3554,22 @@
         <v>727121.630084188</v>
       </c>
       <c r="C221">
+        <v>335.714502601069</v>
+      </c>
+      <c r="D221">
+        <v>217.025964933734</v>
+      </c>
+      <c r="E221">
+        <v>86.97792579490221</v>
+      </c>
+      <c r="F221">
+        <v>94.31385305404319</v>
+      </c>
+      <c r="G221">
+        <v>82.8777889550846</v>
+      </c>
+      <c r="H221">
         <v>49.2741185045009</v>
-      </c>
-      <c r="D221">
-        <v>94.31385305404319</v>
-      </c>
-      <c r="E221">
-        <v>82.8777889550846</v>
-      </c>
-      <c r="F221">
-        <v>86.97792579490221</v>
-      </c>
-      <c r="G221">
-        <v>335.714502601069</v>
-      </c>
-      <c r="H221">
-        <v>217.025964933734</v>
       </c>
     </row>
     <row r="222">
@@ -3580,22 +3580,22 @@
         <v>734742.780183557</v>
       </c>
       <c r="C222">
+        <v>331.183783460399</v>
+      </c>
+      <c r="D222">
+        <v>224.699058092234</v>
+      </c>
+      <c r="E222">
+        <v>85.83759155929739</v>
+      </c>
+      <c r="F222">
+        <v>92.7102930487944</v>
+      </c>
+      <c r="G222">
+        <v>80.32165009599851</v>
+      </c>
+      <c r="H222">
         <v>52.9358965200162</v>
-      </c>
-      <c r="D222">
-        <v>92.7102930487944</v>
-      </c>
-      <c r="E222">
-        <v>80.32165009599851</v>
-      </c>
-      <c r="F222">
-        <v>85.83759155929739</v>
-      </c>
-      <c r="G222">
-        <v>331.183783460399</v>
-      </c>
-      <c r="H222">
-        <v>224.699058092234</v>
       </c>
     </row>
     <row r="223">
@@ -3606,22 +3606,22 @@
         <v>742414.479619675</v>
       </c>
       <c r="C223">
+        <v>322.798899701619</v>
+      </c>
+      <c r="D223">
+        <v>235.771994686947</v>
+      </c>
+      <c r="E223">
+        <v>84.8985105389976</v>
+      </c>
+      <c r="F223">
+        <v>95.72120733280209</v>
+      </c>
+      <c r="G223">
+        <v>73.3332596858485</v>
+      </c>
+      <c r="H223">
         <v>54.7347443664416</v>
-      </c>
-      <c r="D223">
-        <v>95.72120733280209</v>
-      </c>
-      <c r="E223">
-        <v>73.3332596858485</v>
-      </c>
-      <c r="F223">
-        <v>84.8985105389976</v>
-      </c>
-      <c r="G223">
-        <v>322.798899701619</v>
-      </c>
-      <c r="H223">
-        <v>235.771994686947</v>
       </c>
     </row>
     <row r="224">
@@ -3663,32 +3663,32 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>GSF-EPUB</t>
+          <t>GR-EPRIV-FOR</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>GR-EPRIV-INF</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>GR-EPUB</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>GSF-EPRIV-FOR</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>GSF-EPRIV-INF</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>GR-EPUB</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>GR-EPRIV-FOR</t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>GR-EPRIV-INF</t>
+          <t>GSF-EPUB</t>
         </is>
       </c>
     </row>
@@ -4792,14 +4792,14 @@
       <c r="B139">
         <v>-1.711506177697186</v>
       </c>
-      <c r="F139">
+      <c r="C139">
+        <v>2.139301359247625</v>
+      </c>
+      <c r="D139">
+        <v>-0.2622107149797825</v>
+      </c>
+      <c r="E139">
         <v>-1.374235716386252</v>
-      </c>
-      <c r="G139">
-        <v>2.139301359247625</v>
-      </c>
-      <c r="H139">
-        <v>-0.2622107149797825</v>
       </c>
     </row>
     <row r="140">
@@ -4809,14 +4809,14 @@
       <c r="B140">
         <v>1.239361656746363</v>
       </c>
-      <c r="F140">
+      <c r="C140">
+        <v>2.373940744314207</v>
+      </c>
+      <c r="D140">
+        <v>-1.55303585496902</v>
+      </c>
+      <c r="E140">
         <v>-1.203073019111955</v>
-      </c>
-      <c r="G140">
-        <v>2.373940744314207</v>
-      </c>
-      <c r="H140">
-        <v>-1.55303585496902</v>
       </c>
     </row>
     <row r="141">
@@ -4826,14 +4826,14 @@
       <c r="B141">
         <v>2.182581080195933</v>
       </c>
-      <c r="F141">
+      <c r="C141">
+        <v>0.2890336455256826</v>
+      </c>
+      <c r="D141">
+        <v>-1.252612550436372</v>
+      </c>
+      <c r="E141">
         <v>2.499905928745894</v>
-      </c>
-      <c r="G141">
-        <v>0.2890336455256826</v>
-      </c>
-      <c r="H141">
-        <v>-1.252612550436372</v>
       </c>
     </row>
     <row r="142">
@@ -4843,14 +4843,14 @@
       <c r="B142">
         <v>4.765651589106534</v>
       </c>
-      <c r="F142">
+      <c r="C142">
+        <v>1.938660684047155</v>
+      </c>
+      <c r="D142">
+        <v>0.2555873732799308</v>
+      </c>
+      <c r="E142">
         <v>-0.2701895829720691</v>
-      </c>
-      <c r="G142">
-        <v>1.938660684047155</v>
-      </c>
-      <c r="H142">
-        <v>0.2555873732799308</v>
       </c>
     </row>
     <row r="143">
@@ -4860,14 +4860,14 @@
       <c r="B143">
         <v>2.876743035360052</v>
       </c>
-      <c r="F143">
+      <c r="C143">
+        <v>4.660559341839021</v>
+      </c>
+      <c r="D143">
+        <v>1.352557882318295</v>
+      </c>
+      <c r="E143">
         <v>-2.378657589301358</v>
-      </c>
-      <c r="G143">
-        <v>4.660559341839021</v>
-      </c>
-      <c r="H143">
-        <v>1.352557882318295</v>
       </c>
     </row>
     <row r="144">
@@ -4877,14 +4877,14 @@
       <c r="B144">
         <v>-1.137137626087081</v>
       </c>
-      <c r="F144">
+      <c r="C144">
+        <v>4.157508699745205</v>
+      </c>
+      <c r="D144">
+        <v>0.3869499162562962</v>
+      </c>
+      <c r="E144">
         <v>1.885932606683371</v>
-      </c>
-      <c r="G144">
-        <v>4.157508699745205</v>
-      </c>
-      <c r="H144">
-        <v>0.3869499162562962</v>
       </c>
     </row>
     <row r="145">
@@ -4894,14 +4894,14 @@
       <c r="B145">
         <v>1.578250064934195</v>
       </c>
-      <c r="F145">
+      <c r="C145">
+        <v>3.457163300574329</v>
+      </c>
+      <c r="D145">
+        <v>-0.2739510823900893</v>
+      </c>
+      <c r="E145">
         <v>-1.493999673078605</v>
-      </c>
-      <c r="G145">
-        <v>3.457163300574329</v>
-      </c>
-      <c r="H145">
-        <v>-0.2739510823900893</v>
       </c>
     </row>
     <row r="146">
@@ -4911,14 +4911,14 @@
       <c r="B146">
         <v>4.096093304740345</v>
       </c>
-      <c r="F146">
+      <c r="C146">
+        <v>2.723421121546599</v>
+      </c>
+      <c r="D146">
+        <v>-0.1589592154227826</v>
+      </c>
+      <c r="E146">
         <v>-5.3401564954895</v>
-      </c>
-      <c r="G146">
-        <v>2.723421121546599</v>
-      </c>
-      <c r="H146">
-        <v>-0.1589592154227826</v>
       </c>
     </row>
     <row r="147">
@@ -4928,14 +4928,14 @@
       <c r="B147">
         <v>1.218602183114181</v>
       </c>
-      <c r="F147">
+      <c r="C147">
+        <v>2.382729218778601</v>
+      </c>
+      <c r="D147">
+        <v>-0.6725089940749496</v>
+      </c>
+      <c r="E147">
         <v>-1.624248989502441</v>
-      </c>
-      <c r="G147">
-        <v>2.382729218778601</v>
-      </c>
-      <c r="H147">
-        <v>-0.6725089940749496</v>
       </c>
     </row>
     <row r="148">
@@ -4945,14 +4945,14 @@
       <c r="B148">
         <v>1.518484295780143</v>
       </c>
-      <c r="F148">
+      <c r="C148">
+        <v>4.138538845281925</v>
+      </c>
+      <c r="D148">
+        <v>-0.637100081730857</v>
+      </c>
+      <c r="E148">
         <v>-1.28097128724517</v>
-      </c>
-      <c r="G148">
-        <v>4.138538845281925</v>
-      </c>
-      <c r="H148">
-        <v>-0.637100081730857</v>
       </c>
     </row>
     <row r="149">
@@ -4962,14 +4962,14 @@
       <c r="B149">
         <v>2.531696000077366</v>
       </c>
-      <c r="F149">
+      <c r="C149">
+        <v>5.343452970565865</v>
+      </c>
+      <c r="D149">
+        <v>-1.526386354761644</v>
+      </c>
+      <c r="E149">
         <v>-1.315480715392314</v>
-      </c>
-      <c r="G149">
-        <v>5.343452970565865</v>
-      </c>
-      <c r="H149">
-        <v>-1.526386354761644</v>
       </c>
     </row>
     <row r="150">
@@ -4979,14 +4979,14 @@
       <c r="B150">
         <v>2.868058976506127</v>
       </c>
-      <c r="F150">
+      <c r="C150">
+        <v>2.612347603114706</v>
+      </c>
+      <c r="D150">
+        <v>-3.006948983452729</v>
+      </c>
+      <c r="E150">
         <v>5.069087885960233</v>
-      </c>
-      <c r="G150">
-        <v>2.612347603114706</v>
-      </c>
-      <c r="H150">
-        <v>-3.006948983452729</v>
       </c>
     </row>
     <row r="151">
@@ -4997,22 +4997,22 @@
         <v>2.80792987406413</v>
       </c>
       <c r="C151">
+        <v>0.3618362187556956</v>
+      </c>
+      <c r="D151">
+        <v>-2.006976280713657</v>
+      </c>
+      <c r="E151">
+        <v>2.836023975150881</v>
+      </c>
+      <c r="F151">
+        <v>-1.426746717672045</v>
+      </c>
+      <c r="G151">
+        <v>15.36093305303388</v>
+      </c>
+      <c r="H151">
         <v>0.9120408747253839</v>
-      </c>
-      <c r="D151">
-        <v>-1.426746717672045</v>
-      </c>
-      <c r="E151">
-        <v>15.36093305303388</v>
-      </c>
-      <c r="F151">
-        <v>2.836023975150881</v>
-      </c>
-      <c r="G151">
-        <v>0.3618362187556956</v>
-      </c>
-      <c r="H151">
-        <v>-2.006976280713657</v>
       </c>
     </row>
     <row r="152">
@@ -5023,22 +5023,22 @@
         <v>-0.09901195520438666</v>
       </c>
       <c r="C152">
+        <v>1.918316069647275</v>
+      </c>
+      <c r="D152">
+        <v>0.9712332549090874</v>
+      </c>
+      <c r="E152">
+        <v>-6.020925456118642</v>
+      </c>
+      <c r="F152">
+        <v>1.763157294368045</v>
+      </c>
+      <c r="G152">
+        <v>-3.054841343077375</v>
+      </c>
+      <c r="H152">
         <v>1.05806693873447</v>
-      </c>
-      <c r="D152">
-        <v>1.763157294368045</v>
-      </c>
-      <c r="E152">
-        <v>-3.054841343077375</v>
-      </c>
-      <c r="F152">
-        <v>-6.020925456118642</v>
-      </c>
-      <c r="G152">
-        <v>1.918316069647275</v>
-      </c>
-      <c r="H152">
-        <v>0.9712332549090874</v>
       </c>
     </row>
     <row r="153">
@@ -5049,22 +5049,22 @@
         <v>3.134844531966752</v>
       </c>
       <c r="C153">
+        <v>2.194656976018061</v>
+      </c>
+      <c r="D153">
+        <v>1.20651928641009</v>
+      </c>
+      <c r="E153">
+        <v>-6.841199811568444</v>
+      </c>
+      <c r="F153">
+        <v>1.036154648405585</v>
+      </c>
+      <c r="G153">
+        <v>4.290824302511442</v>
+      </c>
+      <c r="H153">
         <v>0.5535572210653372</v>
-      </c>
-      <c r="D153">
-        <v>1.036154648405585</v>
-      </c>
-      <c r="E153">
-        <v>4.290824302511442</v>
-      </c>
-      <c r="F153">
-        <v>-6.841199811568444</v>
-      </c>
-      <c r="G153">
-        <v>2.194656976018061</v>
-      </c>
-      <c r="H153">
-        <v>1.20651928641009</v>
       </c>
     </row>
     <row r="154">
@@ -5075,22 +5075,22 @@
         <v>1.147834744453946</v>
       </c>
       <c r="C154">
+        <v>1.271267507588791</v>
+      </c>
+      <c r="D154">
+        <v>1.061853349365793</v>
+      </c>
+      <c r="E154">
+        <v>-5.746604653264898</v>
+      </c>
+      <c r="F154">
+        <v>-5.694354393190681</v>
+      </c>
+      <c r="G154">
+        <v>4.887256281935071</v>
+      </c>
+      <c r="H154">
         <v>-3.519153774098982</v>
-      </c>
-      <c r="D154">
-        <v>-5.694354393190681</v>
-      </c>
-      <c r="E154">
-        <v>4.887256281935071</v>
-      </c>
-      <c r="F154">
-        <v>-5.746604653264898</v>
-      </c>
-      <c r="G154">
-        <v>1.271267507588791</v>
-      </c>
-      <c r="H154">
-        <v>1.061853349365793</v>
       </c>
     </row>
     <row r="155">
@@ -5101,22 +5101,22 @@
         <v>1.431956739437568</v>
       </c>
       <c r="C155">
+        <v>1.775129277204579</v>
+      </c>
+      <c r="D155">
+        <v>2.479082286471002</v>
+      </c>
+      <c r="E155">
+        <v>-5.877530175332046</v>
+      </c>
+      <c r="F155">
+        <v>5.911724196034562</v>
+      </c>
+      <c r="G155">
+        <v>1.231757806786349</v>
+      </c>
+      <c r="H155">
         <v>-5.697294533536601</v>
-      </c>
-      <c r="D155">
-        <v>5.911724196034562</v>
-      </c>
-      <c r="E155">
-        <v>1.231757806786349</v>
-      </c>
-      <c r="F155">
-        <v>-5.877530175332046</v>
-      </c>
-      <c r="G155">
-        <v>1.775129277204579</v>
-      </c>
-      <c r="H155">
-        <v>2.479082286471002</v>
       </c>
     </row>
     <row r="156">
@@ -5127,22 +5127,22 @@
         <v>-0.2433667246229843</v>
       </c>
       <c r="C156">
+        <v>1.153161999909025</v>
+      </c>
+      <c r="D156">
+        <v>1.108326259219061</v>
+      </c>
+      <c r="E156">
+        <v>-0.9464322292061844</v>
+      </c>
+      <c r="F156">
+        <v>2.696707537425436</v>
+      </c>
+      <c r="G156">
+        <v>-2.651999354997747</v>
+      </c>
+      <c r="H156">
         <v>-0.6086346701819068</v>
-      </c>
-      <c r="D156">
-        <v>2.696707537425436</v>
-      </c>
-      <c r="E156">
-        <v>-2.651999354997747</v>
-      </c>
-      <c r="F156">
-        <v>-0.9464322292061844</v>
-      </c>
-      <c r="G156">
-        <v>1.153161999909025</v>
-      </c>
-      <c r="H156">
-        <v>1.108326259219061</v>
       </c>
     </row>
     <row r="157">
@@ -5153,22 +5153,22 @@
         <v>-4.133628196399575</v>
       </c>
       <c r="C157">
+        <v>-0.8601789498213108</v>
+      </c>
+      <c r="D157">
+        <v>-0.9414104503297271</v>
+      </c>
+      <c r="E157">
+        <v>2.405131293198548</v>
+      </c>
+      <c r="F157">
+        <v>6.313958501214745</v>
+      </c>
+      <c r="G157">
+        <v>-10.40609358116805</v>
+      </c>
+      <c r="H157">
         <v>4.05966639132096</v>
-      </c>
-      <c r="D157">
-        <v>6.313958501214745</v>
-      </c>
-      <c r="E157">
-        <v>-10.40609358116805</v>
-      </c>
-      <c r="F157">
-        <v>2.405131293198548</v>
-      </c>
-      <c r="G157">
-        <v>-0.8601789498213108</v>
-      </c>
-      <c r="H157">
-        <v>-0.9414104503297271</v>
       </c>
     </row>
     <row r="158">
@@ -5179,22 +5179,22 @@
         <v>-2.58570685826448</v>
       </c>
       <c r="C158">
+        <v>-1.440575439526559</v>
+      </c>
+      <c r="D158">
+        <v>-1.761649457283154</v>
+      </c>
+      <c r="E158">
+        <v>3.556659318030664</v>
+      </c>
+      <c r="F158">
+        <v>-0.5274271924309182</v>
+      </c>
+      <c r="G158">
+        <v>0.509465811504084</v>
+      </c>
+      <c r="H158">
         <v>5.707787376651496</v>
-      </c>
-      <c r="D158">
-        <v>-0.5274271924309182</v>
-      </c>
-      <c r="E158">
-        <v>0.509465811504084</v>
-      </c>
-      <c r="F158">
-        <v>3.556659318030664</v>
-      </c>
-      <c r="G158">
-        <v>-1.440575439526559</v>
-      </c>
-      <c r="H158">
-        <v>-1.761649457283154</v>
       </c>
     </row>
     <row r="159">
@@ -5205,22 +5205,22 @@
         <v>-1.936555872219048</v>
       </c>
       <c r="C159">
+        <v>-0.6511003214100697</v>
+      </c>
+      <c r="D159">
+        <v>-1.670738795956039</v>
+      </c>
+      <c r="E159">
+        <v>4.640130392948105</v>
+      </c>
+      <c r="F159">
+        <v>-3.288323325728126</v>
+      </c>
+      <c r="G159">
+        <v>6.26272704060149</v>
+      </c>
+      <c r="H159">
         <v>6.283762883276323</v>
-      </c>
-      <c r="D159">
-        <v>-3.288323325728126</v>
-      </c>
-      <c r="E159">
-        <v>6.26272704060149</v>
-      </c>
-      <c r="F159">
-        <v>4.640130392948105</v>
-      </c>
-      <c r="G159">
-        <v>-0.6511003214100697</v>
-      </c>
-      <c r="H159">
-        <v>-1.670738795956039</v>
       </c>
     </row>
     <row r="160">
@@ -5231,22 +5231,22 @@
         <v>1.862139378589101</v>
       </c>
       <c r="C160">
+        <v>-1.127016404476711</v>
+      </c>
+      <c r="D160">
+        <v>1.042349360454353</v>
+      </c>
+      <c r="E160">
+        <v>1.50636530942696</v>
+      </c>
+      <c r="F160">
+        <v>-5.653846181312372</v>
+      </c>
+      <c r="G160">
+        <v>-1.208866127204833</v>
+      </c>
+      <c r="H160">
         <v>2.557163980659904</v>
-      </c>
-      <c r="D160">
-        <v>-5.653846181312372</v>
-      </c>
-      <c r="E160">
-        <v>-1.208866127204833</v>
-      </c>
-      <c r="F160">
-        <v>1.50636530942696</v>
-      </c>
-      <c r="G160">
-        <v>-1.127016404476711</v>
-      </c>
-      <c r="H160">
-        <v>1.042349360454353</v>
       </c>
     </row>
     <row r="161">
@@ -5257,22 +5257,22 @@
         <v>2.967320415082897</v>
       </c>
       <c r="C161">
+        <v>-0.3289198439845875</v>
+      </c>
+      <c r="D161">
+        <v>4.382116906741551</v>
+      </c>
+      <c r="E161">
+        <v>-2.11008440477507</v>
+      </c>
+      <c r="F161">
+        <v>7.759135827201025</v>
+      </c>
+      <c r="G161">
+        <v>12.26485121078764</v>
+      </c>
+      <c r="H161">
         <v>-1.789209364815636</v>
-      </c>
-      <c r="D161">
-        <v>7.759135827201025</v>
-      </c>
-      <c r="E161">
-        <v>12.26485121078764</v>
-      </c>
-      <c r="F161">
-        <v>-2.11008440477507</v>
-      </c>
-      <c r="G161">
-        <v>-0.3289198439845875</v>
-      </c>
-      <c r="H161">
-        <v>4.382116906741551</v>
       </c>
     </row>
     <row r="162">
@@ -5283,22 +5283,22 @@
         <v>2.796993981218199</v>
       </c>
       <c r="C162">
+        <v>1.97459542305678</v>
+      </c>
+      <c r="D162">
+        <v>2.628559158621724</v>
+      </c>
+      <c r="E162">
+        <v>-1.642875785955689</v>
+      </c>
+      <c r="F162">
+        <v>1.456310401718275</v>
+      </c>
+      <c r="G162">
+        <v>-0.9794780200607645</v>
+      </c>
+      <c r="H162">
         <v>-0.2063595782944572</v>
-      </c>
-      <c r="D162">
-        <v>1.456310401718275</v>
-      </c>
-      <c r="E162">
-        <v>-0.9794780200607645</v>
-      </c>
-      <c r="F162">
-        <v>-1.642875785955689</v>
-      </c>
-      <c r="G162">
-        <v>1.97459542305678</v>
-      </c>
-      <c r="H162">
-        <v>2.628559158621724</v>
       </c>
     </row>
     <row r="163">
@@ -5309,22 +5309,22 @@
         <v>4.225589103571403</v>
       </c>
       <c r="C163">
+        <v>2.182580772610176</v>
+      </c>
+      <c r="D163">
+        <v>-3.264199312178895</v>
+      </c>
+      <c r="E163">
+        <v>3.493109781127668</v>
+      </c>
+      <c r="F163">
+        <v>-7.571788241964816</v>
+      </c>
+      <c r="G163">
+        <v>-4.026544910491026</v>
+      </c>
+      <c r="H163">
         <v>3.343495696782428</v>
-      </c>
-      <c r="D163">
-        <v>-7.571788241964816</v>
-      </c>
-      <c r="E163">
-        <v>-4.026544910491026</v>
-      </c>
-      <c r="F163">
-        <v>3.493109781127668</v>
-      </c>
-      <c r="G163">
-        <v>2.182580772610176</v>
-      </c>
-      <c r="H163">
-        <v>-3.264199312178895</v>
       </c>
     </row>
     <row r="164">
@@ -5335,22 +5335,22 @@
         <v>0.0287397736218109</v>
       </c>
       <c r="C164">
+        <v>1.155822443188304</v>
+      </c>
+      <c r="D164">
+        <v>-4.477429891675699</v>
+      </c>
+      <c r="E164">
+        <v>7.033201386685239</v>
+      </c>
+      <c r="F164">
+        <v>3.76205051494416</v>
+      </c>
+      <c r="G164">
+        <v>4.922143677413682</v>
+      </c>
+      <c r="H164">
         <v>2.686034513072433</v>
-      </c>
-      <c r="D164">
-        <v>3.76205051494416</v>
-      </c>
-      <c r="E164">
-        <v>4.922143677413682</v>
-      </c>
-      <c r="F164">
-        <v>7.033201386685239</v>
-      </c>
-      <c r="G164">
-        <v>1.155822443188304</v>
-      </c>
-      <c r="H164">
-        <v>-4.477429891675699</v>
       </c>
     </row>
     <row r="165">
@@ -5361,22 +5361,22 @@
         <v>1.052181249443485</v>
       </c>
       <c r="C165">
+        <v>0.8521197600882768</v>
+      </c>
+      <c r="D165">
+        <v>-1.067094574318872</v>
+      </c>
+      <c r="E165">
+        <v>2.343396111441565</v>
+      </c>
+      <c r="F165">
+        <v>-1.847460975079185</v>
+      </c>
+      <c r="G165">
+        <v>-4.160696262919384</v>
+      </c>
+      <c r="H165">
         <v>0.742241833030266</v>
-      </c>
-      <c r="D165">
-        <v>-1.847460975079185</v>
-      </c>
-      <c r="E165">
-        <v>-4.160696262919384</v>
-      </c>
-      <c r="F165">
-        <v>2.343396111441565</v>
-      </c>
-      <c r="G165">
-        <v>0.8521197600882768</v>
-      </c>
-      <c r="H165">
-        <v>-1.067094574318872</v>
       </c>
     </row>
     <row r="166">
@@ -5387,22 +5387,22 @@
         <v>2.504098886540773</v>
       </c>
       <c r="C166">
+        <v>1.567274762748894</v>
+      </c>
+      <c r="D166">
+        <v>0.9357649638246146</v>
+      </c>
+      <c r="E166">
+        <v>-3.251049761803682</v>
+      </c>
+      <c r="F166">
+        <v>6.131035435092436</v>
+      </c>
+      <c r="G166">
+        <v>-0.4900926351790846</v>
+      </c>
+      <c r="H166">
         <v>0.3965543971518271</v>
-      </c>
-      <c r="D166">
-        <v>6.131035435092436</v>
-      </c>
-      <c r="E166">
-        <v>-0.4900926351790846</v>
-      </c>
-      <c r="F166">
-        <v>-3.251049761803682</v>
-      </c>
-      <c r="G166">
-        <v>1.567274762748894</v>
-      </c>
-      <c r="H166">
-        <v>0.9357649638246146</v>
       </c>
     </row>
     <row r="167">
@@ -5413,22 +5413,22 @@
         <v>1.874010174608309</v>
       </c>
       <c r="C167">
+        <v>1.022005366153667</v>
+      </c>
+      <c r="D167">
+        <v>1.566595944880467</v>
+      </c>
+      <c r="E167">
+        <v>-2.435891225991349</v>
+      </c>
+      <c r="F167">
+        <v>1.306242647180977</v>
+      </c>
+      <c r="G167">
+        <v>-6.466187689000257</v>
+      </c>
+      <c r="H167">
         <v>0.210302095901671</v>
-      </c>
-      <c r="D167">
-        <v>1.306242647180977</v>
-      </c>
-      <c r="E167">
-        <v>-6.466187689000257</v>
-      </c>
-      <c r="F167">
-        <v>-2.435891225991349</v>
-      </c>
-      <c r="G167">
-        <v>1.022005366153667</v>
-      </c>
-      <c r="H167">
-        <v>1.566595944880467</v>
       </c>
     </row>
     <row r="168">
@@ -5439,22 +5439,22 @@
         <v>0.7002953413130397</v>
       </c>
       <c r="C168">
+        <v>0.5457612750626284</v>
+      </c>
+      <c r="D168">
+        <v>0.09922302325739984</v>
+      </c>
+      <c r="E168">
+        <v>0.2512856379871309</v>
+      </c>
+      <c r="F168">
+        <v>-1.053214694337057</v>
+      </c>
+      <c r="G168">
+        <v>4.713949632759373</v>
+      </c>
+      <c r="H168">
         <v>2.145665751031234</v>
-      </c>
-      <c r="D168">
-        <v>-1.053214694337057</v>
-      </c>
-      <c r="E168">
-        <v>4.713949632759373</v>
-      </c>
-      <c r="F168">
-        <v>0.2512856379871309</v>
-      </c>
-      <c r="G168">
-        <v>0.5457612750626284</v>
-      </c>
-      <c r="H168">
-        <v>0.09922302325739984</v>
       </c>
     </row>
     <row r="169">
@@ -5465,22 +5465,22 @@
         <v>-0.2433920733072692</v>
       </c>
       <c r="C169">
+        <v>0.8412536698735984</v>
+      </c>
+      <c r="D169">
+        <v>-1.831677810564192</v>
+      </c>
+      <c r="E169">
+        <v>0.08241827798225465</v>
+      </c>
+      <c r="F169">
+        <v>-7.867344398363374</v>
+      </c>
+      <c r="G169">
+        <v>5.363249656564983</v>
+      </c>
+      <c r="H169">
         <v>6.80982680570652</v>
-      </c>
-      <c r="D169">
-        <v>-7.867344398363374</v>
-      </c>
-      <c r="E169">
-        <v>5.363249656564983</v>
-      </c>
-      <c r="F169">
-        <v>0.08241827798225465</v>
-      </c>
-      <c r="G169">
-        <v>0.8412536698735984</v>
-      </c>
-      <c r="H169">
-        <v>-1.831677810564192</v>
       </c>
     </row>
     <row r="170">
@@ -5491,22 +5491,22 @@
         <v>-0.708000840138201</v>
       </c>
       <c r="C170">
+        <v>0.09201980540989307</v>
+      </c>
+      <c r="D170">
+        <v>-1.360196469612163</v>
+      </c>
+      <c r="E170">
+        <v>-0.0241453500438582</v>
+      </c>
+      <c r="F170">
+        <v>9.09874308454075</v>
+      </c>
+      <c r="G170">
+        <v>-4.409803378903565</v>
+      </c>
+      <c r="H170">
         <v>6.329524531130026</v>
-      </c>
-      <c r="D170">
-        <v>9.09874308454075</v>
-      </c>
-      <c r="E170">
-        <v>-4.409803378903565</v>
-      </c>
-      <c r="F170">
-        <v>-0.0241453500438582</v>
-      </c>
-      <c r="G170">
-        <v>0.09201980540989307</v>
-      </c>
-      <c r="H170">
-        <v>-1.360196469612163</v>
       </c>
     </row>
     <row r="171">
@@ -5517,22 +5517,22 @@
         <v>-1.217135355390331</v>
       </c>
       <c r="C171">
+        <v>0.6590608808493492</v>
+      </c>
+      <c r="D171">
+        <v>-0.4598599934368397</v>
+      </c>
+      <c r="E171">
+        <v>-1.101892665473048</v>
+      </c>
+      <c r="F171">
+        <v>11.88358617556882</v>
+      </c>
+      <c r="G171">
+        <v>-12.87084928224711</v>
+      </c>
+      <c r="H171">
         <v>0.4451699601914605</v>
-      </c>
-      <c r="D171">
-        <v>11.88358617556882</v>
-      </c>
-      <c r="E171">
-        <v>-12.87084928224711</v>
-      </c>
-      <c r="F171">
-        <v>-1.101892665473048</v>
-      </c>
-      <c r="G171">
-        <v>0.6590608808493492</v>
-      </c>
-      <c r="H171">
-        <v>-0.4598599934368397</v>
       </c>
     </row>
     <row r="172">
@@ -5543,22 +5543,22 @@
         <v>0.9801054332605696</v>
       </c>
       <c r="C172">
+        <v>2.68619789014688</v>
+      </c>
+      <c r="D172">
+        <v>-2.370117303581776</v>
+      </c>
+      <c r="E172">
+        <v>-1.282157943112239</v>
+      </c>
+      <c r="F172">
+        <v>-1.925684106914094</v>
+      </c>
+      <c r="G172">
+        <v>9.163208743078322</v>
+      </c>
+      <c r="H172">
         <v>-2.751017448753434</v>
-      </c>
-      <c r="D172">
-        <v>-1.925684106914094</v>
-      </c>
-      <c r="E172">
-        <v>9.163208743078322</v>
-      </c>
-      <c r="F172">
-        <v>-1.282157943112239</v>
-      </c>
-      <c r="G172">
-        <v>2.68619789014688</v>
-      </c>
-      <c r="H172">
-        <v>-2.370117303581776</v>
       </c>
     </row>
     <row r="173">
@@ -5569,22 +5569,22 @@
         <v>1.455064349562973</v>
       </c>
       <c r="C173">
+        <v>1.984763009420898</v>
+      </c>
+      <c r="D173">
+        <v>-2.119497922620672</v>
+      </c>
+      <c r="E173">
+        <v>1.838226851396652</v>
+      </c>
+      <c r="F173">
+        <v>4.188402088238319</v>
+      </c>
+      <c r="G173">
+        <v>-7.110165144722203</v>
+      </c>
+      <c r="H173">
         <v>-0.9553365621159493</v>
-      </c>
-      <c r="D173">
-        <v>4.188402088238319</v>
-      </c>
-      <c r="E173">
-        <v>-7.110165144722203</v>
-      </c>
-      <c r="F173">
-        <v>1.838226851396652</v>
-      </c>
-      <c r="G173">
-        <v>1.984763009420898</v>
-      </c>
-      <c r="H173">
-        <v>-2.119497922620672</v>
       </c>
     </row>
     <row r="174">
@@ -5595,22 +5595,22 @@
         <v>-0.4408114706011101</v>
       </c>
       <c r="C174">
+        <v>-0.8216007901084343</v>
+      </c>
+      <c r="D174">
+        <v>4.071657986937494</v>
+      </c>
+      <c r="E174">
+        <v>3.959348432887455</v>
+      </c>
+      <c r="F174">
+        <v>-3.725918350796775</v>
+      </c>
+      <c r="G174">
+        <v>-4.967474032670804</v>
+      </c>
+      <c r="H174">
         <v>0.1194012816086332</v>
-      </c>
-      <c r="D174">
-        <v>-3.725918350796775</v>
-      </c>
-      <c r="E174">
-        <v>-4.967474032670804</v>
-      </c>
-      <c r="F174">
-        <v>3.959348432887455</v>
-      </c>
-      <c r="G174">
-        <v>-0.8216007901084343</v>
-      </c>
-      <c r="H174">
-        <v>4.071657986937494</v>
       </c>
     </row>
     <row r="175">
@@ -5621,22 +5621,22 @@
         <v>0.9548836552981443</v>
       </c>
       <c r="C175">
+        <v>-1.624115463170506</v>
+      </c>
+      <c r="D175">
+        <v>7.403801953996303</v>
+      </c>
+      <c r="E175">
+        <v>5.44099379614631</v>
+      </c>
+      <c r="F175">
+        <v>1.125473978564018</v>
+      </c>
+      <c r="G175">
+        <v>11.08807001760712</v>
+      </c>
+      <c r="H175">
         <v>0.1913914269198402</v>
-      </c>
-      <c r="D175">
-        <v>1.125473978564018</v>
-      </c>
-      <c r="E175">
-        <v>11.08807001760712</v>
-      </c>
-      <c r="F175">
-        <v>5.44099379614631</v>
-      </c>
-      <c r="G175">
-        <v>-1.624115463170506</v>
-      </c>
-      <c r="H175">
-        <v>7.403801953996303</v>
       </c>
     </row>
     <row r="176">
@@ -5647,22 +5647,22 @@
         <v>0.5373368479036689</v>
       </c>
       <c r="C176">
+        <v>-0.5047448629488138</v>
+      </c>
+      <c r="D176">
+        <v>3.542797228043248</v>
+      </c>
+      <c r="E176">
+        <v>6.821126301085556</v>
+      </c>
+      <c r="F176">
+        <v>-2.242118049445363</v>
+      </c>
+      <c r="G176">
+        <v>-0.3455023440751881</v>
+      </c>
+      <c r="H176">
         <v>-1.173548909987998</v>
-      </c>
-      <c r="D176">
-        <v>-2.242118049445363</v>
-      </c>
-      <c r="E176">
-        <v>-0.3455023440751881</v>
-      </c>
-      <c r="F176">
-        <v>6.821126301085556</v>
-      </c>
-      <c r="G176">
-        <v>-0.5047448629488138</v>
-      </c>
-      <c r="H176">
-        <v>3.542797228043248</v>
       </c>
     </row>
     <row r="177">
@@ -5673,22 +5673,22 @@
         <v>-0.9667055439238514</v>
       </c>
       <c r="C177">
+        <v>1.954451051919048</v>
+      </c>
+      <c r="D177">
+        <v>-0.5694041696182039</v>
+      </c>
+      <c r="E177">
+        <v>6.453055792667461</v>
+      </c>
+      <c r="F177">
+        <v>-1.771230682728475</v>
+      </c>
+      <c r="G177">
+        <v>7.400874236432919</v>
+      </c>
+      <c r="H177">
         <v>-5.571036809191742</v>
-      </c>
-      <c r="D177">
-        <v>-1.771230682728475</v>
-      </c>
-      <c r="E177">
-        <v>7.400874236432919</v>
-      </c>
-      <c r="F177">
-        <v>6.453055792667461</v>
-      </c>
-      <c r="G177">
-        <v>1.954451051919048</v>
-      </c>
-      <c r="H177">
-        <v>-0.5694041696182039</v>
       </c>
     </row>
     <row r="178">
@@ -5699,22 +5699,22 @@
         <v>-1.420962623861088</v>
       </c>
       <c r="C178">
+        <v>4.440255848272012</v>
+      </c>
+      <c r="D178">
+        <v>-2.470168861273314</v>
+      </c>
+      <c r="E178">
+        <v>3.525930595823823</v>
+      </c>
+      <c r="F178">
+        <v>-5.103281533342374</v>
+      </c>
+      <c r="G178">
+        <v>10.10547086195421</v>
+      </c>
+      <c r="H178">
         <v>-5.468661614479009</v>
-      </c>
-      <c r="D178">
-        <v>-5.103281533342374</v>
-      </c>
-      <c r="E178">
-        <v>10.10547086195421</v>
-      </c>
-      <c r="F178">
-        <v>3.525930595823823</v>
-      </c>
-      <c r="G178">
-        <v>4.440255848272012</v>
-      </c>
-      <c r="H178">
-        <v>-2.470168861273314</v>
       </c>
     </row>
     <row r="179">
@@ -5725,22 +5725,22 @@
         <v>-0.5328684928223804</v>
       </c>
       <c r="C179">
+        <v>2.896125303916941</v>
+      </c>
+      <c r="D179">
+        <v>-1.387405444226686</v>
+      </c>
+      <c r="E179">
+        <v>-0.3523947823165674</v>
+      </c>
+      <c r="F179">
+        <v>2.572374800923427</v>
+      </c>
+      <c r="G179">
+        <v>2.479765898932818</v>
+      </c>
+      <c r="H179">
         <v>-1.537207734962687</v>
-      </c>
-      <c r="D179">
-        <v>2.572374800923427</v>
-      </c>
-      <c r="E179">
-        <v>2.479765898932818</v>
-      </c>
-      <c r="F179">
-        <v>-0.3523947823165674</v>
-      </c>
-      <c r="G179">
-        <v>2.896125303916941</v>
-      </c>
-      <c r="H179">
-        <v>-1.387405444226686</v>
       </c>
     </row>
     <row r="180">
@@ -5751,22 +5751,22 @@
         <v>-1.182117966791696</v>
       </c>
       <c r="C180">
+        <v>-0.96381996747259</v>
+      </c>
+      <c r="D180">
+        <v>3.106432749446331</v>
+      </c>
+      <c r="E180">
+        <v>-1.179205693477647</v>
+      </c>
+      <c r="F180">
+        <v>5.091234062375305</v>
+      </c>
+      <c r="G180">
+        <v>-14.77011857838694</v>
+      </c>
+      <c r="H180">
         <v>0.7405221286419295</v>
-      </c>
-      <c r="D180">
-        <v>5.091234062375305</v>
-      </c>
-      <c r="E180">
-        <v>-14.77011857838694</v>
-      </c>
-      <c r="F180">
-        <v>-1.179205693477647</v>
-      </c>
-      <c r="G180">
-        <v>-0.96381996747259</v>
-      </c>
-      <c r="H180">
-        <v>3.106432749446331</v>
       </c>
     </row>
     <row r="181">
@@ -5777,22 +5777,22 @@
         <v>0.5131012472387342</v>
       </c>
       <c r="C181">
+        <v>-1.1113862580303</v>
+      </c>
+      <c r="D181">
+        <v>3.790956179962568</v>
+      </c>
+      <c r="E181">
+        <v>0.381535269368416</v>
+      </c>
+      <c r="F181">
+        <v>2.76432238101032</v>
+      </c>
+      <c r="G181">
+        <v>1.313510663644424</v>
+      </c>
+      <c r="H181">
         <v>1.805686045036214</v>
-      </c>
-      <c r="D181">
-        <v>2.76432238101032</v>
-      </c>
-      <c r="E181">
-        <v>1.313510663644424</v>
-      </c>
-      <c r="F181">
-        <v>0.381535269368416</v>
-      </c>
-      <c r="G181">
-        <v>-1.1113862580303</v>
-      </c>
-      <c r="H181">
-        <v>3.790956179962568</v>
       </c>
     </row>
     <row r="182">
@@ -5803,22 +5803,22 @@
         <v>1.835716779575369</v>
       </c>
       <c r="C182">
+        <v>2.1745552672221</v>
+      </c>
+      <c r="D182">
+        <v>1.305956574377132</v>
+      </c>
+      <c r="E182">
+        <v>0.09048793975485747</v>
+      </c>
+      <c r="F182">
+        <v>5.885672192534641</v>
+      </c>
+      <c r="G182">
+        <v>-2.711993562682302</v>
+      </c>
+      <c r="H182">
         <v>1.155057924909841</v>
-      </c>
-      <c r="D182">
-        <v>5.885672192534641</v>
-      </c>
-      <c r="E182">
-        <v>-2.711993562682302</v>
-      </c>
-      <c r="F182">
-        <v>0.09048793975485747</v>
-      </c>
-      <c r="G182">
-        <v>2.1745552672221</v>
-      </c>
-      <c r="H182">
-        <v>1.305956574377132</v>
       </c>
     </row>
     <row r="183">
@@ -5829,22 +5829,22 @@
         <v>1.442803035297602</v>
       </c>
       <c r="C183">
+        <v>1.561905415897491</v>
+      </c>
+      <c r="D183">
+        <v>2.169205463299795</v>
+      </c>
+      <c r="E183">
+        <v>-1.904428845460404</v>
+      </c>
+      <c r="F183">
+        <v>1.926410817336111</v>
+      </c>
+      <c r="G183">
+        <v>-1.517835391960332</v>
+      </c>
+      <c r="H183">
         <v>1.136231937299592</v>
-      </c>
-      <c r="D183">
-        <v>1.926410817336111</v>
-      </c>
-      <c r="E183">
-        <v>-1.517835391960332</v>
-      </c>
-      <c r="F183">
-        <v>-1.904428845460404</v>
-      </c>
-      <c r="G183">
-        <v>1.561905415897491</v>
-      </c>
-      <c r="H183">
-        <v>2.169205463299795</v>
       </c>
     </row>
     <row r="184">
@@ -5855,22 +5855,22 @@
         <v>0.3304793313735566</v>
       </c>
       <c r="C184">
+        <v>-1.654658438998891</v>
+      </c>
+      <c r="D184">
+        <v>4.788202069924319</v>
+      </c>
+      <c r="E184">
+        <v>-2.16508784195002</v>
+      </c>
+      <c r="F184">
+        <v>4.770321413598744</v>
+      </c>
+      <c r="G184">
+        <v>-7.916629535919184</v>
+      </c>
+      <c r="H184">
         <v>1.141386914571707</v>
-      </c>
-      <c r="D184">
-        <v>4.770321413598744</v>
-      </c>
-      <c r="E184">
-        <v>-7.916629535919184</v>
-      </c>
-      <c r="F184">
-        <v>-2.16508784195002</v>
-      </c>
-      <c r="G184">
-        <v>-1.654658438998891</v>
-      </c>
-      <c r="H184">
-        <v>4.788202069924319</v>
       </c>
     </row>
     <row r="185">
@@ -5881,22 +5881,22 @@
         <v>-1.114213498559125</v>
       </c>
       <c r="C185">
+        <v>-1.784221089472349</v>
+      </c>
+      <c r="D185">
+        <v>2.534245094991738</v>
+      </c>
+      <c r="E185">
+        <v>-3.463842819846163</v>
+      </c>
+      <c r="F185">
+        <v>-3.866313435669777</v>
+      </c>
+      <c r="G185">
+        <v>-3.21528036111165</v>
+      </c>
+      <c r="H185">
         <v>-1.127791400185763</v>
-      </c>
-      <c r="D185">
-        <v>-3.866313435669777</v>
-      </c>
-      <c r="E185">
-        <v>-3.21528036111165</v>
-      </c>
-      <c r="F185">
-        <v>-3.463842819846163</v>
-      </c>
-      <c r="G185">
-        <v>-1.784221089472349</v>
-      </c>
-      <c r="H185">
-        <v>2.534245094991738</v>
       </c>
     </row>
     <row r="186">
@@ -5907,22 +5907,22 @@
         <v>-1.054129861943376</v>
       </c>
       <c r="C186">
+        <v>-2.388186745661902</v>
+      </c>
+      <c r="D186">
+        <v>-4.605047205881851</v>
+      </c>
+      <c r="E186">
+        <v>-6.054508180472373</v>
+      </c>
+      <c r="F186">
+        <v>0.6146464422958298</v>
+      </c>
+      <c r="G186">
+        <v>4.120698456700533</v>
+      </c>
+      <c r="H186">
         <v>-1.887072129724354</v>
-      </c>
-      <c r="D186">
-        <v>0.6146464422958298</v>
-      </c>
-      <c r="E186">
-        <v>4.120698456700533</v>
-      </c>
-      <c r="F186">
-        <v>-6.054508180472373</v>
-      </c>
-      <c r="G186">
-        <v>-2.388186745661902</v>
-      </c>
-      <c r="H186">
-        <v>-4.605047205881851</v>
       </c>
     </row>
     <row r="187">
@@ -5933,22 +5933,22 @@
         <v>-0.3979663641798137</v>
       </c>
       <c r="C187">
+        <v>-3.659510144810729</v>
+      </c>
+      <c r="D187">
+        <v>-7.878130984869047</v>
+      </c>
+      <c r="E187">
+        <v>-4.135240504834526</v>
+      </c>
+      <c r="F187">
+        <v>-4.795504702591202</v>
+      </c>
+      <c r="G187">
+        <v>-1.746498017048947</v>
+      </c>
+      <c r="H187">
         <v>0.4533873408146594</v>
-      </c>
-      <c r="D187">
-        <v>-4.795504702591202</v>
-      </c>
-      <c r="E187">
-        <v>-1.746498017048947</v>
-      </c>
-      <c r="F187">
-        <v>-4.135240504834526</v>
-      </c>
-      <c r="G187">
-        <v>-3.659510144810729</v>
-      </c>
-      <c r="H187">
-        <v>-7.878130984869047</v>
       </c>
     </row>
     <row r="188">
@@ -5959,22 +5959,22 @@
         <v>-0.6539989190803341</v>
       </c>
       <c r="C188">
+        <v>-0.4959069412886152</v>
+      </c>
+      <c r="D188">
+        <v>-5.590764811991167</v>
+      </c>
+      <c r="E188">
+        <v>0.3862704281214713</v>
+      </c>
+      <c r="F188">
+        <v>-8.330848641850274</v>
+      </c>
+      <c r="G188">
+        <v>9.369369243505844</v>
+      </c>
+      <c r="H188">
         <v>3.877750593044094</v>
-      </c>
-      <c r="D188">
-        <v>-8.330848641850274</v>
-      </c>
-      <c r="E188">
-        <v>9.369369243505844</v>
-      </c>
-      <c r="F188">
-        <v>0.3862704281214713</v>
-      </c>
-      <c r="G188">
-        <v>-0.4959069412886152</v>
-      </c>
-      <c r="H188">
-        <v>-5.590764811991167</v>
       </c>
     </row>
     <row r="189">
@@ -5985,22 +5985,22 @@
         <v>0.5386146008776738</v>
       </c>
       <c r="C189">
+        <v>0.7126053935693211</v>
+      </c>
+      <c r="D189">
+        <v>-4.040589629020907</v>
+      </c>
+      <c r="E189">
+        <v>3.929316257179671</v>
+      </c>
+      <c r="F189">
+        <v>-0.6777856675430738</v>
+      </c>
+      <c r="G189">
+        <v>2.292666049712744</v>
+      </c>
+      <c r="H189">
         <v>5.913642027834309</v>
-      </c>
-      <c r="D189">
-        <v>-0.6777856675430738</v>
-      </c>
-      <c r="E189">
-        <v>2.292666049712744</v>
-      </c>
-      <c r="F189">
-        <v>3.929316257179671</v>
-      </c>
-      <c r="G189">
-        <v>0.7126053935693211</v>
-      </c>
-      <c r="H189">
-        <v>-4.040589629020907</v>
       </c>
     </row>
     <row r="190">
@@ -6011,22 +6011,22 @@
         <v>0.6440112763121952</v>
       </c>
       <c r="C190">
+        <v>-3.188630100652678</v>
+      </c>
+      <c r="D190">
+        <v>-1.329782644852218</v>
+      </c>
+      <c r="E190">
+        <v>4.062140689492932</v>
+      </c>
+      <c r="F190">
+        <v>0.01548950731569132</v>
+      </c>
+      <c r="G190">
+        <v>-7.319317818171256</v>
+      </c>
+      <c r="H190">
         <v>3.069047325769958</v>
-      </c>
-      <c r="D190">
-        <v>0.01548950731569132</v>
-      </c>
-      <c r="E190">
-        <v>-7.319317818171256</v>
-      </c>
-      <c r="F190">
-        <v>4.062140689492932</v>
-      </c>
-      <c r="G190">
-        <v>-3.188630100652678</v>
-      </c>
-      <c r="H190">
-        <v>-1.329782644852218</v>
       </c>
     </row>
     <row r="191">
@@ -6037,22 +6037,22 @@
         <v>2.462825337802155</v>
       </c>
       <c r="C191">
+        <v>-2.682788124555979</v>
+      </c>
+      <c r="D191">
+        <v>1.372806231463319</v>
+      </c>
+      <c r="E191">
+        <v>-0.2581171949576966</v>
+      </c>
+      <c r="F191">
+        <v>4.020457961858437</v>
+      </c>
+      <c r="G191">
+        <v>6.68116317767864</v>
+      </c>
+      <c r="H191">
         <v>-0.828904346297199</v>
-      </c>
-      <c r="D191">
-        <v>4.020457961858437</v>
-      </c>
-      <c r="E191">
-        <v>6.68116317767864</v>
-      </c>
-      <c r="F191">
-        <v>-0.2581171949576966</v>
-      </c>
-      <c r="G191">
-        <v>-2.682788124555979</v>
-      </c>
-      <c r="H191">
-        <v>1.372806231463319</v>
       </c>
     </row>
     <row r="192">
@@ -6063,22 +6063,22 @@
         <v>0.2063864645205138</v>
       </c>
       <c r="C192">
+        <v>2.280972493552258</v>
+      </c>
+      <c r="D192">
+        <v>-0.6240740946125256</v>
+      </c>
+      <c r="E192">
+        <v>-3.301351736304781</v>
+      </c>
+      <c r="F192">
+        <v>-1.230219919065889</v>
+      </c>
+      <c r="G192">
+        <v>9.184385265485574</v>
+      </c>
+      <c r="H192">
         <v>-1.637424170074664</v>
-      </c>
-      <c r="D192">
-        <v>-1.230219919065889</v>
-      </c>
-      <c r="E192">
-        <v>9.184385265485574</v>
-      </c>
-      <c r="F192">
-        <v>-3.301351736304781</v>
-      </c>
-      <c r="G192">
-        <v>2.280972493552258</v>
-      </c>
-      <c r="H192">
-        <v>-0.6240740946125256</v>
       </c>
     </row>
     <row r="193">
@@ -6089,22 +6089,22 @@
         <v>0.7981927781706366</v>
       </c>
       <c r="C193">
+        <v>2.04059359853217</v>
+      </c>
+      <c r="D193">
+        <v>0.3735913386666123</v>
+      </c>
+      <c r="E193">
+        <v>-2.775288470018611</v>
+      </c>
+      <c r="F193">
+        <v>-2.425919808246235</v>
+      </c>
+      <c r="G193">
+        <v>-8.771145690268211</v>
+      </c>
+      <c r="H193">
         <v>0.5834117566963615</v>
-      </c>
-      <c r="D193">
-        <v>-2.425919808246235</v>
-      </c>
-      <c r="E193">
-        <v>-8.771145690268211</v>
-      </c>
-      <c r="F193">
-        <v>-2.775288470018611</v>
-      </c>
-      <c r="G193">
-        <v>2.04059359853217</v>
-      </c>
-      <c r="H193">
-        <v>0.3735913386666123</v>
       </c>
     </row>
     <row r="194">
@@ -6115,22 +6115,22 @@
         <v>-0.2427065609177714</v>
       </c>
       <c r="C194">
+        <v>-0.4129182567396472</v>
+      </c>
+      <c r="D194">
+        <v>6.368449534768339</v>
+      </c>
+      <c r="E194">
+        <v>-0.8866341525335164</v>
+      </c>
+      <c r="F194">
+        <v>-4.529689935743475</v>
+      </c>
+      <c r="G194">
+        <v>7.058065205284492</v>
+      </c>
+      <c r="H194">
         <v>3.016013730048939</v>
-      </c>
-      <c r="D194">
-        <v>-4.529689935743475</v>
-      </c>
-      <c r="E194">
-        <v>7.058065205284492</v>
-      </c>
-      <c r="F194">
-        <v>-0.8866341525335164</v>
-      </c>
-      <c r="G194">
-        <v>-0.4129182567396472</v>
-      </c>
-      <c r="H194">
-        <v>6.368449534768339</v>
       </c>
     </row>
     <row r="195">
@@ -6141,22 +6141,22 @@
         <v>-4.258775868923992</v>
       </c>
       <c r="C195">
+        <v>0.4534604995346303</v>
+      </c>
+      <c r="D195">
+        <v>4.45258745205106</v>
+      </c>
+      <c r="E195">
+        <v>0.6253406145007245</v>
+      </c>
+      <c r="F195">
+        <v>-1.121077004720683</v>
+      </c>
+      <c r="G195">
+        <v>-9.926045828692121</v>
+      </c>
+      <c r="H195">
         <v>2.703984846389318</v>
-      </c>
-      <c r="D195">
-        <v>-1.121077004720683</v>
-      </c>
-      <c r="E195">
-        <v>-9.926045828692121</v>
-      </c>
-      <c r="F195">
-        <v>0.6253406145007245</v>
-      </c>
-      <c r="G195">
-        <v>0.4534604995346303</v>
-      </c>
-      <c r="H195">
-        <v>4.45258745205106</v>
       </c>
     </row>
     <row r="196">
@@ -6167,22 +6167,22 @@
         <v>0.22388515969749</v>
       </c>
       <c r="C196">
+        <v>-2.026979033253795</v>
+      </c>
+      <c r="D196">
+        <v>-2.299451834612121</v>
+      </c>
+      <c r="E196">
+        <v>1.547286695971972</v>
+      </c>
+      <c r="F196">
+        <v>5.245917307436709</v>
+      </c>
+      <c r="G196">
+        <v>-2.866037880910344</v>
+      </c>
+      <c r="H196">
         <v>0.896022863542778</v>
-      </c>
-      <c r="D196">
-        <v>5.245917307436709</v>
-      </c>
-      <c r="E196">
-        <v>-2.866037880910344</v>
-      </c>
-      <c r="F196">
-        <v>1.547286695971972</v>
-      </c>
-      <c r="G196">
-        <v>-2.026979033253795</v>
-      </c>
-      <c r="H196">
-        <v>-2.299451834612121</v>
       </c>
     </row>
     <row r="197">
@@ -6193,22 +6193,22 @@
         <v>-2.371286097249714</v>
       </c>
       <c r="C197">
+        <v>-5.669557008279114</v>
+      </c>
+      <c r="D197">
+        <v>-2.132052073547608</v>
+      </c>
+      <c r="E197">
+        <v>3.592982571034287</v>
+      </c>
+      <c r="F197">
+        <v>4.19005863878823</v>
+      </c>
+      <c r="G197">
+        <v>-4.462331711161315</v>
+      </c>
+      <c r="H197">
         <v>0.4369382032165081</v>
-      </c>
-      <c r="D197">
-        <v>4.19005863878823</v>
-      </c>
-      <c r="E197">
-        <v>-4.462331711161315</v>
-      </c>
-      <c r="F197">
-        <v>3.592982571034287</v>
-      </c>
-      <c r="G197">
-        <v>-5.669557008279114</v>
-      </c>
-      <c r="H197">
-        <v>-2.132052073547608</v>
       </c>
     </row>
     <row r="198">
@@ -6219,22 +6219,22 @@
         <v>0.559673070832778</v>
       </c>
       <c r="C198">
+        <v>-1.871295700105668</v>
+      </c>
+      <c r="D198">
+        <v>1.237108336370851</v>
+      </c>
+      <c r="E198">
+        <v>4.342426144059441</v>
+      </c>
+      <c r="F198">
+        <v>-1.901565396604132</v>
+      </c>
+      <c r="G198">
+        <v>-6.922037202949816</v>
+      </c>
+      <c r="H198">
         <v>1.540299917460142</v>
-      </c>
-      <c r="D198">
-        <v>-1.901565396604132</v>
-      </c>
-      <c r="E198">
-        <v>-6.922037202949816</v>
-      </c>
-      <c r="F198">
-        <v>4.342426144059441</v>
-      </c>
-      <c r="G198">
-        <v>-1.871295700105668</v>
-      </c>
-      <c r="H198">
-        <v>1.237108336370851</v>
       </c>
     </row>
     <row r="199">
@@ -6245,22 +6245,22 @@
         <v>2.667764017079355</v>
       </c>
       <c r="C199">
+        <v>1.299427616821425</v>
+      </c>
+      <c r="D199">
+        <v>0.5054855636108302</v>
+      </c>
+      <c r="E199">
+        <v>4.295185320425765</v>
+      </c>
+      <c r="F199">
+        <v>1.170949095466578</v>
+      </c>
+      <c r="G199">
+        <v>6.575715416328642</v>
+      </c>
+      <c r="H199">
         <v>1.619512612580909</v>
-      </c>
-      <c r="D199">
-        <v>1.170949095466578</v>
-      </c>
-      <c r="E199">
-        <v>6.575715416328642</v>
-      </c>
-      <c r="F199">
-        <v>4.295185320425765</v>
-      </c>
-      <c r="G199">
-        <v>1.299427616821425</v>
-      </c>
-      <c r="H199">
-        <v>0.5054855636108302</v>
       </c>
     </row>
     <row r="200">
@@ -6271,22 +6271,22 @@
         <v>-2.425084109611353</v>
       </c>
       <c r="C200">
+        <v>-0.3791603523889853</v>
+      </c>
+      <c r="D200">
+        <v>0.8793065098293473</v>
+      </c>
+      <c r="E200">
+        <v>2.811485413462078</v>
+      </c>
+      <c r="F200">
+        <v>-1.541049000497896</v>
+      </c>
+      <c r="G200">
+        <v>7.295290072630523</v>
+      </c>
+      <c r="H200">
         <v>1.424570761561372</v>
-      </c>
-      <c r="D200">
-        <v>-1.541049000497896</v>
-      </c>
-      <c r="E200">
-        <v>7.295290072630523</v>
-      </c>
-      <c r="F200">
-        <v>2.811485413462078</v>
-      </c>
-      <c r="G200">
-        <v>-0.3791603523889853</v>
-      </c>
-      <c r="H200">
-        <v>0.8793065098293473</v>
       </c>
     </row>
     <row r="201">
@@ -6297,22 +6297,22 @@
         <v>-2.106871883041683</v>
       </c>
       <c r="C201">
+        <v>-1.042565450510791</v>
+      </c>
+      <c r="D201">
+        <v>0.996072696169148</v>
+      </c>
+      <c r="E201">
+        <v>-1.824072330732573</v>
+      </c>
+      <c r="F201">
+        <v>0.3647935253574763</v>
+      </c>
+      <c r="G201">
+        <v>-0.4862432356619428</v>
+      </c>
+      <c r="H201">
         <v>-0.9295788835326002</v>
-      </c>
-      <c r="D201">
-        <v>0.3647935253574763</v>
-      </c>
-      <c r="E201">
-        <v>-0.4862432356619428</v>
-      </c>
-      <c r="F201">
-        <v>-1.824072330732573</v>
-      </c>
-      <c r="G201">
-        <v>-1.042565450510791</v>
-      </c>
-      <c r="H201">
-        <v>0.996072696169148</v>
       </c>
     </row>
     <row r="202">
@@ -6323,22 +6323,22 @@
         <v>-6.148626910047761</v>
       </c>
       <c r="C202">
+        <v>-1.774745588658544</v>
+      </c>
+      <c r="D202">
+        <v>-4.725126622817344</v>
+      </c>
+      <c r="E202">
+        <v>-2.186673342451817</v>
+      </c>
+      <c r="F202">
+        <v>-1.791964769510335</v>
+      </c>
+      <c r="G202">
+        <v>-12.63311460308282</v>
+      </c>
+      <c r="H202">
         <v>-4.231748849976913</v>
-      </c>
-      <c r="D202">
-        <v>-1.791964769510335</v>
-      </c>
-      <c r="E202">
-        <v>-12.63311460308282</v>
-      </c>
-      <c r="F202">
-        <v>-2.186673342451817</v>
-      </c>
-      <c r="G202">
-        <v>-1.774745588658544</v>
-      </c>
-      <c r="H202">
-        <v>-4.725126622817344</v>
       </c>
     </row>
     <row r="203">
@@ -6349,22 +6349,22 @@
         <v>-3.903564295598261</v>
       </c>
       <c r="C203">
+        <v>-1.816149497398012</v>
+      </c>
+      <c r="D203">
+        <v>-6.377591934242655</v>
+      </c>
+      <c r="E203">
+        <v>0.3946684336321837</v>
+      </c>
+      <c r="F203">
+        <v>-3.323461159556318</v>
+      </c>
+      <c r="G203">
+        <v>-6.325340711363614</v>
+      </c>
+      <c r="H203">
         <v>-4.530510695466261</v>
-      </c>
-      <c r="D203">
-        <v>-3.323461159556318</v>
-      </c>
-      <c r="E203">
-        <v>-6.325340711363614</v>
-      </c>
-      <c r="F203">
-        <v>0.3946684336321837</v>
-      </c>
-      <c r="G203">
-        <v>-1.816149497398012</v>
-      </c>
-      <c r="H203">
-        <v>-6.377591934242655</v>
       </c>
     </row>
     <row r="204">
@@ -6375,22 +6375,22 @@
         <v>1.665871545878672</v>
       </c>
       <c r="C204">
+        <v>0.3698993640579795</v>
+      </c>
+      <c r="D204">
+        <v>1.347194049798195</v>
+      </c>
+      <c r="E204">
+        <v>0.849303276727098</v>
+      </c>
+      <c r="F204">
+        <v>-0.8604630297866067</v>
+      </c>
+      <c r="G204">
+        <v>15.19043950302228</v>
+      </c>
+      <c r="H204">
         <v>-3.179800588451243</v>
-      </c>
-      <c r="D204">
-        <v>-0.8604630297866067</v>
-      </c>
-      <c r="E204">
-        <v>15.19043950302228</v>
-      </c>
-      <c r="F204">
-        <v>0.849303276727098</v>
-      </c>
-      <c r="G204">
-        <v>0.3698993640579795</v>
-      </c>
-      <c r="H204">
-        <v>1.347194049798195</v>
       </c>
     </row>
     <row r="205">
@@ -6401,22 +6401,22 @@
         <v>4.513085434945574</v>
       </c>
       <c r="C205">
+        <v>3.147311463167157</v>
+      </c>
+      <c r="D205">
+        <v>7.866623471783352</v>
+      </c>
+      <c r="E205">
+        <v>2.895684117722697</v>
+      </c>
+      <c r="F205">
+        <v>7.496783742529667</v>
+      </c>
+      <c r="G205">
+        <v>19.67315403441776</v>
+      </c>
+      <c r="H205">
         <v>-0.1791716216659522</v>
-      </c>
-      <c r="D205">
-        <v>7.496783742529667</v>
-      </c>
-      <c r="E205">
-        <v>19.67315403441776</v>
-      </c>
-      <c r="F205">
-        <v>2.895684117722697</v>
-      </c>
-      <c r="G205">
-        <v>3.147311463167157</v>
-      </c>
-      <c r="H205">
-        <v>7.866623471783352</v>
       </c>
     </row>
     <row r="206">
@@ -6427,22 +6427,22 @@
         <v>4.160463623741295</v>
       </c>
       <c r="C206">
+        <v>4.888842859006037</v>
+      </c>
+      <c r="D206">
+        <v>6.897663423688449</v>
+      </c>
+      <c r="E206">
+        <v>1.67408049259532</v>
+      </c>
+      <c r="F206">
+        <v>6.030470409809419</v>
+      </c>
+      <c r="G206">
+        <v>5.018784019100808</v>
+      </c>
+      <c r="H206">
         <v>2.028625662105576</v>
-      </c>
-      <c r="D206">
-        <v>6.030470409809419</v>
-      </c>
-      <c r="E206">
-        <v>5.018784019100808</v>
-      </c>
-      <c r="F206">
-        <v>1.67408049259532</v>
-      </c>
-      <c r="G206">
-        <v>4.888842859006037</v>
-      </c>
-      <c r="H206">
-        <v>6.897663423688449</v>
       </c>
     </row>
     <row r="207">
@@ -6453,22 +6453,22 @@
         <v>1.180062446550734</v>
       </c>
       <c r="C207">
+        <v>4.468124253249162</v>
+      </c>
+      <c r="D207">
+        <v>3.541173318363899</v>
+      </c>
+      <c r="E207">
+        <v>-3.121169228717569</v>
+      </c>
+      <c r="F207">
+        <v>-3.238114173549422</v>
+      </c>
+      <c r="G207">
+        <v>7.33815390553052</v>
+      </c>
+      <c r="H207">
         <v>2.294771935419337</v>
-      </c>
-      <c r="D207">
-        <v>-3.238114173549422</v>
-      </c>
-      <c r="E207">
-        <v>7.33815390553052</v>
-      </c>
-      <c r="F207">
-        <v>-3.121169228717569</v>
-      </c>
-      <c r="G207">
-        <v>4.468124253249162</v>
-      </c>
-      <c r="H207">
-        <v>3.541173318363899</v>
       </c>
     </row>
     <row r="208">
@@ -6479,22 +6479,22 @@
         <v>1.20484486442447</v>
       </c>
       <c r="C208">
+        <v>4.147790254790462</v>
+      </c>
+      <c r="D208">
+        <v>-0.4087641120172569</v>
+      </c>
+      <c r="E208">
+        <v>-2.463800032140895</v>
+      </c>
+      <c r="F208">
+        <v>6.451607837842888</v>
+      </c>
+      <c r="G208">
+        <v>-6.55177180607398</v>
+      </c>
+      <c r="H208">
         <v>2.662233671569147</v>
-      </c>
-      <c r="D208">
-        <v>6.451607837842888</v>
-      </c>
-      <c r="E208">
-        <v>-6.55177180607398</v>
-      </c>
-      <c r="F208">
-        <v>-2.463800032140895</v>
-      </c>
-      <c r="G208">
-        <v>4.147790254790462</v>
-      </c>
-      <c r="H208">
-        <v>-0.4087641120172569</v>
       </c>
     </row>
     <row r="209">
@@ -6505,22 +6505,22 @@
         <v>1.671496989682364</v>
       </c>
       <c r="C209">
+        <v>2.995506467001774</v>
+      </c>
+      <c r="D209">
+        <v>-2.536377239982757</v>
+      </c>
+      <c r="E209">
+        <v>4.982317974430828</v>
+      </c>
+      <c r="F209">
+        <v>-5.434900392432795</v>
+      </c>
+      <c r="G209">
+        <v>-6.986089218798996</v>
+      </c>
+      <c r="H209">
         <v>1.545377832631178</v>
-      </c>
-      <c r="D209">
-        <v>-5.434900392432795</v>
-      </c>
-      <c r="E209">
-        <v>-6.986089218798996</v>
-      </c>
-      <c r="F209">
-        <v>4.982317974430828</v>
-      </c>
-      <c r="G209">
-        <v>2.995506467001774</v>
-      </c>
-      <c r="H209">
-        <v>-2.536377239982757</v>
       </c>
     </row>
     <row r="210">
@@ -6531,22 +6531,22 @@
         <v>2.379189256766678</v>
       </c>
       <c r="C210">
+        <v>0.2237982488711321</v>
+      </c>
+      <c r="D210">
+        <v>0.6332418848975063</v>
+      </c>
+      <c r="E210">
+        <v>9.920133085297111</v>
+      </c>
+      <c r="F210">
+        <v>2.200244337071755</v>
+      </c>
+      <c r="G210">
+        <v>9.377918786668115</v>
+      </c>
+      <c r="H210">
         <v>-0.2664379491738589</v>
-      </c>
-      <c r="D210">
-        <v>2.200244337071755</v>
-      </c>
-      <c r="E210">
-        <v>9.377918786668115</v>
-      </c>
-      <c r="F210">
-        <v>9.920133085297111</v>
-      </c>
-      <c r="G210">
-        <v>0.2237982488711321</v>
-      </c>
-      <c r="H210">
-        <v>0.6332418848975063</v>
       </c>
     </row>
     <row r="211">
@@ -6557,22 +6557,22 @@
         <v>3.260773182747889</v>
       </c>
       <c r="C211">
+        <v>-0.8469027821262798</v>
+      </c>
+      <c r="D211">
+        <v>3.692170730384303</v>
+      </c>
+      <c r="E211">
+        <v>5.672511894694465</v>
+      </c>
+      <c r="F211">
+        <v>2.192654946498185</v>
+      </c>
+      <c r="G211">
+        <v>14.40336025923536</v>
+      </c>
+      <c r="H211">
         <v>-1.116832767814413</v>
-      </c>
-      <c r="D211">
-        <v>2.192654946498185</v>
-      </c>
-      <c r="E211">
-        <v>14.40336025923536</v>
-      </c>
-      <c r="F211">
-        <v>5.672511894694465</v>
-      </c>
-      <c r="G211">
-        <v>-0.8469027821262798</v>
-      </c>
-      <c r="H211">
-        <v>3.692170730384303</v>
       </c>
     </row>
     <row r="212">
@@ -6583,22 +6583,22 @@
         <v>-1.188625845117997</v>
       </c>
       <c r="C212">
+        <v>-2.900492439697344</v>
+      </c>
+      <c r="D212">
+        <v>5.127582637656447</v>
+      </c>
+      <c r="E212">
+        <v>-0.5056226175800926</v>
+      </c>
+      <c r="F212">
+        <v>-5.529599006542685</v>
+      </c>
+      <c r="G212">
+        <v>-16.90224171065565</v>
+      </c>
+      <c r="H212">
         <v>-2.906585482010826</v>
-      </c>
-      <c r="D212">
-        <v>-5.529599006542685</v>
-      </c>
-      <c r="E212">
-        <v>-16.90224171065565</v>
-      </c>
-      <c r="F212">
-        <v>-0.5056226175800926</v>
-      </c>
-      <c r="G212">
-        <v>-2.900492439697344</v>
-      </c>
-      <c r="H212">
-        <v>5.127582637656447</v>
       </c>
     </row>
     <row r="213">
@@ -6609,22 +6609,22 @@
         <v>-1.824988296810182</v>
       </c>
       <c r="C213">
+        <v>-2.99891533647425</v>
+      </c>
+      <c r="D213">
+        <v>3.898089620371037</v>
+      </c>
+      <c r="E213">
+        <v>-1.772893519451402</v>
+      </c>
+      <c r="F213">
+        <v>3.397161271212856</v>
+      </c>
+      <c r="G213">
+        <v>9.473632489031104</v>
+      </c>
+      <c r="H213">
         <v>-6.353249909499226</v>
-      </c>
-      <c r="D213">
-        <v>3.397161271212856</v>
-      </c>
-      <c r="E213">
-        <v>9.473632489031104</v>
-      </c>
-      <c r="F213">
-        <v>-1.772893519451402</v>
-      </c>
-      <c r="G213">
-        <v>-2.99891533647425</v>
-      </c>
-      <c r="H213">
-        <v>3.898089620371037</v>
       </c>
     </row>
     <row r="214">
@@ -6635,22 +6635,22 @@
         <v>0.7403935810414097</v>
       </c>
       <c r="C214">
+        <v>1.051249408932953</v>
+      </c>
+      <c r="D214">
+        <v>-1.669222025315875</v>
+      </c>
+      <c r="E214">
+        <v>1.562714957425615</v>
+      </c>
+      <c r="F214">
+        <v>1.193071198581475</v>
+      </c>
+      <c r="G214">
+        <v>1.773708869185642</v>
+      </c>
+      <c r="H214">
         <v>-6.780639208687733</v>
-      </c>
-      <c r="D214">
-        <v>1.193071198581475</v>
-      </c>
-      <c r="E214">
-        <v>1.773708869185642</v>
-      </c>
-      <c r="F214">
-        <v>1.562714957425615</v>
-      </c>
-      <c r="G214">
-        <v>1.051249408932953</v>
-      </c>
-      <c r="H214">
-        <v>-1.669222025315875</v>
       </c>
     </row>
     <row r="215">
@@ -6661,22 +6661,22 @@
         <v>-0.9745703483846735</v>
       </c>
       <c r="C215">
+        <v>1.190017582521041</v>
+      </c>
+      <c r="D215">
+        <v>-5.101469779751689</v>
+      </c>
+      <c r="E215">
+        <v>4.141633056753702</v>
+      </c>
+      <c r="F215">
+        <v>3.494134035931462</v>
+      </c>
+      <c r="G215">
+        <v>1.995310137349882</v>
+      </c>
+      <c r="H215">
         <v>-1.733784965175056</v>
-      </c>
-      <c r="D215">
-        <v>3.494134035931462</v>
-      </c>
-      <c r="E215">
-        <v>1.995310137349882</v>
-      </c>
-      <c r="F215">
-        <v>4.141633056753702</v>
-      </c>
-      <c r="G215">
-        <v>1.190017582521041</v>
-      </c>
-      <c r="H215">
-        <v>-5.101469779751689</v>
       </c>
     </row>
     <row r="216">
@@ -6687,22 +6687,22 @@
         <v>-0.740277548014745</v>
       </c>
       <c r="C216">
+        <v>0.6671406211913755</v>
+      </c>
+      <c r="D216">
+        <v>-3.357075239904672</v>
+      </c>
+      <c r="E216">
+        <v>1.565260312545025</v>
+      </c>
+      <c r="F216">
+        <v>0.4865976751553758</v>
+      </c>
+      <c r="G216">
+        <v>2.184738711179324</v>
+      </c>
+      <c r="H216">
         <v>0.8246319485347264</v>
-      </c>
-      <c r="D216">
-        <v>0.4865976751553758</v>
-      </c>
-      <c r="E216">
-        <v>2.184738711179324</v>
-      </c>
-      <c r="F216">
-        <v>1.565260312545025</v>
-      </c>
-      <c r="G216">
-        <v>0.6671406211913755</v>
-      </c>
-      <c r="H216">
-        <v>-3.357075239904672</v>
       </c>
     </row>
     <row r="217">
@@ -6713,22 +6713,22 @@
         <v>-0.8546360054152657</v>
       </c>
       <c r="C217">
+        <v>0.9327437385203918</v>
+      </c>
+      <c r="D217">
+        <v>0.3065237338528481</v>
+      </c>
+      <c r="E217">
+        <v>-3.043568959714693</v>
+      </c>
+      <c r="F217">
+        <v>-3.739132080286456</v>
+      </c>
+      <c r="G217">
+        <v>-5.696888796532019</v>
+      </c>
+      <c r="H217">
         <v>0.2763970004728389</v>
-      </c>
-      <c r="D217">
-        <v>-3.739132080286456</v>
-      </c>
-      <c r="E217">
-        <v>-5.696888796532019</v>
-      </c>
-      <c r="F217">
-        <v>-3.043568959714693</v>
-      </c>
-      <c r="G217">
-        <v>0.9327437385203918</v>
-      </c>
-      <c r="H217">
-        <v>0.3065237338528481</v>
       </c>
     </row>
     <row r="218">
@@ -6739,22 +6739,22 @@
         <v>-2.077747185873458</v>
       </c>
       <c r="C218">
+        <v>-0.05335287065135752</v>
+      </c>
+      <c r="D218">
+        <v>2.961269239468045</v>
+      </c>
+      <c r="E218">
+        <v>-4.59279044602956</v>
+      </c>
+      <c r="F218">
+        <v>-1.106911430698965</v>
+      </c>
+      <c r="G218">
+        <v>7.332776446869471</v>
+      </c>
+      <c r="H218">
         <v>1.537686269152694</v>
-      </c>
-      <c r="D218">
-        <v>-1.106911430698965</v>
-      </c>
-      <c r="E218">
-        <v>7.332776446869471</v>
-      </c>
-      <c r="F218">
-        <v>-4.59279044602956</v>
-      </c>
-      <c r="G218">
-        <v>-0.05335287065135752</v>
-      </c>
-      <c r="H218">
-        <v>2.961269239468045</v>
       </c>
     </row>
     <row r="219">
@@ -6765,22 +6765,22 @@
         <v>0.1158292551226126</v>
       </c>
       <c r="C219">
+        <v>0.2065525021719639</v>
+      </c>
+      <c r="D219">
+        <v>2.89589242024717</v>
+      </c>
+      <c r="E219">
+        <v>-0.6055512861439349</v>
+      </c>
+      <c r="F219">
+        <v>-3.969952215564054</v>
+      </c>
+      <c r="G219">
+        <v>-3.768967171812432</v>
+      </c>
+      <c r="H219">
         <v>0.7511949013964569</v>
-      </c>
-      <c r="D219">
-        <v>-3.969952215564054</v>
-      </c>
-      <c r="E219">
-        <v>-3.768967171812432</v>
-      </c>
-      <c r="F219">
-        <v>-0.6055512861439349</v>
-      </c>
-      <c r="G219">
-        <v>0.2065525021719639</v>
-      </c>
-      <c r="H219">
-        <v>2.89589242024717</v>
       </c>
     </row>
     <row r="220">
@@ -6791,22 +6791,22 @@
         <v>2.666326913720707</v>
       </c>
       <c r="C220">
+        <v>0.7804113642726485</v>
+      </c>
+      <c r="D220">
+        <v>0.2948191618308282</v>
+      </c>
+      <c r="E220">
+        <v>3.36563751169876</v>
+      </c>
+      <c r="F220">
+        <v>6.246349111214178</v>
+      </c>
+      <c r="G220">
+        <v>-1.914318709167362</v>
+      </c>
+      <c r="H220">
         <v>0.9439016004690881</v>
-      </c>
-      <c r="D220">
-        <v>6.246349111214178</v>
-      </c>
-      <c r="E220">
-        <v>-1.914318709167362</v>
-      </c>
-      <c r="F220">
-        <v>3.36563751169876</v>
-      </c>
-      <c r="G220">
-        <v>0.7804113642726485</v>
-      </c>
-      <c r="H220">
-        <v>0.2948191618308282</v>
       </c>
     </row>
     <row r="221">
@@ -6817,22 +6817,22 @@
         <v>1.824344127892208</v>
       </c>
       <c r="C221">
+        <v>0.8356797416245954</v>
+      </c>
+      <c r="D221">
+        <v>-0.5035656973788161</v>
+      </c>
+      <c r="E221">
+        <v>1.404288702205858</v>
+      </c>
+      <c r="F221">
+        <v>-0.9129807814051372</v>
+      </c>
+      <c r="G221">
+        <v>-0.4876052753630122</v>
+      </c>
+      <c r="H221">
         <v>5.877817993115286</v>
-      </c>
-      <c r="D221">
-        <v>-0.9129807814051372</v>
-      </c>
-      <c r="E221">
-        <v>-0.4876052753630122</v>
-      </c>
-      <c r="F221">
-        <v>1.404288702205858</v>
-      </c>
-      <c r="G221">
-        <v>0.8356797416245954</v>
-      </c>
-      <c r="H221">
-        <v>-0.5035656973788161</v>
       </c>
     </row>
     <row r="222">
@@ -6843,22 +6843,22 @@
         <v>1.048125895867869</v>
       </c>
       <c r="C222">
+        <v>-1.349575042354922</v>
+      </c>
+      <c r="D222">
+        <v>3.53556458594384</v>
+      </c>
+      <c r="E222">
+        <v>-1.311061657521895</v>
+      </c>
+      <c r="F222">
+        <v>-1.700238038551916</v>
+      </c>
+      <c r="G222">
+        <v>-3.084226656277456</v>
+      </c>
+      <c r="H222">
         <v>7.431442969762769</v>
-      </c>
-      <c r="D222">
-        <v>-1.700238038551916</v>
-      </c>
-      <c r="E222">
-        <v>-3.084226656277456</v>
-      </c>
-      <c r="F222">
-        <v>-1.311061657521895</v>
-      </c>
-      <c r="G222">
-        <v>-1.349575042354922</v>
-      </c>
-      <c r="H222">
-        <v>3.53556458594384</v>
       </c>
     </row>
     <row r="223">
@@ -6869,22 +6869,22 @@
         <v>1.044134034798061</v>
       </c>
       <c r="C223">
+        <v>-2.531791765638369</v>
+      </c>
+      <c r="D223">
+        <v>4.927896311059676</v>
+      </c>
+      <c r="E223">
+        <v>-1.094020700302467</v>
+      </c>
+      <c r="F223">
+        <v>3.247659116364798</v>
+      </c>
+      <c r="G223">
+        <v>-8.700506528187169</v>
+      </c>
+      <c r="H223">
         <v>3.398162616826972</v>
-      </c>
-      <c r="D223">
-        <v>3.247659116364798</v>
-      </c>
-      <c r="E223">
-        <v>-8.700506528187169</v>
-      </c>
-      <c r="F223">
-        <v>-1.094020700302467</v>
-      </c>
-      <c r="G223">
-        <v>-2.531791765638369</v>
-      </c>
-      <c r="H223">
-        <v>4.927896311059676</v>
       </c>
     </row>
     <row r="224">
@@ -6926,32 +6926,32 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>GSF-EPUB</t>
+          <t>GR-EPRIV-FOR</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>GR-EPRIV-INF</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>GR-EPUB</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>GSF-EPRIV-FOR</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>GSF-EPRIV-INF</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>GR-EPUB</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>GR-EPRIV-FOR</t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>GR-EPRIV-INF</t>
+          <t>GSF-EPUB</t>
         </is>
       </c>
     </row>
@@ -8070,14 +8070,14 @@
       <c r="B142">
         <v>6.524097904649673</v>
       </c>
-      <c r="F142">
+      <c r="C142">
+        <v>6.899253890912416</v>
+      </c>
+      <c r="D142">
+        <v>-2.793285190893824</v>
+      </c>
+      <c r="E142">
         <v>-0.39473888262056</v>
-      </c>
-      <c r="G142">
-        <v>6.899253890912416</v>
-      </c>
-      <c r="H142">
-        <v>-2.793285190893824</v>
       </c>
     </row>
     <row r="143">
@@ -8087,14 +8087,14 @@
       <c r="B143">
         <v>11.49679704139985</v>
       </c>
-      <c r="F143">
+      <c r="C143">
+        <v>9.538008940328346</v>
+      </c>
+      <c r="D143">
+        <v>-1.21949503928247</v>
+      </c>
+      <c r="E143">
         <v>-1.409136121013765</v>
-      </c>
-      <c r="G143">
-        <v>9.538008940328346</v>
-      </c>
-      <c r="H143">
-        <v>-1.21949503928247</v>
       </c>
     </row>
     <row r="144">
@@ -8104,14 +8104,14 @@
       <c r="B144">
         <v>8.879514061035888</v>
       </c>
-      <c r="F144">
+      <c r="C144">
+        <v>11.44638993286657</v>
+      </c>
+      <c r="D144">
+        <v>0.7270634530234243</v>
+      </c>
+      <c r="E144">
         <v>1.673426692231672</v>
-      </c>
-      <c r="G144">
-        <v>11.44638993286657</v>
-      </c>
-      <c r="H144">
-        <v>0.7270634530234243</v>
       </c>
     </row>
     <row r="145">
@@ -8121,14 +8121,14 @@
       <c r="B145">
         <v>8.235575861607657</v>
       </c>
-      <c r="F145">
+      <c r="C145">
+        <v>14.96698037092372</v>
+      </c>
+      <c r="D145">
+        <v>1.725345011016821</v>
+      </c>
+      <c r="E145">
         <v>-2.288275172207943</v>
-      </c>
-      <c r="G145">
-        <v>14.96698037092372</v>
-      </c>
-      <c r="H145">
-        <v>1.725345011016821</v>
       </c>
     </row>
     <row r="146">
@@ -8138,14 +8138,14 @@
       <c r="B146">
         <v>7.543841257927508</v>
       </c>
-      <c r="F146">
+      <c r="C146">
+        <v>15.85203749457489</v>
+      </c>
+      <c r="D146">
+        <v>1.304721124969332</v>
+      </c>
+      <c r="E146">
         <v>-7.255648616220123</v>
-      </c>
-      <c r="G146">
-        <v>15.85203749457489</v>
-      </c>
-      <c r="H146">
-        <v>1.304721124969332</v>
       </c>
     </row>
     <row r="147">
@@ -8155,14 +8155,14 @@
       <c r="B147">
         <v>5.810477318364193</v>
       </c>
-      <c r="F147">
+      <c r="C147">
+        <v>13.33063628591946</v>
+      </c>
+      <c r="D147">
+        <v>-0.7193899528253778</v>
+      </c>
+      <c r="E147">
         <v>-6.538928946741085</v>
-      </c>
-      <c r="G147">
-        <v>13.33063628591946</v>
-      </c>
-      <c r="H147">
-        <v>-0.7193899528253778</v>
       </c>
     </row>
     <row r="148">
@@ -8172,14 +8172,14 @@
       <c r="B148">
         <v>8.652723803875894</v>
       </c>
-      <c r="F148">
+      <c r="C148">
+        <v>13.30999576078198</v>
+      </c>
+      <c r="D148">
+        <v>-1.732154147810738</v>
+      </c>
+      <c r="E148">
         <v>-9.443964237450908</v>
-      </c>
-      <c r="G148">
-        <v>13.30999576078198</v>
-      </c>
-      <c r="H148">
-        <v>-1.732154147810738</v>
       </c>
     </row>
     <row r="149">
@@ -8189,14 +8189,14 @@
       <c r="B149">
         <v>9.672573011622788</v>
       </c>
-      <c r="F149">
+      <c r="C149">
+        <v>15.375927859552</v>
+      </c>
+      <c r="D149">
+        <v>-2.966276201387064</v>
+      </c>
+      <c r="E149">
         <v>-9.279852720762783</v>
-      </c>
-      <c r="G149">
-        <v>15.375927859552</v>
-      </c>
-      <c r="H149">
-        <v>-2.966276201387064</v>
       </c>
     </row>
     <row r="150">
@@ -8206,14 +8206,14 @@
       <c r="B150">
         <v>8.378752271109802</v>
       </c>
-      <c r="F150">
+      <c r="C150">
+        <v>15.25117334777868</v>
+      </c>
+      <c r="D150">
+        <v>-5.734186575324007</v>
+      </c>
+      <c r="E150">
         <v>0.6961640186447404</v>
-      </c>
-      <c r="G150">
-        <v>15.25117334777868</v>
-      </c>
-      <c r="H150">
-        <v>-5.734186575324007</v>
       </c>
     </row>
     <row r="151">
@@ -8223,14 +8223,14 @@
       <c r="B151">
         <v>10.08050815767563</v>
       </c>
-      <c r="F151">
+      <c r="C151">
+        <v>12.97627511796831</v>
+      </c>
+      <c r="D151">
+        <v>-7.000650099064021</v>
+      </c>
+      <c r="E151">
         <v>5.261642537520106</v>
-      </c>
-      <c r="G151">
-        <v>12.97627511796831</v>
-      </c>
-      <c r="H151">
-        <v>-7.000650099064021</v>
       </c>
     </row>
     <row r="152">
@@ -8240,14 +8240,14 @@
       <c r="B152">
         <v>8.326592991519878</v>
       </c>
-      <c r="F152">
+      <c r="C152">
+        <v>10.56763272770067</v>
+      </c>
+      <c r="D152">
+        <v>-5.495320093050204</v>
+      </c>
+      <c r="E152">
         <v>0.2075474165079916</v>
-      </c>
-      <c r="G152">
-        <v>10.56763272770067</v>
-      </c>
-      <c r="H152">
-        <v>-5.495320093050204</v>
       </c>
     </row>
     <row r="153">
@@ -8257,14 +8257,14 @@
       <c r="B153">
         <v>8.963830334471524</v>
       </c>
-      <c r="F153">
+      <c r="C153">
+        <v>7.262682023674549</v>
+      </c>
+      <c r="D153">
+        <v>-2.872562957668878</v>
+      </c>
+      <c r="E153">
         <v>-5.403451779256841</v>
-      </c>
-      <c r="G153">
-        <v>7.262682023674549</v>
-      </c>
-      <c r="H153">
-        <v>-2.872562957668878</v>
       </c>
     </row>
     <row r="154">
@@ -8275,22 +8275,22 @@
         <v>7.141668788666622</v>
       </c>
       <c r="C154">
+        <v>5.860824925432806</v>
+      </c>
+      <c r="D154">
+        <v>1.201876791124068</v>
+      </c>
+      <c r="E154">
+        <v>-15.14111298307373</v>
+      </c>
+      <c r="F154">
+        <v>-4.420629791928787</v>
+      </c>
+      <c r="G154">
+        <v>22.33584069244128</v>
+      </c>
+      <c r="H154">
         <v>-1.06441656332189</v>
-      </c>
-      <c r="D154">
-        <v>-4.420629791928787</v>
-      </c>
-      <c r="E154">
-        <v>22.33584069244128</v>
-      </c>
-      <c r="F154">
-        <v>-15.14111298307373</v>
-      </c>
-      <c r="G154">
-        <v>5.860824925432806</v>
-      </c>
-      <c r="H154">
-        <v>1.201876791124068</v>
       </c>
     </row>
     <row r="155">
@@ -8301,22 +8301,22 @@
         <v>5.707693238017453</v>
       </c>
       <c r="C155">
+        <v>7.351554615777256</v>
+      </c>
+      <c r="D155">
+        <v>5.834834619780538</v>
+      </c>
+      <c r="E155">
+        <v>-22.33141924530702</v>
+      </c>
+      <c r="F155">
+        <v>2.694955875243998</v>
+      </c>
+      <c r="G155">
+        <v>7.352392775581129</v>
+      </c>
+      <c r="H155">
         <v>-7.544301907795892</v>
-      </c>
-      <c r="D155">
-        <v>2.694955875243998</v>
-      </c>
-      <c r="E155">
-        <v>7.352392775581129</v>
-      </c>
-      <c r="F155">
-        <v>-22.33141924530702</v>
-      </c>
-      <c r="G155">
-        <v>7.351554615777256</v>
-      </c>
-      <c r="H155">
-        <v>5.834834619780538</v>
       </c>
     </row>
     <row r="156">
@@ -8327,22 +8327,22 @@
         <v>5.554947905045338</v>
       </c>
       <c r="C156">
+        <v>6.545610384410083</v>
+      </c>
+      <c r="D156">
+        <v>5.978531145721222</v>
+      </c>
+      <c r="E156">
+        <v>-18.13762728793288</v>
+      </c>
+      <c r="F156">
+        <v>3.637054209917112</v>
+      </c>
+      <c r="G156">
+        <v>7.798480563047283</v>
+      </c>
+      <c r="H156">
         <v>-9.069128825939721</v>
-      </c>
-      <c r="D156">
-        <v>3.637054209917112</v>
-      </c>
-      <c r="E156">
-        <v>7.798480563047283</v>
-      </c>
-      <c r="F156">
-        <v>-18.13762728793288</v>
-      </c>
-      <c r="G156">
-        <v>6.545610384410083</v>
-      </c>
-      <c r="H156">
-        <v>5.978531145721222</v>
       </c>
     </row>
     <row r="157">
@@ -8353,22 +8353,22 @@
         <v>-1.884082654157648</v>
       </c>
       <c r="C157">
+        <v>3.360714344109628</v>
+      </c>
+      <c r="D157">
+        <v>3.729323880132851</v>
+      </c>
+      <c r="E157">
+        <v>-10.01250543592764</v>
+      </c>
+      <c r="F157">
+        <v>9.050720693032076</v>
+      </c>
+      <c r="G157">
+        <v>-7.392744814796193</v>
+      </c>
+      <c r="H157">
         <v>-5.898544213186541</v>
-      </c>
-      <c r="D157">
-        <v>9.050720693032076</v>
-      </c>
-      <c r="E157">
-        <v>-7.392744814796193</v>
-      </c>
-      <c r="F157">
-        <v>-10.01250543592764</v>
-      </c>
-      <c r="G157">
-        <v>3.360714344109628</v>
-      </c>
-      <c r="H157">
-        <v>3.729323880132851</v>
       </c>
     </row>
     <row r="158">
@@ -8379,22 +8379,22 @@
         <v>-5.505710939380726</v>
       </c>
       <c r="C158">
+        <v>0.5929201700920705</v>
+      </c>
+      <c r="D158">
+        <v>0.8312963118585648</v>
+      </c>
+      <c r="E158">
+        <v>-1.13030641311983</v>
+      </c>
+      <c r="F158">
+        <v>15.02551818671043</v>
+      </c>
+      <c r="G158">
+        <v>-11.25799187734501</v>
+      </c>
+      <c r="H158">
         <v>3.100844045825046</v>
-      </c>
-      <c r="D158">
-        <v>15.02551818671043</v>
-      </c>
-      <c r="E158">
-        <v>-11.25799187734501</v>
-      </c>
-      <c r="F158">
-        <v>-1.13030641311983</v>
-      </c>
-      <c r="G158">
-        <v>0.5929201700920705</v>
-      </c>
-      <c r="H158">
-        <v>0.8312963118585648</v>
       </c>
     </row>
     <row r="159">
@@ -8405,22 +8405,22 @@
         <v>-8.643826526048326</v>
       </c>
       <c r="C159">
+        <v>-1.80512660283817</v>
+      </c>
+      <c r="D159">
+        <v>-3.251798792698568</v>
+      </c>
+      <c r="E159">
+        <v>9.917829909415721</v>
+      </c>
+      <c r="F159">
+        <v>5.033798747091134</v>
+      </c>
+      <c r="G159">
+        <v>-6.847732465825418</v>
+      </c>
+      <c r="H159">
         <v>16.19969551699725</v>
-      </c>
-      <c r="D159">
-        <v>5.033798747091134</v>
-      </c>
-      <c r="E159">
-        <v>-6.847732465825418</v>
-      </c>
-      <c r="F159">
-        <v>9.917829909415721</v>
-      </c>
-      <c r="G159">
-        <v>-1.80512660283817</v>
-      </c>
-      <c r="H159">
-        <v>-3.251798792698568</v>
       </c>
     </row>
     <row r="160">
@@ -8431,22 +8431,22 @@
         <v>-6.71562411484099</v>
       </c>
       <c r="C160">
+        <v>-4.01861973854264</v>
+      </c>
+      <c r="D160">
+        <v>-3.314930549625861</v>
+      </c>
+      <c r="E160">
+        <v>12.63965193684204</v>
+      </c>
+      <c r="F160">
+        <v>-3.50679033071396</v>
+      </c>
+      <c r="G160">
+        <v>-5.466798788378357</v>
+      </c>
+      <c r="H160">
         <v>19.90087054437741</v>
-      </c>
-      <c r="D160">
-        <v>-3.50679033071396</v>
-      </c>
-      <c r="E160">
-        <v>-5.466798788378357</v>
-      </c>
-      <c r="F160">
-        <v>12.63965193684204</v>
-      </c>
-      <c r="G160">
-        <v>-4.01861973854264</v>
-      </c>
-      <c r="H160">
-        <v>-3.314930549625861</v>
       </c>
     </row>
     <row r="161">
@@ -8457,22 +8457,22 @@
         <v>0.1940726531955539</v>
       </c>
       <c r="C161">
+        <v>-3.50428572306295</v>
+      </c>
+      <c r="D161">
+        <v>1.88104099185582</v>
+      </c>
+      <c r="E161">
+        <v>7.673178887914922</v>
+      </c>
+      <c r="F161">
+        <v>-2.195111218284918</v>
+      </c>
+      <c r="G161">
+        <v>18.45399082042296</v>
+      </c>
+      <c r="H161">
         <v>13.16160912651483</v>
-      </c>
-      <c r="D161">
-        <v>-2.195111218284918</v>
-      </c>
-      <c r="E161">
-        <v>18.45399082042296</v>
-      </c>
-      <c r="F161">
-        <v>7.673178887914922</v>
-      </c>
-      <c r="G161">
-        <v>-3.50428572306295</v>
-      </c>
-      <c r="H161">
-        <v>1.88104099185582</v>
       </c>
     </row>
     <row r="162">
@@ -8483,22 +8483,22 @@
         <v>5.730372323274291</v>
       </c>
       <c r="C162">
+        <v>-0.1606242393195956</v>
+      </c>
+      <c r="D162">
+        <v>6.434039097878719</v>
+      </c>
+      <c r="E162">
+        <v>2.266955115610991</v>
+      </c>
+      <c r="F162">
+        <v>-0.2446315102431762</v>
+      </c>
+      <c r="G162">
+        <v>16.69921740149867</v>
+      </c>
+      <c r="H162">
         <v>6.830435211695129</v>
-      </c>
-      <c r="D162">
-        <v>-0.2446315102431762</v>
-      </c>
-      <c r="E162">
-        <v>16.69921740149867</v>
-      </c>
-      <c r="F162">
-        <v>2.266955115610991</v>
-      </c>
-      <c r="G162">
-        <v>-0.1606242393195956</v>
-      </c>
-      <c r="H162">
-        <v>6.434039097878719</v>
       </c>
     </row>
     <row r="163">
@@ -8509,22 +8509,22 @@
         <v>12.37429441264484</v>
       </c>
       <c r="C163">
+        <v>2.687046469134069</v>
+      </c>
+      <c r="D163">
+        <v>4.709237784334275</v>
+      </c>
+      <c r="E163">
+        <v>1.145948242003092</v>
+      </c>
+      <c r="F163">
+        <v>-4.662904833859449</v>
+      </c>
+      <c r="G163">
+        <v>5.399394615425246</v>
+      </c>
+      <c r="H163">
         <v>3.875044711296938</v>
-      </c>
-      <c r="D163">
-        <v>-4.662904833859449</v>
-      </c>
-      <c r="E163">
-        <v>5.399394615425246</v>
-      </c>
-      <c r="F163">
-        <v>1.145948242003092</v>
-      </c>
-      <c r="G163">
-        <v>2.687046469134069</v>
-      </c>
-      <c r="H163">
-        <v>4.709237784334275</v>
       </c>
     </row>
     <row r="164">
@@ -8535,22 +8535,22 @@
         <v>10.35168828792088</v>
       </c>
       <c r="C164">
+        <v>5.057946691895587</v>
+      </c>
+      <c r="D164">
+        <v>-1.010857620083594</v>
+      </c>
+      <c r="E164">
+        <v>6.653160268641245</v>
+      </c>
+      <c r="F164">
+        <v>4.851889390086428</v>
+      </c>
+      <c r="G164">
+        <v>11.94051522469055</v>
+      </c>
+      <c r="H164">
         <v>4.005571256656992</v>
-      </c>
-      <c r="D164">
-        <v>4.851889390086428</v>
-      </c>
-      <c r="E164">
-        <v>11.94051522469055</v>
-      </c>
-      <c r="F164">
-        <v>6.653160268641245</v>
-      </c>
-      <c r="G164">
-        <v>5.057946691895587</v>
-      </c>
-      <c r="H164">
-        <v>-1.010857620083594</v>
       </c>
     </row>
     <row r="165">
@@ -8561,22 +8561,22 @@
         <v>8.299203680351441</v>
       </c>
       <c r="C165">
+        <v>6.302817275935446</v>
+      </c>
+      <c r="D165">
+        <v>-6.178531807405285</v>
+      </c>
+      <c r="E165">
+        <v>11.50532270397686</v>
+      </c>
+      <c r="F165">
+        <v>-4.495529903838369</v>
+      </c>
+      <c r="G165">
+        <v>-4.437578428166821</v>
+      </c>
+      <c r="H165">
         <v>6.686386941343958</v>
-      </c>
-      <c r="D165">
-        <v>-4.495529903838369</v>
-      </c>
-      <c r="E165">
-        <v>-4.437578428166821</v>
-      </c>
-      <c r="F165">
-        <v>11.50532270397686</v>
-      </c>
-      <c r="G165">
-        <v>6.302817275935446</v>
-      </c>
-      <c r="H165">
-        <v>-6.178531807405285</v>
       </c>
     </row>
     <row r="166">
@@ -8587,22 +8587,22 @@
         <v>7.99063137403242</v>
       </c>
       <c r="C166">
+        <v>5.878208249091177</v>
+      </c>
+      <c r="D166">
+        <v>-7.726058519324663</v>
+      </c>
+      <c r="E166">
+        <v>9.682171004758477</v>
+      </c>
+      <c r="F166">
+        <v>-0.09504327673842683</v>
+      </c>
+      <c r="G166">
+        <v>-3.965283882288428</v>
+      </c>
+      <c r="H166">
         <v>7.330944183719246</v>
-      </c>
-      <c r="D166">
-        <v>-0.09504327673842683</v>
-      </c>
-      <c r="E166">
-        <v>-3.965283882288428</v>
-      </c>
-      <c r="F166">
-        <v>9.682171004758477</v>
-      </c>
-      <c r="G166">
-        <v>5.878208249091177</v>
-      </c>
-      <c r="H166">
-        <v>-7.726058519324663</v>
       </c>
     </row>
     <row r="167">
@@ -8613,22 +8613,22 @@
         <v>5.554104073503163</v>
       </c>
       <c r="C167">
+        <v>4.675658424605689</v>
+      </c>
+      <c r="D167">
+        <v>-3.118079718451006</v>
+      </c>
+      <c r="E167">
+        <v>3.398605811621369</v>
+      </c>
+      <c r="F167">
+        <v>9.501153327062939</v>
+      </c>
+      <c r="G167">
+        <v>-6.406483914570793</v>
+      </c>
+      <c r="H167">
         <v>4.076858135772743</v>
-      </c>
-      <c r="D167">
-        <v>9.501153327062939</v>
-      </c>
-      <c r="E167">
-        <v>-6.406483914570793</v>
-      </c>
-      <c r="F167">
-        <v>3.398605811621369</v>
-      </c>
-      <c r="G167">
-        <v>4.675658424605689</v>
-      </c>
-      <c r="H167">
-        <v>-3.118079718451006</v>
       </c>
     </row>
     <row r="168">
@@ -8639,22 +8639,22 @@
         <v>6.262754871700205</v>
       </c>
       <c r="C168">
+        <v>4.044369459616015</v>
+      </c>
+      <c r="D168">
+        <v>1.523702033841134</v>
+      </c>
+      <c r="E168">
+        <v>-3.153012042112169</v>
+      </c>
+      <c r="F168">
+        <v>4.419554694660865</v>
+      </c>
+      <c r="G168">
+        <v>-6.592198883635414</v>
+      </c>
+      <c r="H168">
         <v>3.529170387826808</v>
-      </c>
-      <c r="D168">
-        <v>4.419554694660865</v>
-      </c>
-      <c r="E168">
-        <v>-6.592198883635414</v>
-      </c>
-      <c r="F168">
-        <v>-3.153012042112169</v>
-      </c>
-      <c r="G168">
-        <v>4.044369459616015</v>
-      </c>
-      <c r="H168">
-        <v>1.523702033841134</v>
       </c>
     </row>
     <row r="169">
@@ -8665,22 +8665,22 @@
         <v>4.900377645285459</v>
       </c>
       <c r="C169">
+        <v>4.033159427466315</v>
+      </c>
+      <c r="D169">
+        <v>0.7390963425127683</v>
+      </c>
+      <c r="E169">
+        <v>-5.292562822424873</v>
+      </c>
+      <c r="F169">
+        <v>-1.984696816484521</v>
+      </c>
+      <c r="G169">
+        <v>2.690118616611747</v>
+      </c>
+      <c r="H169">
         <v>9.76460874068723</v>
-      </c>
-      <c r="D169">
-        <v>-1.984696816484521</v>
-      </c>
-      <c r="E169">
-        <v>2.690118616611747</v>
-      </c>
-      <c r="F169">
-        <v>-5.292562822424873</v>
-      </c>
-      <c r="G169">
-        <v>4.033159427466315</v>
-      </c>
-      <c r="H169">
-        <v>0.7390963425127683</v>
       </c>
     </row>
     <row r="170">
@@ -8691,22 +8691,22 @@
         <v>1.613187396084759</v>
       </c>
       <c r="C170">
+        <v>2.522087731080735</v>
+      </c>
+      <c r="D170">
+        <v>-1.552391517361063</v>
+      </c>
+      <c r="E170">
+        <v>-2.13374976964894</v>
+      </c>
+      <c r="F170">
+        <v>0.7560732497663647</v>
+      </c>
+      <c r="G170">
+        <v>-1.354861143445507</v>
+      </c>
+      <c r="H170">
         <v>16.2511873821229</v>
-      </c>
-      <c r="D170">
-        <v>0.7560732497663647</v>
-      </c>
-      <c r="E170">
-        <v>-1.354861143445507</v>
-      </c>
-      <c r="F170">
-        <v>-2.13374976964894</v>
-      </c>
-      <c r="G170">
-        <v>2.522087731080735</v>
-      </c>
-      <c r="H170">
-        <v>-1.552391517361063</v>
       </c>
     </row>
     <row r="171">
@@ -8717,22 +8717,22 @@
         <v>-1.470044033304974</v>
       </c>
       <c r="C171">
+        <v>2.153753859376106</v>
+      </c>
+      <c r="D171">
+        <v>-3.516617441906644</v>
+      </c>
+      <c r="E171">
+        <v>-0.7956200150583626</v>
+      </c>
+      <c r="F171">
+        <v>11.27597381547789</v>
+      </c>
+      <c r="G171">
+        <v>-8.109517204019422</v>
+      </c>
+      <c r="H171">
         <v>16.52365106630043</v>
-      </c>
-      <c r="D171">
-        <v>11.27597381547789</v>
-      </c>
-      <c r="E171">
-        <v>-8.109517204019422</v>
-      </c>
-      <c r="F171">
-        <v>-0.7956200150583626</v>
-      </c>
-      <c r="G171">
-        <v>2.153753859376106</v>
-      </c>
-      <c r="H171">
-        <v>-3.516617441906644</v>
       </c>
     </row>
     <row r="172">
@@ -8743,22 +8743,22 @@
         <v>-1.196264537970015</v>
       </c>
       <c r="C172">
+        <v>4.32842171564447</v>
+      </c>
+      <c r="D172">
+        <v>-5.896758867831542</v>
+      </c>
+      <c r="E172">
+        <v>-2.313050128166139</v>
+      </c>
+      <c r="F172">
+        <v>10.29479101899979</v>
+      </c>
+      <c r="G172">
+        <v>-4.205122716317666</v>
+      </c>
+      <c r="H172">
         <v>10.93771258953091</v>
-      </c>
-      <c r="D172">
-        <v>10.29479101899979</v>
-      </c>
-      <c r="E172">
-        <v>-4.205122716317666</v>
-      </c>
-      <c r="F172">
-        <v>-2.313050128166139</v>
-      </c>
-      <c r="G172">
-        <v>4.32842171564447</v>
-      </c>
-      <c r="H172">
-        <v>-5.896758867831542</v>
       </c>
     </row>
     <row r="173">
@@ -8769,22 +8769,22 @@
         <v>0.4859682743403093</v>
       </c>
       <c r="C173">
+        <v>5.511474486910339</v>
+      </c>
+      <c r="D173">
+        <v>-6.172660551831721</v>
+      </c>
+      <c r="E173">
+        <v>-0.5992667579515221</v>
+      </c>
+      <c r="F173">
+        <v>24.72709008424192</v>
+      </c>
+      <c r="G173">
+        <v>-15.54578698106418</v>
+      </c>
+      <c r="H173">
         <v>2.872448487218748</v>
-      </c>
-      <c r="D173">
-        <v>24.72709008424192</v>
-      </c>
-      <c r="E173">
-        <v>-15.54578698106418</v>
-      </c>
-      <c r="F173">
-        <v>-0.5992667579515221</v>
-      </c>
-      <c r="G173">
-        <v>5.511474486910339</v>
-      </c>
-      <c r="H173">
-        <v>-6.172660551831721</v>
       </c>
     </row>
     <row r="174">
@@ -8795,22 +8795,22 @@
         <v>0.756370549827956</v>
       </c>
       <c r="C174">
+        <v>4.548386157369633</v>
+      </c>
+      <c r="D174">
+        <v>-1.005816806337834</v>
+      </c>
+      <c r="E174">
+        <v>3.3613115664338</v>
+      </c>
+      <c r="F174">
+        <v>10.06530153452667</v>
+      </c>
+      <c r="G174">
+        <v>-16.03849060395089</v>
+      </c>
+      <c r="H174">
         <v>-3.13576594713274</v>
-      </c>
-      <c r="D174">
-        <v>10.06530153452667</v>
-      </c>
-      <c r="E174">
-        <v>-16.03849060395089</v>
-      </c>
-      <c r="F174">
-        <v>3.3613115664338</v>
-      </c>
-      <c r="G174">
-        <v>4.548386157369633</v>
-      </c>
-      <c r="H174">
-        <v>-1.005816806337834</v>
       </c>
     </row>
     <row r="175">
@@ -8821,22 +8821,22 @@
         <v>2.971782636423459</v>
       </c>
       <c r="C175">
+        <v>2.176991073895618</v>
+      </c>
+      <c r="D175">
+        <v>6.814714602859495</v>
+      </c>
+      <c r="E175">
+        <v>10.19947403819566</v>
+      </c>
+      <c r="F175">
+        <v>-0.5179743809191284</v>
+      </c>
+      <c r="G175">
+        <v>7.049385397852204</v>
+      </c>
+      <c r="H175">
         <v>-3.380497109956782</v>
-      </c>
-      <c r="D175">
-        <v>-0.5179743809191284</v>
-      </c>
-      <c r="E175">
-        <v>7.049385397852204</v>
-      </c>
-      <c r="F175">
-        <v>10.19947403819566</v>
-      </c>
-      <c r="G175">
-        <v>2.176991073895618</v>
-      </c>
-      <c r="H175">
-        <v>6.814714602859495</v>
       </c>
     </row>
     <row r="176">
@@ -8847,22 +8847,22 @@
         <v>2.520281122001511</v>
       </c>
       <c r="C176">
+        <v>-0.99812823034785</v>
+      </c>
+      <c r="D176">
+        <v>13.28390478032344</v>
+      </c>
+      <c r="E176">
+        <v>19.2452315536203</v>
+      </c>
+      <c r="F176">
+        <v>-0.8389502581504171</v>
+      </c>
+      <c r="G176">
+        <v>-2.275200142695766</v>
+      </c>
+      <c r="H176">
         <v>-1.813239314124493</v>
-      </c>
-      <c r="D176">
-        <v>-0.8389502581504171</v>
-      </c>
-      <c r="E176">
-        <v>-2.275200142695766</v>
-      </c>
-      <c r="F176">
-        <v>19.2452315536203</v>
-      </c>
-      <c r="G176">
-        <v>-0.99812823034785</v>
-      </c>
-      <c r="H176">
-        <v>13.28390478032344</v>
       </c>
     </row>
     <row r="177">
@@ -8873,22 +8873,22 @@
         <v>0.07308411035091833</v>
       </c>
       <c r="C177">
+        <v>-1.02755361156297</v>
+      </c>
+      <c r="D177">
+        <v>15.07793596517459</v>
+      </c>
+      <c r="E177">
+        <v>24.6488639880811</v>
+      </c>
+      <c r="F177">
+        <v>-6.511015764486738</v>
+      </c>
+      <c r="G177">
+        <v>12.99114650819693</v>
+      </c>
+      <c r="H177">
         <v>-6.388959396626392</v>
-      </c>
-      <c r="D177">
-        <v>-6.511015764486738</v>
-      </c>
-      <c r="E177">
-        <v>12.99114650819693</v>
-      </c>
-      <c r="F177">
-        <v>24.6488639880811</v>
-      </c>
-      <c r="G177">
-        <v>-1.02755361156297</v>
-      </c>
-      <c r="H177">
-        <v>15.07793596517459</v>
       </c>
     </row>
     <row r="178">
@@ -8899,22 +8899,22 @@
         <v>-0.9121262981497513</v>
       </c>
       <c r="C178">
+        <v>4.223376310623239</v>
+      </c>
+      <c r="D178">
+        <v>7.844266917371456</v>
+      </c>
+      <c r="E178">
+        <v>24.12918930911727</v>
+      </c>
+      <c r="F178">
+        <v>-7.848533429197158</v>
+      </c>
+      <c r="G178">
+        <v>30.91247720589991</v>
+      </c>
+      <c r="H178">
         <v>-11.61376473868508</v>
-      </c>
-      <c r="D178">
-        <v>-7.848533429197158</v>
-      </c>
-      <c r="E178">
-        <v>30.91247720589991</v>
-      </c>
-      <c r="F178">
-        <v>24.12918930911727</v>
-      </c>
-      <c r="G178">
-        <v>4.223376310623239</v>
-      </c>
-      <c r="H178">
-        <v>7.844266917371456</v>
       </c>
     </row>
     <row r="179">
@@ -8925,22 +8925,22 @@
         <v>-2.372364689944328</v>
       </c>
       <c r="C179">
+        <v>9.01230153046615</v>
+      </c>
+      <c r="D179">
+        <v>-0.9829933837677607</v>
+      </c>
+      <c r="E179">
+        <v>17.30898967226995</v>
+      </c>
+      <c r="F179">
+        <v>-6.530032486584192</v>
+      </c>
+      <c r="G179">
+        <v>20.76796378930364</v>
+      </c>
+      <c r="H179">
         <v>-13.1386898846354</v>
-      </c>
-      <c r="D179">
-        <v>-6.530032486584192</v>
-      </c>
-      <c r="E179">
-        <v>20.76796378930364</v>
-      </c>
-      <c r="F179">
-        <v>17.30898967226995</v>
-      </c>
-      <c r="G179">
-        <v>9.01230153046615</v>
-      </c>
-      <c r="H179">
-        <v>-0.9829933837677607</v>
       </c>
     </row>
     <row r="180">
@@ -8951,22 +8951,22 @@
         <v>-4.042055899640418</v>
       </c>
       <c r="C180">
+        <v>8.509314391526313</v>
+      </c>
+      <c r="D180">
+        <v>-1.400284645169148</v>
+      </c>
+      <c r="E180">
+        <v>8.523172710560868</v>
+      </c>
+      <c r="F180">
+        <v>0.4816597675811884</v>
+      </c>
+      <c r="G180">
+        <v>3.287252210438019</v>
+      </c>
+      <c r="H180">
         <v>-11.45635973683071</v>
-      </c>
-      <c r="D180">
-        <v>0.4816597675811884</v>
-      </c>
-      <c r="E180">
-        <v>3.287252210438019</v>
-      </c>
-      <c r="F180">
-        <v>8.523172710560868</v>
-      </c>
-      <c r="G180">
-        <v>8.509314391526313</v>
-      </c>
-      <c r="H180">
-        <v>-1.400284645169148</v>
       </c>
     </row>
     <row r="181">
@@ -8977,22 +8977,22 @@
         <v>-2.608202586715513</v>
       </c>
       <c r="C181">
+        <v>5.246368035519189</v>
+      </c>
+      <c r="D181">
+        <v>2.923638848627186</v>
+      </c>
+      <c r="E181">
+        <v>2.333583642784376</v>
+      </c>
+      <c r="F181">
+        <v>5.121236369995952</v>
+      </c>
+      <c r="G181">
+        <v>-2.566955784695346</v>
+      </c>
+      <c r="H181">
         <v>-4.539394087149207</v>
-      </c>
-      <c r="D181">
-        <v>5.121236369995952</v>
-      </c>
-      <c r="E181">
-        <v>-2.566955784695346</v>
-      </c>
-      <c r="F181">
-        <v>2.333583642784376</v>
-      </c>
-      <c r="G181">
-        <v>5.246368035519189</v>
-      </c>
-      <c r="H181">
-        <v>2.923638848627186</v>
       </c>
     </row>
     <row r="182">
@@ -9003,22 +9003,22 @@
         <v>0.6092548884400806</v>
       </c>
       <c r="C182">
+        <v>2.963179859899512</v>
+      </c>
+      <c r="D182">
+        <v>6.908599819524186</v>
+      </c>
+      <c r="E182">
+        <v>-1.062291732317122</v>
+      </c>
+      <c r="F182">
+        <v>17.29417997375966</v>
+      </c>
+      <c r="G182">
+        <v>-13.90921306071621</v>
+      </c>
+      <c r="H182">
         <v>2.149438329971187</v>
-      </c>
-      <c r="D182">
-        <v>17.29417997375966</v>
-      </c>
-      <c r="E182">
-        <v>-13.90921306071621</v>
-      </c>
-      <c r="F182">
-        <v>-1.062291732317122</v>
-      </c>
-      <c r="G182">
-        <v>2.963179859899512</v>
-      </c>
-      <c r="H182">
-        <v>6.908599819524186</v>
       </c>
     </row>
     <row r="183">
@@ -9029,22 +9029,22 @@
         <v>2.607611906849838</v>
       </c>
       <c r="C183">
+        <v>1.628090497719481</v>
+      </c>
+      <c r="D183">
+        <v>10.76441858120834</v>
+      </c>
+      <c r="E183">
+        <v>-2.603268989375995</v>
+      </c>
+      <c r="F183">
+        <v>16.55550334767482</v>
+      </c>
+      <c r="G183">
+        <v>-17.2675017724791</v>
+      </c>
+      <c r="H183">
         <v>4.922976990093297</v>
-      </c>
-      <c r="D183">
-        <v>16.55550334767482</v>
-      </c>
-      <c r="E183">
-        <v>-17.2675017724791</v>
-      </c>
-      <c r="F183">
-        <v>-2.603268989375995</v>
-      </c>
-      <c r="G183">
-        <v>1.628090497719481</v>
-      </c>
-      <c r="H183">
-        <v>10.76441858120834</v>
       </c>
     </row>
     <row r="184">
@@ -9055,22 +9055,22 @@
         <v>4.178218292537528</v>
       </c>
       <c r="C184">
+        <v>0.9191718512155278</v>
+      </c>
+      <c r="D184">
+        <v>12.57109733056558</v>
+      </c>
+      <c r="E184">
+        <v>-3.574944020899218</v>
+      </c>
+      <c r="F184">
+        <v>16.19958274551889</v>
+      </c>
+      <c r="G184">
+        <v>-10.61483183324212</v>
+      </c>
+      <c r="H184">
         <v>5.340484521536704</v>
-      </c>
-      <c r="D184">
-        <v>16.19958274551889</v>
-      </c>
-      <c r="E184">
-        <v>-10.61483183324212</v>
-      </c>
-      <c r="F184">
-        <v>-3.574944020899218</v>
-      </c>
-      <c r="G184">
-        <v>0.9191718512155278</v>
-      </c>
-      <c r="H184">
-        <v>12.57109733056558</v>
       </c>
     </row>
     <row r="185">
@@ -9081,22 +9081,22 @@
         <v>2.491565023314557</v>
       </c>
       <c r="C185">
+        <v>0.2325211700869634</v>
+      </c>
+      <c r="D185">
+        <v>11.20807543473335</v>
+      </c>
+      <c r="E185">
+        <v>-7.268758789903551</v>
+      </c>
+      <c r="F185">
+        <v>8.702067096273547</v>
+      </c>
+      <c r="G185">
+        <v>-14.6104168710942</v>
+      </c>
+      <c r="H185">
         <v>2.305153712253771</v>
-      </c>
-      <c r="D185">
-        <v>8.702067096273547</v>
-      </c>
-      <c r="E185">
-        <v>-14.6104168710942</v>
-      </c>
-      <c r="F185">
-        <v>-7.268758789903551</v>
-      </c>
-      <c r="G185">
-        <v>0.2325211700869634</v>
-      </c>
-      <c r="H185">
-        <v>11.20807543473335</v>
       </c>
     </row>
     <row r="186">
@@ -9107,22 +9107,22 @@
         <v>-0.4168929748524453</v>
       </c>
       <c r="C186">
+        <v>-4.243496701524507</v>
+      </c>
+      <c r="D186">
+        <v>4.719302449233531</v>
+      </c>
+      <c r="E186">
+        <v>-12.96193832363591</v>
+      </c>
+      <c r="F186">
+        <v>3.290840223889946</v>
+      </c>
+      <c r="G186">
+        <v>-8.613370117348563</v>
+      </c>
+      <c r="H186">
         <v>-0.7715642417119972</v>
-      </c>
-      <c r="D186">
-        <v>3.290840223889946</v>
-      </c>
-      <c r="E186">
-        <v>-8.613370117348563</v>
-      </c>
-      <c r="F186">
-        <v>-12.96193832363591</v>
-      </c>
-      <c r="G186">
-        <v>-4.243496701524507</v>
-      </c>
-      <c r="H186">
-        <v>4.719302449233531</v>
       </c>
     </row>
     <row r="187">
@@ -9133,22 +9133,22 @@
         <v>-2.223916545100124</v>
       </c>
       <c r="C187">
+        <v>-9.166449794165143</v>
+      </c>
+      <c r="D187">
+        <v>-5.578810955425794</v>
+      </c>
+      <c r="E187">
+        <v>-14.94128887444792</v>
+      </c>
+      <c r="F187">
+        <v>-3.521057658118154</v>
+      </c>
+      <c r="G187">
+        <v>-8.825557844640475</v>
+      </c>
+      <c r="H187">
         <v>-1.441527912270801</v>
-      </c>
-      <c r="D187">
-        <v>-3.521057658118154</v>
-      </c>
-      <c r="E187">
-        <v>-8.825557844640475</v>
-      </c>
-      <c r="F187">
-        <v>-14.94128887444792</v>
-      </c>
-      <c r="G187">
-        <v>-9.166449794165143</v>
-      </c>
-      <c r="H187">
-        <v>-5.578810955425794</v>
       </c>
     </row>
     <row r="188">
@@ -9159,22 +9159,22 @@
         <v>-3.183330157168973</v>
       </c>
       <c r="C188">
+        <v>-8.09620578796515</v>
+      </c>
+      <c r="D188">
+        <v>-14.93095532555989</v>
+      </c>
+      <c r="E188">
+        <v>-12.72311091235995</v>
+      </c>
+      <c r="F188">
+        <v>-15.58541914271311</v>
+      </c>
+      <c r="G188">
+        <v>8.289815841937088</v>
+      </c>
+      <c r="H188">
         <v>1.224955428069285</v>
-      </c>
-      <c r="D188">
-        <v>-15.58541914271311</v>
-      </c>
-      <c r="E188">
-        <v>8.289815841937088</v>
-      </c>
-      <c r="F188">
-        <v>-12.72311091235995</v>
-      </c>
-      <c r="G188">
-        <v>-8.09620578796515</v>
-      </c>
-      <c r="H188">
-        <v>-14.93095532555989</v>
       </c>
     </row>
     <row r="189">
@@ -9185,22 +9185,22 @@
         <v>-1.565086342039945</v>
       </c>
       <c r="C189">
+        <v>-5.759841612819128</v>
+      </c>
+      <c r="D189">
+        <v>-20.38586366711856</v>
+      </c>
+      <c r="E189">
+        <v>-6.039066885532707</v>
+      </c>
+      <c r="F189">
+        <v>-12.7855864855298</v>
+      </c>
+      <c r="G189">
+        <v>14.45250872073915</v>
+      </c>
+      <c r="H189">
         <v>8.433945648829756</v>
-      </c>
-      <c r="D189">
-        <v>-12.7855864855298</v>
-      </c>
-      <c r="E189">
-        <v>14.45250872073915</v>
-      </c>
-      <c r="F189">
-        <v>-6.039066885532707</v>
-      </c>
-      <c r="G189">
-        <v>-5.759841612819128</v>
-      </c>
-      <c r="H189">
-        <v>-20.38586366711856</v>
       </c>
     </row>
     <row r="190">
@@ -9211,22 +9211,22 @@
         <v>0.1242855952626298</v>
       </c>
       <c r="C190">
+        <v>-6.532636483023479</v>
+      </c>
+      <c r="D190">
+        <v>-17.65241339904373</v>
+      </c>
+      <c r="E190">
+        <v>4.079244801412707</v>
+      </c>
+      <c r="F190">
+        <v>-13.30494547087781</v>
+      </c>
+      <c r="G190">
+        <v>1.877309150697259</v>
+      </c>
+      <c r="H190">
         <v>13.91142552158149</v>
-      </c>
-      <c r="D190">
-        <v>-13.30494547087781</v>
-      </c>
-      <c r="E190">
-        <v>1.877309150697259</v>
-      </c>
-      <c r="F190">
-        <v>4.079244801412707</v>
-      </c>
-      <c r="G190">
-        <v>-6.532636483023479</v>
-      </c>
-      <c r="H190">
-        <v>-17.65241339904373</v>
       </c>
     </row>
     <row r="191">
@@ -9237,22 +9237,22 @@
         <v>3.000077533860024</v>
       </c>
       <c r="C191">
+        <v>-5.585042877682589</v>
+      </c>
+      <c r="D191">
+        <v>-9.38301589651569</v>
+      </c>
+      <c r="E191">
+        <v>8.288592096695746</v>
+      </c>
+      <c r="F191">
+        <v>-5.276959381212897</v>
+      </c>
+      <c r="G191">
+        <v>10.61580119041692</v>
+      </c>
+      <c r="H191">
         <v>12.45734141471297</v>
-      </c>
-      <c r="D191">
-        <v>-5.276959381212897</v>
-      </c>
-      <c r="E191">
-        <v>10.61580119041692</v>
-      </c>
-      <c r="F191">
-        <v>8.288592096695746</v>
-      </c>
-      <c r="G191">
-        <v>-5.585042877682589</v>
-      </c>
-      <c r="H191">
-        <v>-9.38301589651569</v>
       </c>
     </row>
     <row r="192">
@@ -9263,22 +9263,22 @@
         <v>3.892109022351486</v>
       </c>
       <c r="C192">
+        <v>-2.95018691633383</v>
+      </c>
+      <c r="D192">
+        <v>-4.615828312723158</v>
+      </c>
+      <c r="E192">
+        <v>4.310683457722897</v>
+      </c>
+      <c r="F192">
+        <v>2.060221480202751</v>
+      </c>
+      <c r="G192">
+        <v>10.42870903584352</v>
+      </c>
+      <c r="H192">
         <v>6.486650985270925</v>
-      </c>
-      <c r="D192">
-        <v>2.060221480202751</v>
-      </c>
-      <c r="E192">
-        <v>10.42870903584352</v>
-      </c>
-      <c r="F192">
-        <v>4.310683457722897</v>
-      </c>
-      <c r="G192">
-        <v>-2.95018691633383</v>
-      </c>
-      <c r="H192">
-        <v>-4.615828312723158</v>
       </c>
     </row>
     <row r="193">
@@ -9289,22 +9289,22 @@
         <v>4.160345504445462</v>
       </c>
       <c r="C193">
+        <v>-1.670495992190713</v>
+      </c>
+      <c r="D193">
+        <v>-0.2281086127701837</v>
+      </c>
+      <c r="E193">
+        <v>-2.418523724563537</v>
+      </c>
+      <c r="F193">
+        <v>0.2638966723398584</v>
+      </c>
+      <c r="G193">
+        <v>-1.515084147413104</v>
+      </c>
+      <c r="H193">
         <v>1.127583355393513</v>
-      </c>
-      <c r="D193">
-        <v>0.2638966723398584</v>
-      </c>
-      <c r="E193">
-        <v>-1.515084147413104</v>
-      </c>
-      <c r="F193">
-        <v>-2.418523724563537</v>
-      </c>
-      <c r="G193">
-        <v>-1.670495992190713</v>
-      </c>
-      <c r="H193">
-        <v>-0.2281086127701837</v>
       </c>
     </row>
     <row r="194">
@@ -9315,22 +9315,22 @@
         <v>3.242647221958928</v>
       </c>
       <c r="C194">
+        <v>1.148742793133106</v>
+      </c>
+      <c r="D194">
+        <v>7.556075971867382</v>
+      </c>
+      <c r="E194">
+        <v>-7.059104358788759</v>
+      </c>
+      <c r="F194">
+        <v>-4.292571573539128</v>
+      </c>
+      <c r="G194">
+        <v>13.76269892357802</v>
+      </c>
+      <c r="H194">
         <v>1.075548728984654</v>
-      </c>
-      <c r="D194">
-        <v>-4.292571573539128</v>
-      </c>
-      <c r="E194">
-        <v>13.76269892357802</v>
-      </c>
-      <c r="F194">
-        <v>-7.059104358788759</v>
-      </c>
-      <c r="G194">
-        <v>1.148742793133106</v>
-      </c>
-      <c r="H194">
-        <v>7.556075971867382</v>
       </c>
     </row>
     <row r="195">
@@ -9341,22 +9341,22 @@
         <v>-3.530110603768299</v>
       </c>
       <c r="C195">
+        <v>4.408470433290712</v>
+      </c>
+      <c r="D195">
+        <v>10.82370952422194</v>
+      </c>
+      <c r="E195">
+        <v>-6.235885889644955</v>
+      </c>
+      <c r="F195">
+        <v>-9.023209175581325</v>
+      </c>
+      <c r="G195">
+        <v>-3.946902864378432</v>
+      </c>
+      <c r="H195">
         <v>4.676282505249585</v>
-      </c>
-      <c r="D195">
-        <v>-9.023209175581325</v>
-      </c>
-      <c r="E195">
-        <v>-3.946902864378432</v>
-      </c>
-      <c r="F195">
-        <v>-6.235885889644955</v>
-      </c>
-      <c r="G195">
-        <v>4.408470433290712</v>
-      </c>
-      <c r="H195">
-        <v>10.82370952422194</v>
       </c>
     </row>
     <row r="196">
@@ -9367,22 +9367,22 @@
         <v>-3.513264400169303</v>
       </c>
       <c r="C196">
+        <v>0.0109112524476096</v>
+      </c>
+      <c r="D196">
+        <v>8.955333714794666</v>
+      </c>
+      <c r="E196">
+        <v>-1.534390104470296</v>
+      </c>
+      <c r="F196">
+        <v>-3.05804269122778</v>
+      </c>
+      <c r="G196">
+        <v>-14.54805670328733</v>
+      </c>
+      <c r="H196">
         <v>7.372346685813103</v>
-      </c>
-      <c r="D196">
-        <v>-3.05804269122778</v>
-      </c>
-      <c r="E196">
-        <v>-14.54805670328733</v>
-      </c>
-      <c r="F196">
-        <v>-1.534390104470296</v>
-      </c>
-      <c r="G196">
-        <v>0.0109112524476096</v>
-      </c>
-      <c r="H196">
-        <v>8.955333714794666</v>
       </c>
     </row>
     <row r="197">
@@ -9393,22 +9393,22 @@
         <v>-6.54717465007767</v>
       </c>
       <c r="C197">
+        <v>-7.545877285206481</v>
+      </c>
+      <c r="D197">
+        <v>6.23546277556577</v>
+      </c>
+      <c r="E197">
+        <v>4.915160448775091</v>
+      </c>
+      <c r="F197">
+        <v>3.515074871425661</v>
+      </c>
+      <c r="G197">
+        <v>-10.51209099260705</v>
+      </c>
+      <c r="H197">
         <v>7.215986816030751</v>
-      </c>
-      <c r="D197">
-        <v>3.515074871425661</v>
-      </c>
-      <c r="E197">
-        <v>-10.51209099260705</v>
-      </c>
-      <c r="F197">
-        <v>4.915160448775091</v>
-      </c>
-      <c r="G197">
-        <v>-7.545877285206481</v>
-      </c>
-      <c r="H197">
-        <v>6.23546277556577</v>
       </c>
     </row>
     <row r="198">
@@ -9419,22 +9419,22 @@
         <v>-5.795503859850093</v>
       </c>
       <c r="C198">
+        <v>-8.89979794191429</v>
+      </c>
+      <c r="D198">
+        <v>1.110537017454583</v>
+      </c>
+      <c r="E198">
+        <v>10.45031401078473</v>
+      </c>
+      <c r="F198">
+        <v>6.364657199767709</v>
+      </c>
+      <c r="G198">
+        <v>-22.1978068685965</v>
+      </c>
+      <c r="H198">
         <v>5.680108005097839</v>
-      </c>
-      <c r="D198">
-        <v>6.364657199767709</v>
-      </c>
-      <c r="E198">
-        <v>-22.1978068685965</v>
-      </c>
-      <c r="F198">
-        <v>10.45031401078473</v>
-      </c>
-      <c r="G198">
-        <v>-8.89979794191429</v>
-      </c>
-      <c r="H198">
-        <v>1.110537017454583</v>
       </c>
     </row>
     <row r="199">
@@ -9445,22 +9445,22 @@
         <v>1.019859176058735</v>
       </c>
       <c r="C199">
+        <v>-8.132599132275665</v>
+      </c>
+      <c r="D199">
+        <v>-2.710273948918129</v>
+      </c>
+      <c r="E199">
+        <v>14.47847925887162</v>
+      </c>
+      <c r="F199">
+        <v>8.830203577644191</v>
+      </c>
+      <c r="G199">
+        <v>-7.944261243723972</v>
+      </c>
+      <c r="H199">
         <v>4.564210282445536</v>
-      </c>
-      <c r="D199">
-        <v>8.830203577644191</v>
-      </c>
-      <c r="E199">
-        <v>-7.944261243723972</v>
-      </c>
-      <c r="F199">
-        <v>14.47847925887162</v>
-      </c>
-      <c r="G199">
-        <v>-8.132599132275665</v>
-      </c>
-      <c r="H199">
-        <v>-2.710273948918129</v>
       </c>
     </row>
     <row r="200">
@@ -9471,22 +9471,22 @@
         <v>-1.650148099361615</v>
       </c>
       <c r="C200">
+        <v>-6.587471526547207</v>
+      </c>
+      <c r="D200">
+        <v>0.4551179994441545</v>
+      </c>
+      <c r="E200">
+        <v>15.90366304632798</v>
+      </c>
+      <c r="F200">
+        <v>1.812098326021805</v>
+      </c>
+      <c r="G200">
+        <v>1.685826226209142</v>
+      </c>
+      <c r="H200">
         <v>5.111974128672747</v>
-      </c>
-      <c r="D200">
-        <v>1.812098326021805</v>
-      </c>
-      <c r="E200">
-        <v>1.685826226209142</v>
-      </c>
-      <c r="F200">
-        <v>15.90366304632798</v>
-      </c>
-      <c r="G200">
-        <v>-6.587471526547207</v>
-      </c>
-      <c r="H200">
-        <v>0.4551179994441545</v>
       </c>
     </row>
     <row r="201">
@@ -9497,22 +9497,22 @@
         <v>-1.383780780073884</v>
       </c>
       <c r="C201">
+        <v>-2.0055044867614</v>
+      </c>
+      <c r="D201">
+        <v>3.665935734123016</v>
+      </c>
+      <c r="E201">
+        <v>9.842861528162206</v>
+      </c>
+      <c r="F201">
+        <v>-1.925861638104032</v>
+      </c>
+      <c r="G201">
+        <v>5.917788854366535</v>
+      </c>
+      <c r="H201">
         <v>3.681849801523929</v>
-      </c>
-      <c r="D201">
-        <v>-1.925861638104032</v>
-      </c>
-      <c r="E201">
-        <v>5.917788854366535</v>
-      </c>
-      <c r="F201">
-        <v>9.842861528162206</v>
-      </c>
-      <c r="G201">
-        <v>-2.0055044867614</v>
-      </c>
-      <c r="H201">
-        <v>3.665935734123016</v>
       </c>
     </row>
     <row r="202">
@@ -9523,22 +9523,22 @@
         <v>-7.962433646631606</v>
       </c>
       <c r="C202">
+        <v>-1.909086425089124</v>
+      </c>
+      <c r="D202">
+        <v>-2.439342026846869</v>
+      </c>
+      <c r="E202">
+        <v>2.969579036050218</v>
+      </c>
+      <c r="F202">
+        <v>-1.816288156023449</v>
+      </c>
+      <c r="G202">
+        <v>-0.5811145597228173</v>
+      </c>
+      <c r="H202">
         <v>-2.211935166995493</v>
-      </c>
-      <c r="D202">
-        <v>-1.816288156023449</v>
-      </c>
-      <c r="E202">
-        <v>-0.5811145597228173</v>
-      </c>
-      <c r="F202">
-        <v>2.969579036050218</v>
-      </c>
-      <c r="G202">
-        <v>-1.909086425089124</v>
-      </c>
-      <c r="H202">
-        <v>-2.439342026846869</v>
       </c>
     </row>
     <row r="203">
@@ -9549,22 +9549,22 @@
         <v>-13.85336807379242</v>
       </c>
       <c r="C203">
+        <v>-4.925982103936189</v>
+      </c>
+      <c r="D203">
+        <v>-9.120744199127129</v>
+      </c>
+      <c r="E203">
+        <v>-0.8813617396164486</v>
+      </c>
+      <c r="F203">
+        <v>-6.177993619232902</v>
+      </c>
+      <c r="G203">
+        <v>-12.61583200175195</v>
+      </c>
+      <c r="H203">
         <v>-8.13007886312408</v>
-      </c>
-      <c r="D203">
-        <v>-6.177993619232902</v>
-      </c>
-      <c r="E203">
-        <v>-12.61583200175195</v>
-      </c>
-      <c r="F203">
-        <v>-0.8813617396164486</v>
-      </c>
-      <c r="G203">
-        <v>-4.925982103936189</v>
-      </c>
-      <c r="H203">
-        <v>-9.120744199127129</v>
       </c>
     </row>
     <row r="204">
@@ -9575,22 +9575,22 @@
         <v>-10.24155813407562</v>
       </c>
       <c r="C204">
+        <v>-4.211110425092556</v>
+      </c>
+      <c r="D204">
+        <v>-8.6992378178682</v>
+      </c>
+      <c r="E204">
+        <v>-2.77306499270995</v>
+      </c>
+      <c r="F204">
+        <v>-5.529459985281648</v>
+      </c>
+      <c r="G204">
+        <v>-6.185810108623091</v>
+      </c>
+      <c r="H204">
         <v>-12.30069777365401</v>
-      </c>
-      <c r="D204">
-        <v>-5.529459985281648</v>
-      </c>
-      <c r="E204">
-        <v>-6.185810108623091</v>
-      </c>
-      <c r="F204">
-        <v>-2.77306499270995</v>
-      </c>
-      <c r="G204">
-        <v>-4.211110425092556</v>
-      </c>
-      <c r="H204">
-        <v>-8.6992378178682</v>
       </c>
     </row>
     <row r="205">
@@ -9601,22 +9601,22 @@
         <v>-4.171703533336546</v>
       </c>
       <c r="C205">
+        <v>-0.1553903183224459</v>
+      </c>
+      <c r="D205">
+        <v>-2.488238660388997</v>
+      </c>
+      <c r="E205">
+        <v>1.901069129150224</v>
+      </c>
+      <c r="F205">
+        <v>1.183680584530977</v>
+      </c>
+      <c r="G205">
+        <v>12.81897460742041</v>
+      </c>
+      <c r="H205">
         <v>-11.63642086325386</v>
-      </c>
-      <c r="D205">
-        <v>1.183680584530977</v>
-      </c>
-      <c r="E205">
-        <v>12.81897460742041</v>
-      </c>
-      <c r="F205">
-        <v>1.901069129150224</v>
-      </c>
-      <c r="G205">
-        <v>-0.1553903183224459</v>
-      </c>
-      <c r="H205">
-        <v>-2.488238660388997</v>
       </c>
     </row>
     <row r="206">
@@ -9627,22 +9627,22 @@
         <v>6.354541863486274</v>
       </c>
       <c r="C206">
+        <v>6.618054979667898</v>
+      </c>
+      <c r="D206">
+        <v>9.40743423784134</v>
+      </c>
+      <c r="E206">
+        <v>5.923168743583584</v>
+      </c>
+      <c r="F206">
+        <v>9.243130920950682</v>
+      </c>
+      <c r="G206">
+        <v>35.61329871982795</v>
+      </c>
+      <c r="H206">
         <v>-5.860090064882206</v>
-      </c>
-      <c r="D206">
-        <v>9.243130920950682</v>
-      </c>
-      <c r="E206">
-        <v>35.61329871982795</v>
-      </c>
-      <c r="F206">
-        <v>5.923168743583584</v>
-      </c>
-      <c r="G206">
-        <v>6.618054979667898</v>
-      </c>
-      <c r="H206">
-        <v>9.40743423784134</v>
       </c>
     </row>
     <row r="207">
@@ -9653,22 +9653,22 @@
         <v>11.98083579627422</v>
       </c>
       <c r="C207">
+        <v>13.44216139659875</v>
+      </c>
+      <c r="D207">
+        <v>20.99853384225376</v>
+      </c>
+      <c r="E207">
+        <v>2.213722098712134</v>
+      </c>
+      <c r="F207">
+        <v>9.339571816310489</v>
+      </c>
+      <c r="G207">
+        <v>55.39401200033418</v>
+      </c>
+      <c r="H207">
         <v>0.8701385854849475</v>
-      </c>
-      <c r="D207">
-        <v>9.339571816310489</v>
-      </c>
-      <c r="E207">
-        <v>55.39401200033418</v>
-      </c>
-      <c r="F207">
-        <v>2.213722098712134</v>
-      </c>
-      <c r="G207">
-        <v>13.44216139659875</v>
-      </c>
-      <c r="H207">
-        <v>20.99853384225376</v>
       </c>
     </row>
     <row r="208">
@@ -9679,22 +9679,22 @@
         <v>11.47303359747709</v>
       </c>
       <c r="C208">
+        <v>17.71208804672633</v>
+      </c>
+      <c r="D208">
+        <v>18.90209333336696</v>
+      </c>
+      <c r="E208">
+        <v>-1.144205124322084</v>
+      </c>
+      <c r="F208">
+        <v>17.4039497848836</v>
+      </c>
+      <c r="G208">
+        <v>26.06337084941766</v>
+      </c>
+      <c r="H208">
         <v>6.956542135683752</v>
-      </c>
-      <c r="D208">
-        <v>17.4039497848836</v>
-      </c>
-      <c r="E208">
-        <v>26.06337084941766</v>
-      </c>
-      <c r="F208">
-        <v>-1.144205124322084</v>
-      </c>
-      <c r="G208">
-        <v>17.71208804672633</v>
-      </c>
-      <c r="H208">
-        <v>18.90209333336696</v>
       </c>
     </row>
     <row r="209">
@@ -9705,22 +9705,22 @@
         <v>8.442212309302622</v>
       </c>
       <c r="C209">
+        <v>17.53884763143023</v>
+      </c>
+      <c r="D209">
+        <v>7.43479676130856</v>
+      </c>
+      <c r="E209">
+        <v>0.8605033363688896</v>
+      </c>
+      <c r="F209">
+        <v>3.280450067427032</v>
+      </c>
+      <c r="G209">
+        <v>-2.01940256715456</v>
+      </c>
+      <c r="H209">
         <v>8.804371385051478</v>
-      </c>
-      <c r="D209">
-        <v>3.280450067427032</v>
-      </c>
-      <c r="E209">
-        <v>-2.01940256715456</v>
-      </c>
-      <c r="F209">
-        <v>0.8605033363688896</v>
-      </c>
-      <c r="G209">
-        <v>17.53884763143023</v>
-      </c>
-      <c r="H209">
-        <v>7.43479676130856</v>
       </c>
     </row>
     <row r="210">
@@ -9731,22 +9731,22 @@
         <v>6.587714677817913</v>
       </c>
       <c r="C210">
+        <v>12.31118039172638</v>
+      </c>
+      <c r="D210">
+        <v>1.138898111216746</v>
+      </c>
+      <c r="E210">
+        <v>9.040572543866098</v>
+      </c>
+      <c r="F210">
+        <v>-0.4504347539209141</v>
+      </c>
+      <c r="G210">
+        <v>2.047590140919908</v>
+      </c>
+      <c r="H210">
         <v>6.35689204390113</v>
-      </c>
-      <c r="D210">
-        <v>-0.4504347539209141</v>
-      </c>
-      <c r="E210">
-        <v>2.047590140919908</v>
-      </c>
-      <c r="F210">
-        <v>9.040572543866098</v>
-      </c>
-      <c r="G210">
-        <v>12.31118039172638</v>
-      </c>
-      <c r="H210">
-        <v>1.138898111216746</v>
       </c>
     </row>
     <row r="211">
@@ -9757,22 +9757,22 @@
         <v>8.779630722483445</v>
       </c>
       <c r="C211">
+        <v>6.597122018189649</v>
+      </c>
+      <c r="D211">
+        <v>1.286392208298603</v>
+      </c>
+      <c r="E211">
+        <v>18.93817366922228</v>
+      </c>
+      <c r="F211">
+        <v>5.136793112041027</v>
+      </c>
+      <c r="G211">
+        <v>8.764561283151817</v>
+      </c>
+      <c r="H211">
         <v>2.809812694163005</v>
-      </c>
-      <c r="D211">
-        <v>5.136793112041027</v>
-      </c>
-      <c r="E211">
-        <v>8.764561283151817</v>
-      </c>
-      <c r="F211">
-        <v>18.93817366922228</v>
-      </c>
-      <c r="G211">
-        <v>6.597122018189649</v>
-      </c>
-      <c r="H211">
-        <v>1.286392208298603</v>
       </c>
     </row>
     <row r="212">
@@ -9783,22 +9783,22 @@
         <v>6.207018114086149</v>
       </c>
       <c r="C212">
+        <v>-0.6169211080729542</v>
+      </c>
+      <c r="D212">
+        <v>6.916973888390543</v>
+      </c>
+      <c r="E212">
+        <v>21.32602603054994</v>
+      </c>
+      <c r="F212">
+        <v>-6.696430366833783</v>
+      </c>
+      <c r="G212">
+        <v>-3.282369300808308</v>
+      </c>
+      <c r="H212">
         <v>-2.767011748784787</v>
-      </c>
-      <c r="D212">
-        <v>-6.696430366833783</v>
-      </c>
-      <c r="E212">
-        <v>-3.282369300808308</v>
-      </c>
-      <c r="F212">
-        <v>21.32602603054994</v>
-      </c>
-      <c r="G212">
-        <v>-0.6169211080729542</v>
-      </c>
-      <c r="H212">
-        <v>6.916973888390543</v>
       </c>
     </row>
     <row r="213">
@@ -9809,22 +9809,22 @@
         <v>2.554556144377651</v>
       </c>
       <c r="C213">
+        <v>-6.401096704094833</v>
+      </c>
+      <c r="D213">
+        <v>13.97554308387483</v>
+      </c>
+      <c r="E213">
+        <v>13.51915929944729</v>
+      </c>
+      <c r="F213">
+        <v>2.017808647962704</v>
+      </c>
+      <c r="G213">
+        <v>13.83276188955904</v>
+      </c>
+      <c r="H213">
         <v>-10.33020364233538</v>
-      </c>
-      <c r="D213">
-        <v>2.017808647962704</v>
-      </c>
-      <c r="E213">
-        <v>13.83276188955904</v>
-      </c>
-      <c r="F213">
-        <v>13.51915929944729</v>
-      </c>
-      <c r="G213">
-        <v>-6.401096704094833</v>
-      </c>
-      <c r="H213">
-        <v>13.97554308387483</v>
       </c>
     </row>
     <row r="214">
@@ -9835,22 +9835,22 @@
         <v>0.9129533503388965</v>
       </c>
       <c r="C214">
+        <v>-5.628340906909878</v>
+      </c>
+      <c r="D214">
+        <v>11.36781059228178</v>
+      </c>
+      <c r="E214">
+        <v>4.888100974092735</v>
+      </c>
+      <c r="F214">
+        <v>1.012433394856793</v>
+      </c>
+      <c r="G214">
+        <v>5.918840812094639</v>
+      </c>
+      <c r="H214">
         <v>-16.18707958622044</v>
-      </c>
-      <c r="D214">
-        <v>1.012433394856793</v>
-      </c>
-      <c r="E214">
-        <v>5.918840812094639</v>
-      </c>
-      <c r="F214">
-        <v>4.888100974092735</v>
-      </c>
-      <c r="G214">
-        <v>-5.628340906909878</v>
-      </c>
-      <c r="H214">
-        <v>11.36781059228178</v>
       </c>
     </row>
     <row r="215">
@@ -9861,22 +9861,22 @@
         <v>-3.226092010317461</v>
       </c>
       <c r="C215">
+        <v>-3.689646507582345</v>
+      </c>
+      <c r="D215">
+        <v>1.92323552117204</v>
+      </c>
+      <c r="E215">
+        <v>3.368585905755506</v>
+      </c>
+      <c r="F215">
+        <v>2.298881720374957</v>
+      </c>
+      <c r="G215">
+        <v>-5.56898858968543</v>
+      </c>
+      <c r="H215">
         <v>-16.71000544775841</v>
-      </c>
-      <c r="D215">
-        <v>2.298881720374957</v>
-      </c>
-      <c r="E215">
-        <v>-5.56898858968543</v>
-      </c>
-      <c r="F215">
-        <v>3.368585905755506</v>
-      </c>
-      <c r="G215">
-        <v>-3.689646507582345</v>
-      </c>
-      <c r="H215">
-        <v>1.92323552117204</v>
       </c>
     </row>
     <row r="216">
@@ -9887,22 +9887,22 @@
         <v>-2.786988544524216</v>
       </c>
       <c r="C216">
+        <v>-0.1510085694647056</v>
+      </c>
+      <c r="D216">
+        <v>-6.302805271108724</v>
+      </c>
+      <c r="E216">
+        <v>5.520106883072806</v>
+      </c>
+      <c r="F216">
+        <v>8.813622700358369</v>
+      </c>
+      <c r="G216">
+        <v>16.12116169965001</v>
+      </c>
+      <c r="H216">
         <v>-13.5092417192793</v>
-      </c>
-      <c r="D216">
-        <v>8.813622700358369</v>
-      </c>
-      <c r="E216">
-        <v>16.12116169965001</v>
-      </c>
-      <c r="F216">
-        <v>5.520106883072806</v>
-      </c>
-      <c r="G216">
-        <v>-0.1510085694647056</v>
-      </c>
-      <c r="H216">
-        <v>-6.302805271108724</v>
       </c>
     </row>
     <row r="217">
@@ -9913,22 +9913,22 @@
         <v>-1.826144570250909</v>
       </c>
       <c r="C217">
+        <v>3.896082188836281</v>
+      </c>
+      <c r="D217">
+        <v>-9.541744980975697</v>
+      </c>
+      <c r="E217">
+        <v>4.155088477518643</v>
+      </c>
+      <c r="F217">
+        <v>1.303494543239259</v>
+      </c>
+      <c r="G217">
+        <v>0.02944614024018577</v>
+      </c>
+      <c r="H217">
         <v>-7.386197536509675</v>
-      </c>
-      <c r="D217">
-        <v>1.303494543239259</v>
-      </c>
-      <c r="E217">
-        <v>0.02944614024018577</v>
-      </c>
-      <c r="F217">
-        <v>4.155088477518643</v>
-      </c>
-      <c r="G217">
-        <v>3.896082188836281</v>
-      </c>
-      <c r="H217">
-        <v>-9.541744980975697</v>
       </c>
     </row>
     <row r="218">
@@ -9939,22 +9939,22 @@
         <v>-4.572488260175211</v>
       </c>
       <c r="C218">
+        <v>2.760382730423427</v>
+      </c>
+      <c r="D218">
+        <v>-5.281978422421374</v>
+      </c>
+      <c r="E218">
+        <v>-2.15753530562337</v>
+      </c>
+      <c r="F218">
+        <v>-0.998997860392048</v>
+      </c>
+      <c r="G218">
+        <v>5.493238872473438</v>
+      </c>
+      <c r="H218">
         <v>0.8780916207222322</v>
-      </c>
-      <c r="D218">
-        <v>-0.998997860392048</v>
-      </c>
-      <c r="E218">
-        <v>5.493238872473438</v>
-      </c>
-      <c r="F218">
-        <v>-2.15753530562337</v>
-      </c>
-      <c r="G218">
-        <v>2.760382730423427</v>
-      </c>
-      <c r="H218">
-        <v>-5.281978422421374</v>
       </c>
     </row>
     <row r="219">
@@ -9965,22 +9965,22 @@
         <v>-3.521706442506056</v>
       </c>
       <c r="C219">
+        <v>1.761655282073482</v>
+      </c>
+      <c r="D219">
+        <v>2.700171813890484</v>
+      </c>
+      <c r="E219">
+        <v>-6.617578833215587</v>
+      </c>
+      <c r="F219">
+        <v>-8.139035562412655</v>
+      </c>
+      <c r="G219">
+        <v>-0.4687243029290689</v>
+      </c>
+      <c r="H219">
         <v>3.429121255544465</v>
-      </c>
-      <c r="D219">
-        <v>-8.139035562412655</v>
-      </c>
-      <c r="E219">
-        <v>-0.4687243029290689</v>
-      </c>
-      <c r="F219">
-        <v>-6.617578833215587</v>
-      </c>
-      <c r="G219">
-        <v>1.761655282073482</v>
-      </c>
-      <c r="H219">
-        <v>2.700171813890484</v>
       </c>
     </row>
     <row r="220">
@@ -9991,22 +9991,22 @@
         <v>-0.2105609227050609</v>
       </c>
       <c r="C220">
+        <v>1.876157573882442</v>
+      </c>
+      <c r="D220">
+        <v>6.580954431298203</v>
+      </c>
+      <c r="E220">
+        <v>-4.962253170158304</v>
+      </c>
+      <c r="F220">
+        <v>-2.873693376705899</v>
+      </c>
+      <c r="G220">
+        <v>-4.461340219438881</v>
+      </c>
+      <c r="H220">
         <v>3.551471866239697</v>
-      </c>
-      <c r="D220">
-        <v>-2.873693376705899</v>
-      </c>
-      <c r="E220">
-        <v>-4.461340219438881</v>
-      </c>
-      <c r="F220">
-        <v>-4.962253170158304</v>
-      </c>
-      <c r="G220">
-        <v>1.876157573882442</v>
-      </c>
-      <c r="H220">
-        <v>6.580954431298203</v>
       </c>
     </row>
     <row r="221">
@@ -10017,22 +10017,22 @@
         <v>2.485822589655351</v>
       </c>
       <c r="C221">
+        <v>1.778186324154762</v>
+      </c>
+      <c r="D221">
+        <v>5.72019182542356</v>
+      </c>
+      <c r="E221">
+        <v>-0.6024147780753775</v>
+      </c>
+      <c r="F221">
+        <v>-0.02213340689646293</v>
+      </c>
+      <c r="G221">
+        <v>0.8161947386139845</v>
+      </c>
+      <c r="H221">
         <v>9.335837935234427</v>
-      </c>
-      <c r="D221">
-        <v>-0.02213340689646293</v>
-      </c>
-      <c r="E221">
-        <v>0.8161947386139845</v>
-      </c>
-      <c r="F221">
-        <v>-0.6024147780753775</v>
-      </c>
-      <c r="G221">
-        <v>1.778186324154762</v>
-      </c>
-      <c r="H221">
-        <v>5.72019182542356</v>
       </c>
     </row>
     <row r="222">
@@ -10043,22 +10043,22 @@
         <v>5.757373895784057</v>
       </c>
       <c r="C222">
+        <v>0.4582106621557447</v>
+      </c>
+      <c r="D222">
+        <v>6.309875836142753</v>
+      </c>
+      <c r="E222">
+        <v>2.816571255117517</v>
+      </c>
+      <c r="F222">
+        <v>-0.6219683327162939</v>
+      </c>
+      <c r="G222">
+        <v>-8.968352425871839</v>
+      </c>
+      <c r="H222">
         <v>15.68223847994896</v>
-      </c>
-      <c r="D222">
-        <v>-0.6219683327162939</v>
-      </c>
-      <c r="E222">
-        <v>-8.968352425871839</v>
-      </c>
-      <c r="F222">
-        <v>2.816571255117517</v>
-      </c>
-      <c r="G222">
-        <v>0.4582106621557447</v>
-      </c>
-      <c r="H222">
-        <v>6.309875836142753</v>
       </c>
     </row>
     <row r="223">
@@ -10069,22 +10069,22 @@
         <v>6.737988813562978</v>
       </c>
       <c r="C223">
+        <v>-2.287010667709255</v>
+      </c>
+      <c r="D223">
+        <v>8.409299595922759</v>
+      </c>
+      <c r="E223">
+        <v>2.311283978245937</v>
+      </c>
+      <c r="F223">
+        <v>6.847277221723824</v>
+      </c>
+      <c r="G223">
+        <v>-13.63343955518664</v>
+      </c>
+      <c r="H223">
         <v>18.72147936245005</v>
-      </c>
-      <c r="D223">
-        <v>6.847277221723824</v>
-      </c>
-      <c r="E223">
-        <v>-13.63343955518664</v>
-      </c>
-      <c r="F223">
-        <v>2.311283978245937</v>
-      </c>
-      <c r="G223">
-        <v>-2.287010667709255</v>
-      </c>
-      <c r="H223">
-        <v>8.409299595922759</v>
       </c>
     </row>
     <row r="224">
@@ -10100,4 +10100,237 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C5B9F2161CEE1040BBC03CB11300495F" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="126bfeb7ae601119bfc9c37fe78f3e1b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5dd4176-d247-4204-85b8-921214f3ccea" xmlns:ns3="359b39ce-e1f9-4933-8424-33b611e6fdcd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2137ec74e9b380cd6ab08453deebfc43" ns2:_="" ns3:_="">
+    <xsd:import namespace="b5dd4176-d247-4204-85b8-921214f3ccea"/>
+    <xsd:import namespace="359b39ce-e1f9-4933-8424-33b611e6fdcd"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b5dd4176-d247-4204-85b8-921214f3ccea" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="01529062-7a8b-4d76-943d-e0db5644ee6d" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="359b39ce-e1f9-4933-8424-33b611e6fdcd" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c9b73259-0823-4f05-8927-4a40ee49fbe1}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="359b39ce-e1f9-4933-8424-33b611e6fdcd">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5dd4176-d247-4204-85b8-921214f3ccea">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="359b39ce-e1f9-4933-8424-33b611e6fdcd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3596334-5027-4153-99BA-BF1B46FB0AED}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F061E3E8-B1F5-4477-907E-6E159FFE97BF}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEE73C80-6EAA-4A98-860C-D4A4B84B9616}"/>
 </file>
--- a/web_ces/Paneles/global_trimestral/input/DF_paneles.xlsx
+++ b/web_ces/Paneles/global_trimestral/input/DF_paneles.xlsx
@@ -10100,237 +10100,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C5B9F2161CEE1040BBC03CB11300495F" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="126bfeb7ae601119bfc9c37fe78f3e1b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5dd4176-d247-4204-85b8-921214f3ccea" xmlns:ns3="359b39ce-e1f9-4933-8424-33b611e6fdcd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2137ec74e9b380cd6ab08453deebfc43" ns2:_="" ns3:_="">
-    <xsd:import namespace="b5dd4176-d247-4204-85b8-921214f3ccea"/>
-    <xsd:import namespace="359b39ce-e1f9-4933-8424-33b611e6fdcd"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b5dd4176-d247-4204-85b8-921214f3ccea" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="01529062-7a8b-4d76-943d-e0db5644ee6d" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="359b39ce-e1f9-4933-8424-33b611e6fdcd" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c9b73259-0823-4f05-8927-4a40ee49fbe1}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="359b39ce-e1f9-4933-8424-33b611e6fdcd">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5dd4176-d247-4204-85b8-921214f3ccea">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="359b39ce-e1f9-4933-8424-33b611e6fdcd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3596334-5027-4153-99BA-BF1B46FB0AED}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F061E3E8-B1F5-4477-907E-6E159FFE97BF}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEE73C80-6EAA-4A98-860C-D4A4B84B9616}"/>
 </file>
--- a/web_ces/Paneles/global_trimestral/input/DF_paneles.xlsx
+++ b/web_ces/Paneles/global_trimestral/input/DF_paneles.xlsx
@@ -10100,4 +10100,237 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C5B9F2161CEE1040BBC03CB11300495F" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="126bfeb7ae601119bfc9c37fe78f3e1b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5dd4176-d247-4204-85b8-921214f3ccea" xmlns:ns3="359b39ce-e1f9-4933-8424-33b611e6fdcd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2137ec74e9b380cd6ab08453deebfc43" ns2:_="" ns3:_="">
+    <xsd:import namespace="b5dd4176-d247-4204-85b8-921214f3ccea"/>
+    <xsd:import namespace="359b39ce-e1f9-4933-8424-33b611e6fdcd"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b5dd4176-d247-4204-85b8-921214f3ccea" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="01529062-7a8b-4d76-943d-e0db5644ee6d" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="359b39ce-e1f9-4933-8424-33b611e6fdcd" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c9b73259-0823-4f05-8927-4a40ee49fbe1}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="359b39ce-e1f9-4933-8424-33b611e6fdcd">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5dd4176-d247-4204-85b8-921214f3ccea">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="359b39ce-e1f9-4933-8424-33b611e6fdcd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF87AADD-63A2-4C16-99BC-6D928D893E3D}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3349BC72-77D7-4A06-A899-53E5D9576E41}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAD76F95-0B08-4B92-BA2D-711477DFF8F6}"/>
 </file>
--- a/web_ces/Paneles/global_trimestral/input/DF_paneles.xlsx
+++ b/web_ces/Paneles/global_trimestral/input/DF_paneles.xlsx
@@ -10100,237 +10100,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C5B9F2161CEE1040BBC03CB11300495F" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="126bfeb7ae601119bfc9c37fe78f3e1b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5dd4176-d247-4204-85b8-921214f3ccea" xmlns:ns3="359b39ce-e1f9-4933-8424-33b611e6fdcd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2137ec74e9b380cd6ab08453deebfc43" ns2:_="" ns3:_="">
-    <xsd:import namespace="b5dd4176-d247-4204-85b8-921214f3ccea"/>
-    <xsd:import namespace="359b39ce-e1f9-4933-8424-33b611e6fdcd"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b5dd4176-d247-4204-85b8-921214f3ccea" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="01529062-7a8b-4d76-943d-e0db5644ee6d" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="359b39ce-e1f9-4933-8424-33b611e6fdcd" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c9b73259-0823-4f05-8927-4a40ee49fbe1}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="359b39ce-e1f9-4933-8424-33b611e6fdcd">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5dd4176-d247-4204-85b8-921214f3ccea">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="359b39ce-e1f9-4933-8424-33b611e6fdcd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF87AADD-63A2-4C16-99BC-6D928D893E3D}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3349BC72-77D7-4A06-A899-53E5D9576E41}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAD76F95-0B08-4B92-BA2D-711477DFF8F6}"/>
 </file>
--- a/web_ces/Paneles/global_trimestral/input/DF_paneles.xlsx
+++ b/web_ces/Paneles/global_trimestral/input/DF_paneles.xlsx
@@ -10100,4 +10100,237 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C5B9F2161CEE1040BBC03CB11300495F" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="126bfeb7ae601119bfc9c37fe78f3e1b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5dd4176-d247-4204-85b8-921214f3ccea" xmlns:ns3="359b39ce-e1f9-4933-8424-33b611e6fdcd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2137ec74e9b380cd6ab08453deebfc43" ns2:_="" ns3:_="">
+    <xsd:import namespace="b5dd4176-d247-4204-85b8-921214f3ccea"/>
+    <xsd:import namespace="359b39ce-e1f9-4933-8424-33b611e6fdcd"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b5dd4176-d247-4204-85b8-921214f3ccea" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="01529062-7a8b-4d76-943d-e0db5644ee6d" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="359b39ce-e1f9-4933-8424-33b611e6fdcd" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c9b73259-0823-4f05-8927-4a40ee49fbe1}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="359b39ce-e1f9-4933-8424-33b611e6fdcd">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5dd4176-d247-4204-85b8-921214f3ccea">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="359b39ce-e1f9-4933-8424-33b611e6fdcd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A99114EC-DE04-49B8-8D70-C1912A4FBEBF}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF77F015-1929-4BF9-A669-CF0D7025AA08}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7E95E99-30D9-4502-9D9D-32361714D667}"/>
 </file>
--- a/web_ces/Paneles/global_trimestral/input/DF_paneles.xlsx
+++ b/web_ces/Paneles/global_trimestral/input/DF_paneles.xlsx
@@ -1381,7 +1381,7 @@
         <v>36617</v>
       </c>
       <c r="B123">
-        <v>495004.884416536</v>
+        <v>495004.884416534</v>
       </c>
     </row>
     <row r="124">
@@ -1397,7 +1397,7 @@
         <v>36800</v>
       </c>
       <c r="B125">
-        <v>497029.796576022</v>
+        <v>497029.796576029</v>
       </c>
     </row>
     <row r="126">
@@ -1405,7 +1405,7 @@
         <v>36892</v>
       </c>
       <c r="B126">
-        <v>496425.46822472</v>
+        <v>496425.468224716</v>
       </c>
     </row>
     <row r="127">
@@ -1413,7 +1413,7 @@
         <v>36982</v>
       </c>
       <c r="B127">
-        <v>491587.062858527</v>
+        <v>491587.062858516</v>
       </c>
     </row>
     <row r="128">
@@ -1421,7 +1421,7 @@
         <v>37073</v>
       </c>
       <c r="B128">
-        <v>470868.305527373</v>
+        <v>470868.305527377</v>
       </c>
     </row>
     <row r="129">
@@ -1429,7 +1429,7 @@
         <v>37165</v>
       </c>
       <c r="B129">
-        <v>445852.447872836</v>
+        <v>445852.447872867</v>
       </c>
     </row>
     <row r="130">
@@ -1437,7 +1437,7 @@
         <v>37257</v>
       </c>
       <c r="B130">
-        <v>424257.644076161</v>
+        <v>424257.644076143</v>
       </c>
     </row>
     <row r="131">
@@ -1445,7 +1445,7 @@
         <v>37347</v>
       </c>
       <c r="B131">
-        <v>419200.025924342</v>
+        <v>419200.025924307</v>
       </c>
     </row>
     <row r="132">
@@ -1453,7 +1453,7 @@
         <v>37438</v>
       </c>
       <c r="B132">
-        <v>425268.865857956</v>
+        <v>425268.865857971</v>
       </c>
     </row>
     <row r="133">
@@ -1461,7 +1461,7 @@
         <v>37530</v>
       </c>
       <c r="B133">
-        <v>433921.980986838</v>
+        <v>433921.98098691</v>
       </c>
     </row>
     <row r="134">
@@ -1469,7 +1469,7 @@
         <v>37622</v>
       </c>
       <c r="B134">
-        <v>440611.641640808</v>
+        <v>440611.641640823</v>
       </c>
     </row>
     <row r="135">
@@ -1477,7 +1477,7 @@
         <v>37712</v>
       </c>
       <c r="B135">
-        <v>448785.874237119</v>
+        <v>448785.874236871</v>
       </c>
     </row>
     <row r="136">
@@ -1485,7 +1485,7 @@
         <v>37803</v>
       </c>
       <c r="B136">
-        <v>471279.481076219</v>
+        <v>471279.481076438</v>
       </c>
     </row>
     <row r="137">
@@ -1493,7 +1493,7 @@
         <v>37895</v>
       </c>
       <c r="B137">
-        <v>489389.038898431</v>
+        <v>489389.038898445</v>
       </c>
     </row>
     <row r="138">
@@ -1501,7 +1501,7 @@
         <v>37987</v>
       </c>
       <c r="B138">
-        <v>486756.288670139</v>
+        <v>486756.28867032</v>
       </c>
       <c r="C138">
         <v>189.893019136992</v>
@@ -1518,7 +1518,7 @@
         <v>38078</v>
       </c>
       <c r="B139">
-        <v>478425.42471922</v>
+        <v>478425.424719264</v>
       </c>
       <c r="C139">
         <v>193.955403076506</v>
@@ -1535,7 +1535,7 @@
         <v>38169</v>
       </c>
       <c r="B140">
-        <v>484354.845989316</v>
+        <v>484354.845988484</v>
       </c>
       <c r="C140">
         <v>198.559789415938</v>
@@ -1552,7 +1552,7 @@
         <v>38261</v>
       </c>
       <c r="B141">
-        <v>494926.283218891</v>
+        <v>494926.283216486</v>
       </c>
       <c r="C141">
         <v>199.133694013835</v>
@@ -1569,7 +1569,7 @@
         <v>38353</v>
       </c>
       <c r="B142">
-        <v>518512.745500018</v>
+        <v>518512.745506591</v>
       </c>
       <c r="C142">
         <v>202.994220648372</v>
@@ -1586,7 +1586,7 @@
         <v>38443</v>
       </c>
       <c r="B143">
-        <v>533429.024793644</v>
+        <v>533429.024796907</v>
       </c>
       <c r="C143">
         <v>212.454886762193</v>
@@ -1603,7 +1603,7 @@
         <v>38534</v>
       </c>
       <c r="B144">
-        <v>527363.202644246</v>
+        <v>527363.202630966</v>
       </c>
       <c r="C144">
         <v>221.287717162365</v>
@@ -1620,7 +1620,7 @@
         <v>38626</v>
       </c>
       <c r="B145">
-        <v>535686.312732418</v>
+        <v>535686.312722413</v>
       </c>
       <c r="C145">
         <v>228.937994908781</v>
@@ -1637,7 +1637,7 @@
         <v>38718</v>
       </c>
       <c r="B146">
-        <v>557628.523922661</v>
+        <v>557628.523954013</v>
       </c>
       <c r="C146">
         <v>235.172940617372</v>
@@ -1654,7 +1654,7 @@
         <v>38808</v>
       </c>
       <c r="B147">
-        <v>564423.7972888499</v>
+        <v>564423.797294381</v>
       </c>
       <c r="C147">
         <v>240.776474988123</v>
@@ -1671,7 +1671,7 @@
         <v>38899</v>
       </c>
       <c r="B148">
-        <v>572994.484012327</v>
+        <v>572994.4839706169</v>
       </c>
       <c r="C148">
         <v>250.741102935807</v>
@@ -1688,7 +1688,7 @@
         <v>38991</v>
       </c>
       <c r="B149">
-        <v>587500.962444731</v>
+        <v>587500.9624074301</v>
       </c>
       <c r="C149">
         <v>264.13933584906</v>
@@ -1705,7 +1705,7 @@
         <v>39083</v>
       </c>
       <c r="B150">
-        <v>604350.836535187</v>
+        <v>604350.836630969</v>
       </c>
       <c r="C150">
         <v>271.039573457996</v>
@@ -1731,7 +1731,7 @@
         <v>39173</v>
       </c>
       <c r="B151">
-        <v>621320.584218415</v>
+        <v>621320.584365549</v>
       </c>
       <c r="C151">
         <v>272.020292801928</v>
@@ -1757,7 +1757,7 @@
         <v>39264</v>
       </c>
       <c r="B152">
-        <v>620705.402559893</v>
+        <v>620705.4021628191</v>
       </c>
       <c r="C152">
         <v>277.238501791449</v>
@@ -1783,7 +1783,7 @@
         <v>39356</v>
       </c>
       <c r="B153">
-        <v>640163.551931664</v>
+        <v>640163.5519535129</v>
       </c>
       <c r="C153">
         <v>283.322935911223</v>
@@ -1809,7 +1809,7 @@
         <v>39448</v>
       </c>
       <c r="B154">
-        <v>647511.571602066</v>
+        <v>647511.572007653</v>
       </c>
       <c r="C154">
         <v>286.924728337009</v>
@@ -1835,7 +1835,7 @@
         <v>39539</v>
       </c>
       <c r="B155">
-        <v>656783.65719026</v>
+        <v>656783.657528617</v>
       </c>
       <c r="C155">
         <v>292.018013193259</v>
@@ -1861,7 +1861,7 @@
         <v>39630</v>
       </c>
       <c r="B156">
-        <v>655185.264315897</v>
+        <v>655185.263083306</v>
       </c>
       <c r="C156">
         <v>295.385453954293</v>
@@ -1887,7 +1887,7 @@
         <v>39722</v>
       </c>
       <c r="B157">
-        <v>628102.34149148</v>
+        <v>628102.3416506069</v>
       </c>
       <c r="C157">
         <v>292.844610458544</v>
@@ -1913,7 +1913,7 @@
         <v>39814</v>
       </c>
       <c r="B158">
-        <v>611861.456170615</v>
+        <v>611861.4572936289</v>
       </c>
       <c r="C158">
         <v>288.625962924301</v>
@@ -1939,7 +1939,7 @@
         <v>39904</v>
       </c>
       <c r="B159">
-        <v>600012.417211298</v>
+        <v>600012.417984769</v>
       </c>
       <c r="C159">
         <v>286.746718352028</v>
@@ -1965,7 +1965,7 @@
         <v>39995</v>
       </c>
       <c r="B160">
-        <v>611185.4847086139</v>
+        <v>611185.484875494</v>
       </c>
       <c r="C160">
         <v>283.515035796902</v>
@@ -1991,7 +1991,7 @@
         <v>40087</v>
       </c>
       <c r="B161">
-        <v>629321.3163703959</v>
+        <v>629321.3142874771</v>
       </c>
       <c r="C161">
         <v>282.582498583486</v>
@@ -2017,7 +2017,7 @@
         <v>40179</v>
       </c>
       <c r="B162">
-        <v>646923.395711799</v>
+        <v>646923.40274078</v>
       </c>
       <c r="C162">
         <v>288.162359666875</v>
@@ -2043,7 +2043,7 @@
         <v>40269</v>
       </c>
       <c r="B163">
-        <v>674259.720229451</v>
+        <v>674259.720502361</v>
       </c>
       <c r="C163">
         <v>294.451735922864</v>
@@ -2069,7 +2069,7 @@
         <v>40360</v>
       </c>
       <c r="B164">
-        <v>674453.500946668</v>
+        <v>674453.4931644599</v>
       </c>
       <c r="C164">
         <v>297.855075171018</v>
@@ -2095,7 +2095,7 @@
         <v>40452</v>
       </c>
       <c r="B165">
-        <v>681549.974219844</v>
+        <v>681549.969081769</v>
       </c>
       <c r="C165">
         <v>300.393157122976</v>
@@ -2121,7 +2121,7 @@
         <v>40544</v>
       </c>
       <c r="B166">
-        <v>698616.659535502</v>
+        <v>698616.679696331</v>
       </c>
       <c r="C166">
         <v>305.101143263589</v>
@@ -2147,7 +2147,7 @@
         <v>40634</v>
       </c>
       <c r="B167">
-        <v>711708.806816706</v>
+        <v>711708.808490338</v>
       </c>
       <c r="C167">
         <v>308.219293319939</v>
@@ -2173,7 +2173,7 @@
         <v>40725</v>
       </c>
       <c r="B168">
-        <v>716692.870434558</v>
+        <v>716692.843817329</v>
       </c>
       <c r="C168">
         <v>309.901434865151</v>
@@ -2199,7 +2199,7 @@
         <v>40817</v>
       </c>
       <c r="B169">
-        <v>714948.496797962</v>
+        <v>714948.488109337</v>
       </c>
       <c r="C169">
         <v>312.508492058945</v>
@@ -2225,7 +2225,7 @@
         <v>40909</v>
       </c>
       <c r="B170">
-        <v>709886.655434077</v>
+        <v>709886.663286911</v>
       </c>
       <c r="C170">
         <v>312.796061765227</v>
@@ -2251,7 +2251,7 @@
         <v>41000</v>
       </c>
       <c r="B171">
-        <v>701246.373967591</v>
+        <v>701246.370049731</v>
       </c>
       <c r="C171">
         <v>314.857578245159</v>
@@ -2277,7 +2277,7 @@
         <v>41091</v>
       </c>
       <c r="B172">
-        <v>708119.32777939</v>
+        <v>708119.275846552</v>
       </c>
       <c r="C172">
         <v>323.315275868948</v>
@@ -2303,7 +2303,7 @@
         <v>41183</v>
       </c>
       <c r="B173">
-        <v>718422.919670273</v>
+        <v>718422.846887617</v>
       </c>
       <c r="C173">
         <v>329.732317868202</v>
@@ -2329,7 +2329,7 @@
         <v>41275</v>
       </c>
       <c r="B174">
-        <v>715256.029032939</v>
+        <v>715256.203557977</v>
       </c>
       <c r="C174">
         <v>327.023234539354</v>
@@ -2355,7 +2355,7 @@
         <v>41365</v>
       </c>
       <c r="B175">
-        <v>722085.891947709</v>
+        <v>722085.858874657</v>
       </c>
       <c r="C175">
         <v>321.71199961904</v>
@@ -2381,7 +2381,7 @@
         <v>41456</v>
       </c>
       <c r="B176">
-        <v>725965.925518658</v>
+        <v>725965.845637177</v>
       </c>
       <c r="C176">
         <v>320.088174827473</v>
@@ -2407,7 +2407,7 @@
         <v>41548</v>
       </c>
       <c r="B177">
-        <v>718947.9726696711</v>
+        <v>718947.844352816</v>
       </c>
       <c r="C177">
         <v>326.344141527457</v>
@@ -2433,7 +2433,7 @@
         <v>41640</v>
       </c>
       <c r="B178">
-        <v>708731.990693028</v>
+        <v>708732.2925000919</v>
       </c>
       <c r="C178">
         <v>340.834656357123</v>
@@ -2459,7 +2459,7 @@
         <v>41730</v>
       </c>
       <c r="B179">
-        <v>704955.381216072</v>
+        <v>704955.298531755</v>
       </c>
       <c r="C179">
         <v>350.7056550844</v>
@@ -2485,7 +2485,7 @@
         <v>41821</v>
       </c>
       <c r="B180">
-        <v>696621.976996852</v>
+        <v>696621.877304511</v>
       </c>
       <c r="C180">
         <v>347.325483953641</v>
@@ -2511,7 +2511,7 @@
         <v>41913</v>
       </c>
       <c r="B181">
-        <v>700196.353049362</v>
+        <v>700196.164114941</v>
       </c>
       <c r="C181">
         <v>343.465356254343</v>
@@ -2537,7 +2537,7 @@
         <v>42005</v>
       </c>
       <c r="B182">
-        <v>713049.9749922639</v>
+        <v>713047.970930157</v>
       </c>
       <c r="C182">
         <v>350.934200249855</v>
@@ -2563,7 +2563,7 @@
         <v>42095</v>
       </c>
       <c r="B183">
-        <v>723337.881674641</v>
+        <v>723337.204341816</v>
       </c>
       <c r="C183">
         <v>356.415460529794</v>
@@ -2589,7 +2589,7 @@
         <v>42186</v>
       </c>
       <c r="B184">
-        <v>725728.363869571</v>
+        <v>725727.972634828</v>
       </c>
       <c r="C184">
         <v>350.518002034241</v>
@@ -2615,7 +2615,7 @@
         <v>42278</v>
       </c>
       <c r="B185">
-        <v>717642.200476464</v>
+        <v>717642.257969926</v>
       </c>
       <c r="C185">
         <v>344.263985919549</v>
@@ -2641,7 +2641,7 @@
         <v>42370</v>
       </c>
       <c r="B186">
-        <v>710077.3197393341</v>
+        <v>710078.1063833541</v>
       </c>
       <c r="C186">
         <v>336.042319037731</v>
@@ -2667,7 +2667,7 @@
         <v>42461</v>
       </c>
       <c r="B187">
-        <v>707251.450847102</v>
+        <v>707251.193400725</v>
       </c>
       <c r="C187">
         <v>323.744816281688</v>
@@ -2693,7 +2693,7 @@
         <v>42552</v>
       </c>
       <c r="B188">
-        <v>702626.034003382</v>
+        <v>702624.605382216</v>
       </c>
       <c r="C188">
         <v>322.139343265685</v>
@@ -2719,7 +2719,7 @@
         <v>42644</v>
       </c>
       <c r="B189">
-        <v>706410.4804120919</v>
+        <v>706411.390000167</v>
       </c>
       <c r="C189">
         <v>324.434925600605</v>
@@ -2745,7 +2745,7 @@
         <v>42736</v>
       </c>
       <c r="B190">
-        <v>710959.8435629969</v>
+        <v>710961.500410893</v>
       </c>
       <c r="C190">
         <v>314.089895905874</v>
@@ -2771,7 +2771,7 @@
         <v>42826</v>
       </c>
       <c r="B191">
-        <v>728469.542731865</v>
+        <v>728468.988674912</v>
       </c>
       <c r="C191">
         <v>305.663529478081</v>
@@ -2797,7 +2797,7 @@
         <v>42917</v>
       </c>
       <c r="B192">
-        <v>729973.005266218</v>
+        <v>729969.575873518</v>
       </c>
       <c r="C192">
         <v>312.635630508297</v>
@@ -2823,7 +2823,7 @@
         <v>43009</v>
       </c>
       <c r="B193">
-        <v>735799.597076848</v>
+        <v>735797.957875601</v>
       </c>
       <c r="C193">
         <v>319.01525317118</v>
@@ -2849,7 +2849,7 @@
         <v>43101</v>
       </c>
       <c r="B194">
-        <v>734013.763179536</v>
+        <v>734026.84932093</v>
       </c>
       <c r="C194">
         <v>317.697980949052</v>
@@ -2875,7 +2875,7 @@
         <v>43191</v>
       </c>
       <c r="B195">
-        <v>702753.762158665</v>
+        <v>702748.636350124</v>
       </c>
       <c r="C195">
         <v>319.138615800475</v>
@@ -2901,7 +2901,7 @@
         <v>43282</v>
       </c>
       <c r="B196">
-        <v>704327.123541354</v>
+        <v>704313.852217745</v>
       </c>
       <c r="C196">
         <v>312.669742971183</v>
@@ -2927,7 +2927,7 @@
         <v>43374</v>
       </c>
       <c r="B197">
-        <v>687625.512381659</v>
+        <v>687618.714776894</v>
       </c>
       <c r="C197">
         <v>294.942753645792</v>
@@ -2953,7 +2953,7 @@
         <v>43466</v>
       </c>
       <c r="B198">
-        <v>691473.967202635</v>
+        <v>691513.297529099</v>
       </c>
       <c r="C198">
         <v>289.423502579045</v>
@@ -2979,7 +2979,7 @@
         <v>43556</v>
       </c>
       <c r="B199">
-        <v>709920.8608871381</v>
+        <v>709920.5806747261</v>
       </c>
       <c r="C199">
         <v>293.184351501129</v>
@@ -3005,7 +3005,7 @@
         <v>43647</v>
       </c>
       <c r="B200">
-        <v>692704.682898948</v>
+        <v>692652.7494384981</v>
       </c>
       <c r="C200">
         <v>292.072712680828</v>
@@ -3031,7 +3031,7 @@
         <v>43739</v>
       </c>
       <c r="B201">
-        <v>678110.282702437</v>
+        <v>678094.223353247</v>
       </c>
       <c r="C201">
         <v>289.027663488048</v>
@@ -3057,7 +3057,7 @@
         <v>43831</v>
       </c>
       <c r="B202">
-        <v>636415.811380394</v>
+        <v>636454.7497215091</v>
       </c>
       <c r="C202">
         <v>283.898157780291</v>
@@ -3083,7 +3083,7 @@
         <v>43922</v>
       </c>
       <c r="B203">
-        <v>611572.910995807</v>
+        <v>611620.7201199461</v>
       </c>
       <c r="C203">
         <v>278.742142814642</v>
@@ -3109,7 +3109,7 @@
         <v>44013</v>
       </c>
       <c r="B204">
-        <v>621760.930102388</v>
+        <v>621663.086153583</v>
       </c>
       <c r="C204">
         <v>279.773208228275</v>
@@ -3135,7 +3135,7 @@
         <v>44105</v>
       </c>
       <c r="B205">
-        <v>649821.532079021</v>
+        <v>649643.15760734</v>
       </c>
       <c r="C205">
         <v>288.578542481714</v>
@@ -3161,7 +3161,7 @@
         <v>44197</v>
       </c>
       <c r="B206">
-        <v>676857.120540407</v>
+        <v>677236.63131827</v>
       </c>
       <c r="C206">
         <v>302.686693948455</v>
@@ -3187,7 +3187,7 @@
         <v>44287</v>
       </c>
       <c r="B207">
-        <v>684844.457236709</v>
+        <v>684764.787040495</v>
       </c>
       <c r="C207">
         <v>316.211111532124</v>
@@ -3213,7 +3213,7 @@
         <v>44378</v>
       </c>
       <c r="B208">
-        <v>693095.770509021</v>
+        <v>692986.8406457281</v>
       </c>
       <c r="C208">
         <v>329.326885200818</v>
@@ -3239,7 +3239,7 @@
         <v>44470</v>
       </c>
       <c r="B209">
-        <v>704680.845448695</v>
+        <v>704321.6656675281</v>
       </c>
       <c r="C209">
         <v>339.191893344584</v>
@@ -3265,7 +3265,7 @@
         <v>44562</v>
       </c>
       <c r="B210">
-        <v>721446.536418103</v>
+        <v>722121.266143609</v>
       </c>
       <c r="C210">
         <v>339.950998862202</v>
@@ -3291,7 +3291,7 @@
         <v>44652</v>
       </c>
       <c r="B211">
-        <v>744971.271605488</v>
+        <v>744773.66071154</v>
       </c>
       <c r="C211">
         <v>337.071944394972</v>
@@ -3317,7 +3317,7 @@
         <v>44743</v>
       </c>
       <c r="B212">
-        <v>736116.350532481</v>
+        <v>736036.0666005909</v>
       </c>
       <c r="C212">
         <v>327.295198131455</v>
@@ -3343,7 +3343,7 @@
         <v>44835</v>
       </c>
       <c r="B213">
-        <v>722682.313284357</v>
+        <v>722141.192043945</v>
       </c>
       <c r="C213">
         <v>317.479892239147</v>
@@ -3369,7 +3369,7 @@
         <v>44927</v>
       </c>
       <c r="B214">
-        <v>728033.006743236</v>
+        <v>723656.571741228</v>
       </c>
       <c r="C214">
         <v>320.817397729792</v>
@@ -3395,7 +3395,7 @@
         <v>45017</v>
       </c>
       <c r="B215">
-        <v>720937.812933063</v>
+        <v>718843.746122845</v>
       </c>
       <c r="C215">
         <v>324.635181170563</v>
@@ -3421,7 +3421,7 @@
         <v>45108</v>
       </c>
       <c r="B216">
-        <v>715600.872168771</v>
+        <v>714697.4114862659</v>
       </c>
       <c r="C216">
         <v>326.80095433483</v>
@@ -3447,7 +3447,7 @@
         <v>45200</v>
       </c>
       <c r="B217">
-        <v>709485.089460151</v>
+        <v>709098.621870624</v>
       </c>
       <c r="C217">
         <v>329.849169773813</v>
@@ -3473,7 +3473,7 @@
         <v>45292</v>
       </c>
       <c r="B218">
-        <v>694743.7829797009</v>
+        <v>695437.223225022</v>
       </c>
       <c r="C218">
         <v>329.673185772919</v>
@@ -3499,7 +3499,7 @@
         <v>45383</v>
       </c>
       <c r="B219">
-        <v>695548.499528537</v>
+        <v>695275.3287403811</v>
       </c>
       <c r="C219">
         <v>330.354133987123</v>
@@ -3525,7 +3525,7 @@
         <v>45474</v>
       </c>
       <c r="B220">
-        <v>714094.096369447</v>
+        <v>714021.332474257</v>
       </c>
       <c r="C220">
         <v>332.932255191103</v>
@@ -3551,7 +3551,7 @@
         <v>45566</v>
       </c>
       <c r="B221">
-        <v>727121.630084188</v>
+        <v>726943.904959862</v>
       </c>
       <c r="C221">
         <v>335.714502601069</v>
@@ -3577,7 +3577,7 @@
         <v>45658</v>
       </c>
       <c r="B222">
-        <v>734742.780183557</v>
+        <v>735155.8717923349</v>
       </c>
       <c r="C222">
         <v>331.183783460399</v>
@@ -3603,7 +3603,7 @@
         <v>45748</v>
       </c>
       <c r="B223">
-        <v>742414.479619675</v>
+        <v>742728.137340707</v>
       </c>
       <c r="C223">
         <v>322.798899701619</v>
@@ -3627,6 +3627,9 @@
     <row r="224">
       <c r="A224" s="2">
         <v>45839</v>
+      </c>
+      <c r="B224">
+        <v>736786.087496091</v>
       </c>
     </row>
     <row r="225">
@@ -4662,7 +4665,7 @@
         <v>36617</v>
       </c>
       <c r="B123">
-        <v>-1.951321405003337</v>
+        <v>-1.951321405003736</v>
       </c>
     </row>
     <row r="124">
@@ -4670,7 +4673,7 @@
         <v>36708</v>
       </c>
       <c r="B124">
-        <v>-0.00165001904933737</v>
+        <v>-0.001650019048926588</v>
       </c>
     </row>
     <row r="125">
@@ -4678,7 +4681,7 @@
         <v>36800</v>
       </c>
       <c r="B125">
-        <v>0.4107259231448834</v>
+        <v>0.4107259231463045</v>
       </c>
     </row>
     <row r="126">
@@ -4686,7 +4689,7 @@
         <v>36892</v>
       </c>
       <c r="B126">
-        <v>-0.1215879521640706</v>
+        <v>-0.1215879521662688</v>
       </c>
     </row>
     <row r="127">
@@ -4694,7 +4697,7 @@
         <v>36982</v>
       </c>
       <c r="B127">
-        <v>-0.9746489001653647</v>
+        <v>-0.9746489001667857</v>
       </c>
     </row>
     <row r="128">
@@ -4702,7 +4705,7 @@
         <v>37073</v>
       </c>
       <c r="B128">
-        <v>-4.21466692200495</v>
+        <v>-4.214666922001986</v>
       </c>
     </row>
     <row r="129">
@@ -4710,7 +4713,7 @@
         <v>37165</v>
       </c>
       <c r="B129">
-        <v>-5.312707897491464</v>
+        <v>-5.312707897485691</v>
       </c>
     </row>
     <row r="130">
@@ -4718,7 +4721,7 @@
         <v>37257</v>
       </c>
       <c r="B130">
-        <v>-4.843486651178863</v>
+        <v>-4.843486651189521</v>
       </c>
     </row>
     <row r="131">
@@ -4726,7 +4729,7 @@
         <v>37347</v>
       </c>
       <c r="B131">
-        <v>-1.192110082738096</v>
+        <v>-1.192110082742148</v>
       </c>
     </row>
     <row r="132">
@@ -4734,7 +4737,7 @@
         <v>37438</v>
       </c>
       <c r="B132">
-        <v>1.447719360282029</v>
+        <v>1.447719360294086</v>
       </c>
     </row>
     <row r="133">
@@ -4742,7 +4745,7 @@
         <v>37530</v>
       </c>
       <c r="B133">
-        <v>2.034739860728996</v>
+        <v>2.034739860742341</v>
       </c>
     </row>
     <row r="134">
@@ -4750,7 +4753,7 @@
         <v>37622</v>
       </c>
       <c r="B134">
-        <v>1.541673606567762</v>
+        <v>1.54167360655435</v>
       </c>
     </row>
     <row r="135">
@@ -4758,7 +4761,7 @@
         <v>37712</v>
       </c>
       <c r="B135">
-        <v>1.855201230242276</v>
+        <v>1.855201230182546</v>
       </c>
     </row>
     <row r="136">
@@ -4766,7 +4769,7 @@
         <v>37803</v>
       </c>
       <c r="B136">
-        <v>5.012102236358573</v>
+        <v>5.012102236465399</v>
       </c>
     </row>
     <row r="137">
@@ -4774,7 +4777,7 @@
         <v>37895</v>
       </c>
       <c r="B137">
-        <v>3.842636598745353</v>
+        <v>3.842636598700078</v>
       </c>
     </row>
     <row r="138">
@@ -4782,7 +4785,7 @@
         <v>37987</v>
       </c>
       <c r="B138">
-        <v>-0.5379667338316518</v>
+        <v>-0.5379667337975125</v>
       </c>
     </row>
     <row r="139">
@@ -4790,7 +4793,7 @@
         <v>38078</v>
       </c>
       <c r="B139">
-        <v>-1.711506177697186</v>
+        <v>-1.711506177724709</v>
       </c>
       <c r="C139">
         <v>2.139301359247625</v>
@@ -4807,7 +4810,7 @@
         <v>38169</v>
       </c>
       <c r="B140">
-        <v>1.239361656746363</v>
+        <v>1.239361656563154</v>
       </c>
       <c r="C140">
         <v>2.373940744314207</v>
@@ -4824,7 +4827,7 @@
         <v>38261</v>
       </c>
       <c r="B141">
-        <v>2.182581080195933</v>
+        <v>2.182581079874923</v>
       </c>
       <c r="C141">
         <v>0.2890336455256826</v>
@@ -4841,7 +4844,7 @@
         <v>38353</v>
       </c>
       <c r="B142">
-        <v>4.765651589106534</v>
+        <v>4.765651590943709</v>
       </c>
       <c r="C142">
         <v>1.938660684047155</v>
@@ -4858,7 +4861,7 @@
         <v>38443</v>
       </c>
       <c r="B143">
-        <v>2.876743035360052</v>
+        <v>2.876743034685236</v>
       </c>
       <c r="C143">
         <v>4.660559341839021</v>
@@ -4875,7 +4878,7 @@
         <v>38534</v>
       </c>
       <c r="B144">
-        <v>-1.137137626087081</v>
+        <v>-1.137137629181395</v>
       </c>
       <c r="C144">
         <v>4.157508699745205</v>
@@ -4892,7 +4895,7 @@
         <v>38626</v>
       </c>
       <c r="B145">
-        <v>1.578250064934195</v>
+        <v>1.578250065594977</v>
       </c>
       <c r="C145">
         <v>3.457163300574329</v>
@@ -4909,7 +4912,7 @@
         <v>38718</v>
       </c>
       <c r="B146">
-        <v>4.096093304740345</v>
+        <v>4.096093312537219</v>
       </c>
       <c r="C146">
         <v>2.723421121546599</v>
@@ -4926,7 +4929,7 @@
         <v>38808</v>
       </c>
       <c r="B147">
-        <v>1.218602183114181</v>
+        <v>1.218602178415162</v>
       </c>
       <c r="C147">
         <v>2.382729218778601</v>
@@ -4943,7 +4946,7 @@
         <v>38899</v>
       </c>
       <c r="B148">
-        <v>1.518484295780143</v>
+        <v>1.518484287395472</v>
       </c>
       <c r="C148">
         <v>4.138538845281925</v>
@@ -4960,7 +4963,7 @@
         <v>38991</v>
       </c>
       <c r="B149">
-        <v>2.531696000077366</v>
+        <v>2.531696001031136</v>
       </c>
       <c r="C149">
         <v>5.343452970565865</v>
@@ -4977,7 +4980,7 @@
         <v>39083</v>
       </c>
       <c r="B150">
-        <v>2.868058976506127</v>
+        <v>2.868058999340595</v>
       </c>
       <c r="C150">
         <v>2.612347603114706</v>
@@ -4994,7 +4997,7 @@
         <v>39173</v>
       </c>
       <c r="B151">
-        <v>2.80792987406413</v>
+        <v>2.807929882116178</v>
       </c>
       <c r="C151">
         <v>0.3618362187556956</v>
@@ -5020,7 +5023,7 @@
         <v>39264</v>
       </c>
       <c r="B152">
-        <v>-0.09901195520438666</v>
+        <v>-0.09901204276986375</v>
       </c>
       <c r="C152">
         <v>1.918316069647275</v>
@@ -5046,7 +5049,7 @@
         <v>39356</v>
       </c>
       <c r="B153">
-        <v>3.134844531966752</v>
+        <v>3.134844601463582</v>
       </c>
       <c r="C153">
         <v>2.194656976018061</v>
@@ -5072,7 +5075,7 @@
         <v>39448</v>
       </c>
       <c r="B154">
-        <v>1.147834744453946</v>
+        <v>1.147834804358494</v>
       </c>
       <c r="C154">
         <v>1.271267507588791</v>
@@ -5098,7 +5101,7 @@
         <v>39539</v>
       </c>
       <c r="B155">
-        <v>1.431956739437568</v>
+        <v>1.431956728157813</v>
       </c>
       <c r="C155">
         <v>1.775129277204579</v>
@@ -5124,7 +5127,7 @@
         <v>39630</v>
       </c>
       <c r="B156">
-        <v>-0.2433667246229843</v>
+        <v>-0.2433669636856428</v>
       </c>
       <c r="C156">
         <v>1.153161999909025</v>
@@ -5150,7 +5153,7 @@
         <v>39722</v>
       </c>
       <c r="B157">
-        <v>-4.133628196399575</v>
+        <v>-4.13362799176017</v>
       </c>
       <c r="C157">
         <v>-0.8601789498213108</v>
@@ -5176,7 +5179,7 @@
         <v>39814</v>
       </c>
       <c r="B158">
-        <v>-2.58570685826448</v>
+        <v>-2.585706704149227</v>
       </c>
       <c r="C158">
         <v>-1.440575439526559</v>
@@ -5202,7 +5205,7 @@
         <v>39904</v>
       </c>
       <c r="B159">
-        <v>-1.936555872219048</v>
+        <v>-1.936555925792471</v>
       </c>
       <c r="C159">
         <v>-0.6511003214100697</v>
@@ -5228,7 +5231,7 @@
         <v>39995</v>
       </c>
       <c r="B160">
-        <v>1.862139378589101</v>
+        <v>1.862139275092245</v>
       </c>
       <c r="C160">
         <v>-1.127016404476711</v>
@@ -5254,7 +5257,7 @@
         <v>40087</v>
       </c>
       <c r="B161">
-        <v>2.967320415082897</v>
+        <v>2.967320046168553</v>
       </c>
       <c r="C161">
         <v>-0.3289198439845875</v>
@@ -5280,7 +5283,7 @@
         <v>40179</v>
       </c>
       <c r="B162">
-        <v>2.796993981218199</v>
+        <v>2.796995438368755</v>
       </c>
       <c r="C162">
         <v>1.97459542305678</v>
@@ -5306,7 +5309,7 @@
         <v>40269</v>
       </c>
       <c r="B163">
-        <v>4.225589103571403</v>
+        <v>4.225588013320714</v>
       </c>
       <c r="C163">
         <v>2.182580772610176</v>
@@ -5332,7 +5335,7 @@
         <v>40360</v>
       </c>
       <c r="B164">
-        <v>0.0287397736218109</v>
+        <v>0.02873857894916121</v>
       </c>
       <c r="C164">
         <v>1.155822443188304</v>
@@ -5358,7 +5361,7 @@
         <v>40452</v>
       </c>
       <c r="B165">
-        <v>1.052181249443485</v>
+        <v>1.052181653624951</v>
       </c>
       <c r="C165">
         <v>0.8521197600882768</v>
@@ -5384,7 +5387,7 @@
         <v>40544</v>
       </c>
       <c r="B166">
-        <v>2.504098886540773</v>
+        <v>2.504102617384829</v>
       </c>
       <c r="C166">
         <v>1.567274762748894</v>
@@ -5410,7 +5413,7 @@
         <v>40634</v>
       </c>
       <c r="B167">
-        <v>1.874010174608309</v>
+        <v>1.874007474270112</v>
       </c>
       <c r="C167">
         <v>1.022005366153667</v>
@@ -5436,7 +5439,7 @@
         <v>40725</v>
       </c>
       <c r="B168">
-        <v>0.7002953413130397</v>
+        <v>0.7002913646050102</v>
       </c>
       <c r="C168">
         <v>0.5457612750626284</v>
@@ -5462,7 +5465,7 @@
         <v>40817</v>
       </c>
       <c r="B169">
-        <v>-0.2433920733072692</v>
+        <v>-0.2433895807722908</v>
       </c>
       <c r="C169">
         <v>0.8412536698735984</v>
@@ -5488,7 +5491,7 @@
         <v>40909</v>
       </c>
       <c r="B170">
-        <v>-0.708000840138201</v>
+        <v>-0.7079985350849416</v>
       </c>
       <c r="C170">
         <v>0.09201980540989307</v>
@@ -5514,7 +5517,7 @@
         <v>41000</v>
       </c>
       <c r="B171">
-        <v>-1.217135355390331</v>
+        <v>-1.217137000035162</v>
       </c>
       <c r="C171">
         <v>0.6590608808493492</v>
@@ -5540,7 +5543,7 @@
         <v>41091</v>
       </c>
       <c r="B172">
-        <v>0.9801054332605696</v>
+        <v>0.9800985916452731</v>
       </c>
       <c r="C172">
         <v>2.68619789014688</v>
@@ -5566,7 +5569,7 @@
         <v>41183</v>
       </c>
       <c r="B173">
-        <v>1.455064349562973</v>
+        <v>1.455061511882616</v>
       </c>
       <c r="C173">
         <v>1.984763009420898</v>
@@ -5592,7 +5595,7 @@
         <v>41275</v>
       </c>
       <c r="B174">
-        <v>-0.4408114706011101</v>
+        <v>-0.4407770915636489</v>
       </c>
       <c r="C174">
         <v>-0.8216007901084343</v>
@@ -5618,7 +5621,7 @@
         <v>41365</v>
       </c>
       <c r="B175">
-        <v>0.9548836552981443</v>
+        <v>0.9548543980054225</v>
       </c>
       <c r="C175">
         <v>-1.624115463170506</v>
@@ -5644,7 +5647,7 @@
         <v>41456</v>
       </c>
       <c r="B176">
-        <v>0.5373368479036689</v>
+        <v>0.5373303901238025</v>
       </c>
       <c r="C176">
         <v>-0.5047448629488138</v>
@@ -5670,7 +5673,7 @@
         <v>41548</v>
       </c>
       <c r="B177">
-        <v>-0.9667055439238514</v>
+        <v>-0.9667123221480667</v>
       </c>
       <c r="C177">
         <v>1.954451051919048</v>
@@ -5696,7 +5699,7 @@
         <v>41640</v>
       </c>
       <c r="B178">
-        <v>-1.420962623861088</v>
+        <v>-1.420903050612787</v>
       </c>
       <c r="C178">
         <v>4.440255848272012</v>
@@ -5722,7 +5725,7 @@
         <v>41730</v>
       </c>
       <c r="B179">
-        <v>-0.5328684928223804</v>
+        <v>-0.5329225164855123</v>
       </c>
       <c r="C179">
         <v>2.896125303916941</v>
@@ -5748,7 +5751,7 @@
         <v>41821</v>
       </c>
       <c r="B180">
-        <v>-1.182117966791696</v>
+        <v>-1.182120518081131</v>
       </c>
       <c r="C180">
         <v>-0.96381996747259</v>
@@ -5774,7 +5777,7 @@
         <v>41913</v>
       </c>
       <c r="B181">
-        <v>0.5131012472387342</v>
+        <v>0.5130885099762006</v>
       </c>
       <c r="C181">
         <v>-1.1113862580303</v>
@@ -5800,7 +5803,7 @@
         <v>42005</v>
       </c>
       <c r="B182">
-        <v>1.835716779575369</v>
+        <v>1.835458043598526</v>
       </c>
       <c r="C182">
         <v>2.1745552672221</v>
@@ -5826,7 +5829,7 @@
         <v>42095</v>
       </c>
       <c r="B183">
-        <v>1.442803035297602</v>
+        <v>1.442993154897687</v>
       </c>
       <c r="C183">
         <v>1.561905415897491</v>
@@ -5852,7 +5855,7 @@
         <v>42186</v>
       </c>
       <c r="B184">
-        <v>0.3304793313735566</v>
+        <v>0.3305191933528961</v>
       </c>
       <c r="C184">
         <v>-1.654658438998891</v>
@@ -5878,7 +5881,7 @@
         <v>42278</v>
       </c>
       <c r="B185">
-        <v>-1.114213498559125</v>
+        <v>-1.11415226776308</v>
       </c>
       <c r="C185">
         <v>-1.784221089472349</v>
@@ -5904,7 +5907,7 @@
         <v>42370</v>
       </c>
       <c r="B186">
-        <v>-1.054129861943376</v>
+        <v>-1.054028173866106</v>
       </c>
       <c r="C186">
         <v>-2.388186745661902</v>
@@ -5930,7 +5933,7 @@
         <v>42461</v>
       </c>
       <c r="B187">
-        <v>-0.3979663641798137</v>
+        <v>-0.3981129621116408</v>
       </c>
       <c r="C187">
         <v>-3.659510144810729</v>
@@ -5956,7 +5959,7 @@
         <v>42552</v>
       </c>
       <c r="B188">
-        <v>-0.6539989190803341</v>
+        <v>-0.6541647524499261</v>
       </c>
       <c r="C188">
         <v>-0.4959069412886152</v>
@@ -5982,7 +5985,7 @@
         <v>42644</v>
       </c>
       <c r="B189">
-        <v>0.5386146008776738</v>
+        <v>0.5389484781693543</v>
       </c>
       <c r="C189">
         <v>0.7126053935693211</v>
@@ -6008,7 +6011,7 @@
         <v>42736</v>
       </c>
       <c r="B190">
-        <v>0.6440112763121952</v>
+        <v>0.6441162295988789</v>
       </c>
       <c r="C190">
         <v>-3.188630100652678</v>
@@ -6034,7 +6037,7 @@
         <v>42826</v>
       </c>
       <c r="B191">
-        <v>2.462825337802155</v>
+        <v>2.462508624433357</v>
       </c>
       <c r="C191">
         <v>-2.682788124555979</v>
@@ -6060,7 +6063,7 @@
         <v>42917</v>
       </c>
       <c r="B192">
-        <v>0.2063864645205138</v>
+        <v>0.2059919120696696</v>
       </c>
       <c r="C192">
         <v>2.280972493552258</v>
@@ -6086,7 +6089,7 @@
         <v>43009</v>
       </c>
       <c r="B193">
-        <v>0.7981927781706366</v>
+        <v>0.7984417700023227</v>
       </c>
       <c r="C193">
         <v>2.04059359853217</v>
@@ -6112,7 +6115,7 @@
         <v>43101</v>
       </c>
       <c r="B194">
-        <v>-0.2427065609177714</v>
+        <v>-0.2407058263364292</v>
       </c>
       <c r="C194">
         <v>-0.4129182567396472</v>
@@ -6138,7 +6141,7 @@
         <v>43191</v>
       </c>
       <c r="B195">
-        <v>-4.258775868923992</v>
+        <v>-4.261181045317663</v>
       </c>
       <c r="C195">
         <v>0.4534604995346303</v>
@@ -6164,7 +6167,7 @@
         <v>43282</v>
       </c>
       <c r="B196">
-        <v>0.22388515969749</v>
+        <v>0.2227276990177218</v>
       </c>
       <c r="C196">
         <v>-2.026979033253795</v>
@@ -6190,7 +6193,7 @@
         <v>43374</v>
       </c>
       <c r="B197">
-        <v>-2.371286097249714</v>
+        <v>-2.370411626618074</v>
       </c>
       <c r="C197">
         <v>-5.669557008279114</v>
@@ -6216,7 +6219,7 @@
         <v>43466</v>
       </c>
       <c r="B198">
-        <v>0.559673070832778</v>
+        <v>0.5663869624998208</v>
       </c>
       <c r="C198">
         <v>-1.871295700105668</v>
@@ -6242,7 +6245,7 @@
         <v>43556</v>
       </c>
       <c r="B199">
-        <v>2.667764017079355</v>
+        <v>2.66188419100537</v>
       </c>
       <c r="C199">
         <v>1.299427616821425</v>
@@ -6268,7 +6271,7 @@
         <v>43647</v>
       </c>
       <c r="B200">
-        <v>-2.425084109611353</v>
+        <v>-2.432360986043847</v>
       </c>
       <c r="C200">
         <v>-0.3791603523889853</v>
@@ -6294,7 +6297,7 @@
         <v>43739</v>
       </c>
       <c r="B201">
-        <v>-2.106871883041683</v>
+        <v>-2.101850616640577</v>
       </c>
       <c r="C201">
         <v>-1.042565450510791</v>
@@ -6320,7 +6323,7 @@
         <v>43831</v>
       </c>
       <c r="B202">
-        <v>-6.148626910047761</v>
+        <v>-6.14066190179684</v>
       </c>
       <c r="C202">
         <v>-1.774745588658544</v>
@@ -6346,7 +6349,7 @@
         <v>43922</v>
       </c>
       <c r="B203">
-        <v>-3.903564295598261</v>
+        <v>-3.901931694661642</v>
       </c>
       <c r="C203">
         <v>-1.816149497398012</v>
@@ -6372,7 +6375,7 @@
         <v>44013</v>
       </c>
       <c r="B204">
-        <v>1.665871545878672</v>
+        <v>1.64192704780628</v>
       </c>
       <c r="C204">
         <v>0.3698993640579795</v>
@@ -6398,7 +6401,7 @@
         <v>44105</v>
       </c>
       <c r="B205">
-        <v>4.513085434945574</v>
+        <v>4.50084170621714</v>
       </c>
       <c r="C205">
         <v>3.147311463167157</v>
@@ -6424,7 +6427,7 @@
         <v>44197</v>
       </c>
       <c r="B206">
-        <v>4.160463623741295</v>
+        <v>4.247481619379756</v>
       </c>
       <c r="C206">
         <v>4.888842859006037</v>
@@ -6450,7 +6453,7 @@
         <v>44287</v>
       </c>
       <c r="B207">
-        <v>1.180062446550734</v>
+        <v>1.111599014892484</v>
       </c>
       <c r="C207">
         <v>4.468124253249162</v>
@@ -6476,7 +6479,7 @@
         <v>44378</v>
       </c>
       <c r="B208">
-        <v>1.20484486442447</v>
+        <v>1.200712092800238</v>
       </c>
       <c r="C208">
         <v>4.147790254790462</v>
@@ -6502,7 +6505,7 @@
         <v>44470</v>
       </c>
       <c r="B209">
-        <v>1.671496989682364</v>
+        <v>1.635647945527818</v>
       </c>
       <c r="C209">
         <v>2.995506467001774</v>
@@ -6528,7 +6531,7 @@
         <v>44562</v>
       </c>
       <c r="B210">
-        <v>2.379189256766678</v>
+        <v>2.5271976347925</v>
       </c>
       <c r="C210">
         <v>0.2237982488711321</v>
@@ -6554,7 +6557,7 @@
         <v>44652</v>
       </c>
       <c r="B211">
-        <v>3.260773182747889</v>
+        <v>3.136923897685917</v>
       </c>
       <c r="C211">
         <v>-0.8469027821262798</v>
@@ -6580,7 +6583,7 @@
         <v>44743</v>
       </c>
       <c r="B212">
-        <v>-1.188625845117997</v>
+        <v>-1.173187851810087</v>
       </c>
       <c r="C212">
         <v>-2.900492439697344</v>
@@ -6606,7 +6609,7 @@
         <v>44835</v>
       </c>
       <c r="B213">
-        <v>-1.824988296810182</v>
+        <v>-1.887798055986567</v>
       </c>
       <c r="C213">
         <v>-2.99891533647425</v>
@@ -6632,7 +6635,7 @@
         <v>44927</v>
       </c>
       <c r="B214">
-        <v>0.7403935810414097</v>
+        <v>0.2098453479705054</v>
       </c>
       <c r="C214">
         <v>1.051249408932953</v>
@@ -6658,7 +6661,7 @@
         <v>45017</v>
       </c>
       <c r="B215">
-        <v>-0.9745703483846735</v>
+        <v>-0.6650703947595815</v>
       </c>
       <c r="C215">
         <v>1.190017582521041</v>
@@ -6684,7 +6687,7 @@
         <v>45108</v>
       </c>
       <c r="B216">
-        <v>-0.740277548014745</v>
+        <v>-0.5768061082735532</v>
       </c>
       <c r="C216">
         <v>0.6671406211913755</v>
@@ -6710,7 +6713,7 @@
         <v>45200</v>
       </c>
       <c r="B217">
-        <v>-0.8546360054152657</v>
+        <v>-0.7833790252575357</v>
       </c>
       <c r="C217">
         <v>0.9327437385203918</v>
@@ -6736,7 +6739,7 @@
         <v>45292</v>
       </c>
       <c r="B218">
-        <v>-2.077747185873458</v>
+        <v>-1.926586545826714</v>
       </c>
       <c r="C218">
         <v>-0.05335287065135752</v>
@@ -6762,7 +6765,7 @@
         <v>45383</v>
       </c>
       <c r="B219">
-        <v>0.1158292551226126</v>
+        <v>-0.02327952534524336</v>
       </c>
       <c r="C219">
         <v>0.2065525021719639</v>
@@ -6788,7 +6791,7 @@
         <v>45474</v>
       </c>
       <c r="B220">
-        <v>2.666326913720707</v>
+        <v>2.696198607800127</v>
       </c>
       <c r="C220">
         <v>0.7804113642726485</v>
@@ -6814,7 +6817,7 @@
         <v>45566</v>
       </c>
       <c r="B221">
-        <v>1.824344127892208</v>
+        <v>1.809830028582637</v>
       </c>
       <c r="C221">
         <v>0.8356797416245954</v>
@@ -6840,7 +6843,7 @@
         <v>45658</v>
       </c>
       <c r="B222">
-        <v>1.048125895867869</v>
+        <v>1.129656191687367</v>
       </c>
       <c r="C222">
         <v>-1.349575042354922</v>
@@ -6866,7 +6869,7 @@
         <v>45748</v>
       </c>
       <c r="B223">
-        <v>1.044134034798061</v>
+        <v>1.030021773465628</v>
       </c>
       <c r="C223">
         <v>-2.531791765638369</v>
@@ -6890,6 +6893,9 @@
     <row r="224">
       <c r="A224" s="2">
         <v>45839</v>
+      </c>
+      <c r="B224">
+        <v>-0.8000302595093656</v>
       </c>
     </row>
     <row r="225">
@@ -7916,7 +7922,7 @@
         <v>36617</v>
       </c>
       <c r="B123">
-        <v>-0.8043457378068219</v>
+        <v>-0.8043457378072327</v>
       </c>
     </row>
     <row r="124">
@@ -7932,7 +7938,7 @@
         <v>36800</v>
       </c>
       <c r="B125">
-        <v>-1.819654266969195</v>
+        <v>-1.819654266967807</v>
       </c>
     </row>
     <row r="126">
@@ -7940,7 +7946,7 @@
         <v>36892</v>
       </c>
       <c r="B126">
-        <v>-1.669937585144543</v>
+        <v>-1.669937585145331</v>
       </c>
     </row>
     <row r="127">
@@ -7948,7 +7954,7 @@
         <v>36982</v>
       </c>
       <c r="B127">
-        <v>-0.6904621884767037</v>
+        <v>-0.6904621884785245</v>
       </c>
     </row>
     <row r="128">
@@ -7956,7 +7962,7 @@
         <v>37073</v>
       </c>
       <c r="B128">
-        <v>-4.874458839465046</v>
+        <v>-4.874458839464236</v>
       </c>
     </row>
     <row r="129">
@@ -7964,7 +7970,7 @@
         <v>37165</v>
       </c>
       <c r="B129">
-        <v>-10.29663594732962</v>
+        <v>-10.29663594732465</v>
       </c>
     </row>
     <row r="130">
@@ -7972,7 +7978,7 @@
         <v>37257</v>
       </c>
       <c r="B130">
-        <v>-14.53749430033076</v>
+        <v>-14.53749430033371</v>
       </c>
     </row>
     <row r="131">
@@ -7980,7 +7986,7 @@
         <v>37347</v>
       </c>
       <c r="B131">
-        <v>-14.72517126737674</v>
+        <v>-14.72517126738194</v>
       </c>
     </row>
     <row r="132">
@@ -7988,7 +7994,7 @@
         <v>37438</v>
       </c>
       <c r="B132">
-        <v>-9.684117434564977</v>
+        <v>-9.684117434562555</v>
       </c>
     </row>
     <row r="133">
@@ -7996,7 +8002,7 @@
         <v>37530</v>
       </c>
       <c r="B133">
-        <v>-2.675877847686681</v>
+        <v>-2.675877847677288</v>
       </c>
     </row>
     <row r="134">
@@ -8004,7 +8010,7 @@
         <v>37622</v>
       </c>
       <c r="B134">
-        <v>3.854732564750485</v>
+        <v>3.854732564758434</v>
       </c>
     </row>
     <row r="135">
@@ -8012,7 +8018,7 @@
         <v>37712</v>
       </c>
       <c r="B135">
-        <v>7.057692386239678</v>
+        <v>7.057692386189451</v>
       </c>
     </row>
     <row r="136">
@@ -8020,7 +8026,7 @@
         <v>37803</v>
       </c>
       <c r="B136">
-        <v>10.81918261884494</v>
+        <v>10.81918261889252</v>
       </c>
     </row>
     <row r="137">
@@ -8028,7 +8034,7 @@
         <v>37895</v>
       </c>
       <c r="B137">
-        <v>12.78272600651578</v>
+        <v>12.7827260065003</v>
       </c>
     </row>
     <row r="138">
@@ -8036,7 +8042,7 @@
         <v>37987</v>
       </c>
       <c r="B138">
-        <v>10.47286151076068</v>
+        <v>10.472861510798</v>
       </c>
     </row>
     <row r="139">
@@ -8044,7 +8050,7 @@
         <v>38078</v>
       </c>
       <c r="B139">
-        <v>6.604385784754174</v>
+        <v>6.604385784822875</v>
       </c>
     </row>
     <row r="140">
@@ -8052,7 +8058,7 @@
         <v>38169</v>
       </c>
       <c r="B140">
-        <v>2.774439677118545</v>
+        <v>2.774439676894236</v>
       </c>
     </row>
     <row r="141">
@@ -8060,7 +8066,7 @@
         <v>38261</v>
       </c>
       <c r="B141">
-        <v>1.131460633634918</v>
+        <v>1.13146063314058</v>
       </c>
     </row>
     <row r="142">
@@ -8068,7 +8074,7 @@
         <v>38353</v>
       </c>
       <c r="B142">
-        <v>6.524097904649673</v>
+        <v>6.524097905960424</v>
       </c>
       <c r="C142">
         <v>6.899253890912416</v>
@@ -8085,7 +8091,7 @@
         <v>38443</v>
       </c>
       <c r="B143">
-        <v>11.49679704139985</v>
+        <v>11.49679704207163</v>
       </c>
       <c r="C143">
         <v>9.538008940328346</v>
@@ -8102,7 +8108,7 @@
         <v>38534</v>
       </c>
       <c r="B144">
-        <v>8.879514061035888</v>
+        <v>8.879514058481108</v>
       </c>
       <c r="C144">
         <v>11.44638993286657</v>
@@ -8119,7 +8125,7 @@
         <v>38626</v>
       </c>
       <c r="B145">
-        <v>8.235575861607657</v>
+        <v>8.2355758601121</v>
       </c>
       <c r="C145">
         <v>14.96698037092372</v>
@@ -8136,7 +8142,7 @@
         <v>38718</v>
       </c>
       <c r="B146">
-        <v>7.543841257927508</v>
+        <v>7.54384126261074</v>
       </c>
       <c r="C146">
         <v>15.85203749457489</v>
@@ -8153,7 +8159,7 @@
         <v>38808</v>
       </c>
       <c r="B147">
-        <v>5.810477318364193</v>
+        <v>5.810477318753815</v>
       </c>
       <c r="C147">
         <v>13.33063628591946</v>
@@ -8170,7 +8176,7 @@
         <v>38899</v>
       </c>
       <c r="B148">
-        <v>8.652723803875894</v>
+        <v>8.65272379870281</v>
       </c>
       <c r="C148">
         <v>13.30999576078198</v>
@@ -8187,7 +8193,7 @@
         <v>38991</v>
       </c>
       <c r="B149">
-        <v>9.672573011622788</v>
+        <v>9.672573006707918</v>
       </c>
       <c r="C149">
         <v>15.375927859552</v>
@@ -8204,7 +8210,7 @@
         <v>39083</v>
       </c>
       <c r="B150">
-        <v>8.378752271109802</v>
+        <v>8.378752282192981</v>
       </c>
       <c r="C150">
         <v>15.25117334777868</v>
@@ -8221,7 +8227,7 @@
         <v>39173</v>
       </c>
       <c r="B151">
-        <v>10.08050815767563</v>
+        <v>10.0805081826649</v>
       </c>
       <c r="C151">
         <v>12.97627511796831</v>
@@ -8238,7 +8244,7 @@
         <v>39264</v>
       </c>
       <c r="B152">
-        <v>8.326592991519878</v>
+        <v>8.326592930107291</v>
       </c>
       <c r="C152">
         <v>10.56763272770067</v>
@@ -8255,7 +8261,7 @@
         <v>39356</v>
       </c>
       <c r="B153">
-        <v>8.963830334471524</v>
+        <v>8.963830345108704</v>
       </c>
       <c r="C153">
         <v>7.262682023674549</v>
@@ -8272,7 +8278,7 @@
         <v>39448</v>
       </c>
       <c r="B154">
-        <v>7.141668788666622</v>
+        <v>7.141668838797188</v>
       </c>
       <c r="C154">
         <v>5.860824925432806</v>
@@ -8298,7 +8304,7 @@
         <v>39539</v>
       </c>
       <c r="B155">
-        <v>5.707693238017453</v>
+        <v>5.707693267442671</v>
       </c>
       <c r="C155">
         <v>7.351554615777256</v>
@@ -8324,7 +8330,7 @@
         <v>39630</v>
       </c>
       <c r="B156">
-        <v>5.554947905045338</v>
+        <v>5.554947773991259</v>
       </c>
       <c r="C156">
         <v>6.545610384410083</v>
@@ -8350,7 +8356,7 @@
         <v>39722</v>
       </c>
       <c r="B157">
-        <v>-1.884082654157648</v>
+        <v>-1.884082632649142</v>
       </c>
       <c r="C157">
         <v>3.360714344109628</v>
@@ -8376,7 +8382,7 @@
         <v>39814</v>
       </c>
       <c r="B158">
-        <v>-5.505710939380726</v>
+        <v>-5.505710825134513</v>
       </c>
       <c r="C158">
         <v>0.5929201700920705</v>
@@ -8402,7 +8408,7 @@
         <v>39904</v>
       </c>
       <c r="B159">
-        <v>-8.643826526048326</v>
+        <v>-8.643826455346048</v>
       </c>
       <c r="C159">
         <v>-1.80512660283817</v>
@@ -8428,7 +8434,7 @@
         <v>39995</v>
       </c>
       <c r="B160">
-        <v>-6.71562411484099</v>
+        <v>-6.715623913875712</v>
       </c>
       <c r="C160">
         <v>-4.01861973854264</v>
@@ -8454,7 +8460,7 @@
         <v>40087</v>
       </c>
       <c r="B161">
-        <v>0.1940726531955539</v>
+        <v>0.1940722961908836</v>
       </c>
       <c r="C161">
         <v>-3.50428572306295</v>
@@ -8480,7 +8486,7 @@
         <v>40179</v>
       </c>
       <c r="B162">
-        <v>5.730372323274291</v>
+        <v>5.730373278002543</v>
       </c>
       <c r="C162">
         <v>-0.1606242393195956</v>
@@ -8506,7 +8512,7 @@
         <v>40269</v>
       </c>
       <c r="B163">
-        <v>12.37429441264484</v>
+        <v>12.37429431326815</v>
       </c>
       <c r="C163">
         <v>2.687046469134069</v>
@@ -8532,7 +8538,7 @@
         <v>40360</v>
       </c>
       <c r="B164">
-        <v>10.35168828792088</v>
+        <v>10.35168698449283</v>
       </c>
       <c r="C164">
         <v>5.057946691895587</v>
@@ -8558,7 +8564,7 @@
         <v>40452</v>
       </c>
       <c r="B165">
-        <v>8.299203680351441</v>
+        <v>8.299203222351625</v>
       </c>
       <c r="C165">
         <v>6.302817275935446</v>
@@ -8584,7 +8590,7 @@
         <v>40544</v>
       </c>
       <c r="B166">
-        <v>7.99063137403242</v>
+        <v>7.990633317104523</v>
       </c>
       <c r="C166">
         <v>5.878208249091177</v>
@@ -8610,7 +8616,7 @@
         <v>40634</v>
       </c>
       <c r="B167">
-        <v>5.554104073503163</v>
+        <v>5.55410427899734</v>
       </c>
       <c r="C167">
         <v>4.675658424605689</v>
@@ -8636,7 +8642,7 @@
         <v>40725</v>
       </c>
       <c r="B168">
-        <v>6.262754871700205</v>
+        <v>6.262752151328743</v>
       </c>
       <c r="C168">
         <v>4.044369459616015</v>
@@ -8662,7 +8668,7 @@
         <v>40817</v>
       </c>
       <c r="B169">
-        <v>4.900377645285459</v>
+        <v>4.900377161276204</v>
       </c>
       <c r="C169">
         <v>4.033159427466315</v>
@@ -8688,7 +8694,7 @@
         <v>40909</v>
       </c>
       <c r="B170">
-        <v>1.613187396084759</v>
+        <v>1.613185587764487</v>
       </c>
       <c r="C170">
         <v>2.522087731080735</v>
@@ -8714,7 +8720,7 @@
         <v>41000</v>
       </c>
       <c r="B171">
-        <v>-1.470044033304974</v>
+        <v>-1.470044815491289</v>
       </c>
       <c r="C171">
         <v>2.153753859376106</v>
@@ -8740,7 +8746,7 @@
         <v>41091</v>
       </c>
       <c r="B172">
-        <v>-1.196264537970015</v>
+        <v>-1.196268114679577</v>
       </c>
       <c r="C172">
         <v>4.32842171564447</v>
@@ -8766,7 +8772,7 @@
         <v>41183</v>
       </c>
       <c r="B173">
-        <v>0.4859682743403093</v>
+        <v>0.485959315400164</v>
       </c>
       <c r="C173">
         <v>5.511474486910339</v>
@@ -8792,7 +8798,7 @@
         <v>41275</v>
       </c>
       <c r="B174">
-        <v>0.756370549827956</v>
+        <v>0.7563940201671171</v>
       </c>
       <c r="C174">
         <v>4.548386157369633</v>
@@ -8818,7 +8824,7 @@
         <v>41365</v>
       </c>
       <c r="B175">
-        <v>2.971782636423459</v>
+        <v>2.971778495402133</v>
       </c>
       <c r="C175">
         <v>2.176991073895618</v>
@@ -8844,7 +8850,7 @@
         <v>41456</v>
       </c>
       <c r="B176">
-        <v>2.520281122001511</v>
+        <v>2.520277359953171</v>
       </c>
       <c r="C176">
         <v>-0.99812823034785</v>
@@ -8870,7 +8876,7 @@
         <v>41548</v>
       </c>
       <c r="B177">
-        <v>0.07308411035091833</v>
+        <v>0.07307638773925706</v>
       </c>
       <c r="C177">
         <v>-1.02755361156297</v>
@@ -8896,7 +8902,7 @@
         <v>41640</v>
       </c>
       <c r="B178">
-        <v>-0.9121262981497513</v>
+        <v>-0.9121082802822866</v>
       </c>
       <c r="C178">
         <v>4.223376310623239</v>
@@ -8922,7 +8928,7 @@
         <v>41730</v>
       </c>
       <c r="B179">
-        <v>-2.372364689944328</v>
+        <v>-2.372371669152928</v>
       </c>
       <c r="C179">
         <v>9.01230153046615</v>
@@ -8948,7 +8954,7 @@
         <v>41821</v>
       </c>
       <c r="B180">
-        <v>-4.042055899640418</v>
+        <v>-4.042059073304049</v>
       </c>
       <c r="C180">
         <v>8.509314391526313</v>
@@ -8974,7 +8980,7 @@
         <v>41913</v>
       </c>
       <c r="B181">
-        <v>-2.608202586715513</v>
+        <v>-2.60821148365149</v>
       </c>
       <c r="C181">
         <v>5.246368035519189</v>
@@ -9000,7 +9006,7 @@
         <v>42005</v>
       </c>
       <c r="B182">
-        <v>0.6092548884400806</v>
+        <v>0.6089292777730293</v>
       </c>
       <c r="C182">
         <v>2.963179859899512</v>
@@ -9026,7 +9032,7 @@
         <v>42095</v>
       </c>
       <c r="B183">
-        <v>2.607611906849838</v>
+        <v>2.607527860042458</v>
       </c>
       <c r="C183">
         <v>1.628090497719481</v>
@@ -9052,7 +9058,7 @@
         <v>42186</v>
       </c>
       <c r="B184">
-        <v>4.178218292537528</v>
+        <v>4.178177039592734</v>
       </c>
       <c r="C184">
         <v>0.9191718512155278</v>
@@ -9078,7 +9084,7 @@
         <v>42278</v>
       </c>
       <c r="B185">
-        <v>2.491565023314557</v>
+        <v>2.491600889735968</v>
       </c>
       <c r="C185">
         <v>0.2325211700869634</v>
@@ -9104,7 +9110,7 @@
         <v>42370</v>
       </c>
       <c r="B186">
-        <v>-0.4168929748524453</v>
+        <v>-0.4165027695021473</v>
       </c>
       <c r="C186">
         <v>-4.243496701524507</v>
@@ -9130,7 +9136,7 @@
         <v>42461</v>
       </c>
       <c r="B187">
-        <v>-2.223916545100124</v>
+        <v>-2.223860579068115</v>
       </c>
       <c r="C187">
         <v>-9.166449794165143</v>
@@ -9156,7 +9162,7 @@
         <v>42552</v>
       </c>
       <c r="B188">
-        <v>-3.183330157168973</v>
+        <v>-3.18347481753154</v>
       </c>
       <c r="C188">
         <v>-8.09620578796515</v>
@@ -9182,7 +9188,7 @@
         <v>42644</v>
       </c>
       <c r="B189">
-        <v>-1.565086342039945</v>
+        <v>-1.564967481364465</v>
       </c>
       <c r="C189">
         <v>-5.759841612819128</v>
@@ -9208,7 +9214,7 @@
         <v>42736</v>
       </c>
       <c r="B190">
-        <v>0.1242855952626298</v>
+        <v>0.1244080080201826</v>
       </c>
       <c r="C190">
         <v>-6.532636483023479</v>
@@ -9234,7 +9240,7 @@
         <v>42826</v>
       </c>
       <c r="B191">
-        <v>3.000077533860024</v>
+        <v>3.000036687412866</v>
       </c>
       <c r="C191">
         <v>-5.585042877682589</v>
@@ -9260,7 +9266,7 @@
         <v>42917</v>
       </c>
       <c r="B192">
-        <v>3.892109022351486</v>
+        <v>3.891832179208521</v>
       </c>
       <c r="C192">
         <v>-2.95018691633383</v>
@@ -9286,7 +9292,7 @@
         <v>43009</v>
       </c>
       <c r="B193">
-        <v>4.160345504445462</v>
+        <v>4.159979339436637</v>
       </c>
       <c r="C193">
         <v>-1.670495992190713</v>
@@ -9312,7 +9318,7 @@
         <v>43101</v>
       </c>
       <c r="B194">
-        <v>3.242647221958928</v>
+        <v>3.244247247805476</v>
       </c>
       <c r="C194">
         <v>1.148742793133106</v>
@@ -9338,7 +9344,7 @@
         <v>43191</v>
       </c>
       <c r="B195">
-        <v>-3.530110603768299</v>
+        <v>-3.530740872246796</v>
       </c>
       <c r="C195">
         <v>4.408470433290712</v>
@@ -9364,7 +9370,7 @@
         <v>43282</v>
       </c>
       <c r="B196">
-        <v>-3.513264400169303</v>
+        <v>-3.51462917136951</v>
       </c>
       <c r="C196">
         <v>0.0109112524476096</v>
@@ -9390,7 +9396,7 @@
         <v>43374</v>
       </c>
       <c r="B197">
-        <v>-6.54717465007767</v>
+        <v>-6.547890298283832</v>
       </c>
       <c r="C197">
         <v>-7.545877285206481</v>
@@ -9416,7 +9422,7 @@
         <v>43466</v>
       </c>
       <c r="B198">
-        <v>-5.795503859850093</v>
+        <v>-5.791825167044163</v>
       </c>
       <c r="C198">
         <v>-8.89979794191429</v>
@@ -9442,7 +9448,7 @@
         <v>43556</v>
       </c>
       <c r="B199">
-        <v>1.019859176058735</v>
+        <v>1.020556135384498</v>
       </c>
       <c r="C199">
         <v>-8.132599132275665</v>
@@ -9468,7 +9474,7 @@
         <v>43647</v>
       </c>
       <c r="B200">
-        <v>-1.650148099361615</v>
+        <v>-1.65566852654232</v>
       </c>
       <c r="C200">
         <v>-6.587471526547207</v>
@@ -9494,7 +9500,7 @@
         <v>43739</v>
       </c>
       <c r="B201">
-        <v>-1.383780780073884</v>
+        <v>-1.385141389983435</v>
       </c>
       <c r="C201">
         <v>-2.0055044867614</v>
@@ -9520,7 +9526,7 @@
         <v>43831</v>
       </c>
       <c r="B202">
-        <v>-7.962433646631606</v>
+        <v>-7.962037462522275</v>
       </c>
       <c r="C202">
         <v>-1.909086425089124</v>
@@ -9546,7 +9552,7 @@
         <v>43922</v>
       </c>
       <c r="B203">
-        <v>-13.85336807379242</v>
+        <v>-13.84659963813887</v>
       </c>
       <c r="C203">
         <v>-4.925982103936189</v>
@@ -9572,7 +9578,7 @@
         <v>44013</v>
       </c>
       <c r="B204">
-        <v>-10.24155813407562</v>
+        <v>-10.2489542331945</v>
       </c>
       <c r="C204">
         <v>-4.211110425092556</v>
@@ -9598,7 +9604,7 @@
         <v>44105</v>
       </c>
       <c r="B205">
-        <v>-4.171703533336546</v>
+        <v>-4.195739289034717</v>
       </c>
       <c r="C205">
         <v>-0.1553903183224459</v>
@@ -9624,7 +9630,7 @@
         <v>44197</v>
       </c>
       <c r="B206">
-        <v>6.354541863486274</v>
+        <v>6.407663956409415</v>
       </c>
       <c r="C206">
         <v>6.618054979667898</v>
@@ -9650,7 +9656,7 @@
         <v>44287</v>
       </c>
       <c r="B207">
-        <v>11.98083579627422</v>
+        <v>11.95905640773656</v>
       </c>
       <c r="C207">
         <v>13.44216139659875</v>
@@ -9676,7 +9682,7 @@
         <v>44378</v>
       </c>
       <c r="B208">
-        <v>11.47303359747709</v>
+        <v>11.47305607824434</v>
       </c>
       <c r="C208">
         <v>17.71208804672633</v>
@@ -9702,7 +9708,7 @@
         <v>44470</v>
       </c>
       <c r="B209">
-        <v>8.442212309302622</v>
+        <v>8.416698832259083</v>
       </c>
       <c r="C209">
         <v>17.53884763143023</v>
@@ -9728,7 +9734,7 @@
         <v>44562</v>
       </c>
       <c r="B210">
-        <v>6.587714677817913</v>
+        <v>6.627614743456678</v>
       </c>
       <c r="C210">
         <v>12.31118039172638</v>
@@ -9754,7 +9760,7 @@
         <v>44652</v>
       </c>
       <c r="B211">
-        <v>8.779630722483445</v>
+        <v>8.763428670215244</v>
       </c>
       <c r="C211">
         <v>6.597122018189649</v>
@@ -9780,7 +9786,7 @@
         <v>44743</v>
       </c>
       <c r="B212">
-        <v>6.207018114086149</v>
+        <v>6.212127479181206</v>
       </c>
       <c r="C212">
         <v>-0.6169211080729542</v>
@@ -9806,7 +9812,7 @@
         <v>44835</v>
       </c>
       <c r="B213">
-        <v>2.554556144377651</v>
+        <v>2.530026725718892</v>
       </c>
       <c r="C213">
         <v>-6.401096704094833</v>
@@ -9832,7 +9838,7 @@
         <v>44927</v>
       </c>
       <c r="B214">
-        <v>0.9129533503388965</v>
+        <v>0.2126104948851681</v>
       </c>
       <c r="C214">
         <v>-5.628340906909878</v>
@@ -9858,7 +9864,7 @@
         <v>45017</v>
       </c>
       <c r="B215">
-        <v>-3.226092010317461</v>
+        <v>-3.481583191854853</v>
       </c>
       <c r="C215">
         <v>-3.689646507582345</v>
@@ -9884,7 +9890,7 @@
         <v>45108</v>
       </c>
       <c r="B216">
-        <v>-2.786988544524216</v>
+        <v>-2.899131725008852</v>
       </c>
       <c r="C216">
         <v>-0.1510085694647056</v>
@@ -9910,7 +9916,7 @@
         <v>45200</v>
       </c>
       <c r="B217">
-        <v>-1.826144570250909</v>
+        <v>-1.806096967880377</v>
       </c>
       <c r="C217">
         <v>3.896082188836281</v>
@@ -9936,7 +9942,7 @@
         <v>45292</v>
       </c>
       <c r="B218">
-        <v>-4.572488260175211</v>
+        <v>-3.899549816607895</v>
       </c>
       <c r="C218">
         <v>2.760382730423427</v>
@@ -9962,7 +9968,7 @@
         <v>45383</v>
       </c>
       <c r="B219">
-        <v>-3.521706442506056</v>
+        <v>-3.278656524395251</v>
       </c>
       <c r="C219">
         <v>1.761655282073482</v>
@@ -9988,7 +9994,7 @@
         <v>45474</v>
       </c>
       <c r="B220">
-        <v>-0.2105609227050609</v>
+        <v>-0.09459653849913652</v>
       </c>
       <c r="C220">
         <v>1.876157573882442</v>
@@ -10014,7 +10020,7 @@
         <v>45566</v>
       </c>
       <c r="B221">
-        <v>2.485822589655351</v>
+        <v>2.516615113728693</v>
       </c>
       <c r="C221">
         <v>1.778186324154762</v>
@@ -10040,7 +10046,7 @@
         <v>45658</v>
       </c>
       <c r="B222">
-        <v>5.757373895784057</v>
+        <v>5.711320481685123</v>
       </c>
       <c r="C222">
         <v>0.4582106621557447</v>
@@ -10066,7 +10072,7 @@
         <v>45748</v>
       </c>
       <c r="B223">
-        <v>6.737988813562978</v>
+        <v>6.825038461568234</v>
       </c>
       <c r="C223">
         <v>-2.287010667709255</v>
@@ -10091,6 +10097,9 @@
       <c r="A224" s="2">
         <v>45839</v>
       </c>
+      <c r="B224">
+        <v>3.188245782930421</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="2">
@@ -10100,237 +10109,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C5B9F2161CEE1040BBC03CB11300495F" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="126bfeb7ae601119bfc9c37fe78f3e1b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5dd4176-d247-4204-85b8-921214f3ccea" xmlns:ns3="359b39ce-e1f9-4933-8424-33b611e6fdcd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2137ec74e9b380cd6ab08453deebfc43" ns2:_="" ns3:_="">
-    <xsd:import namespace="b5dd4176-d247-4204-85b8-921214f3ccea"/>
-    <xsd:import namespace="359b39ce-e1f9-4933-8424-33b611e6fdcd"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b5dd4176-d247-4204-85b8-921214f3ccea" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="01529062-7a8b-4d76-943d-e0db5644ee6d" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="359b39ce-e1f9-4933-8424-33b611e6fdcd" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c9b73259-0823-4f05-8927-4a40ee49fbe1}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="359b39ce-e1f9-4933-8424-33b611e6fdcd">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5dd4176-d247-4204-85b8-921214f3ccea">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="359b39ce-e1f9-4933-8424-33b611e6fdcd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A99114EC-DE04-49B8-8D70-C1912A4FBEBF}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF77F015-1929-4BF9-A669-CF0D7025AA08}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7E95E99-30D9-4502-9D9D-32361714D667}"/>
 </file>
--- a/web_ces/Paneles/global_trimestral/input/DF_paneles.xlsx
+++ b/web_ces/Paneles/global_trimestral/input/DF_paneles.xlsx
@@ -10109,4 +10109,237 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C5B9F2161CEE1040BBC03CB11300495F" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="126bfeb7ae601119bfc9c37fe78f3e1b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5dd4176-d247-4204-85b8-921214f3ccea" xmlns:ns3="359b39ce-e1f9-4933-8424-33b611e6fdcd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2137ec74e9b380cd6ab08453deebfc43" ns2:_="" ns3:_="">
+    <xsd:import namespace="b5dd4176-d247-4204-85b8-921214f3ccea"/>
+    <xsd:import namespace="359b39ce-e1f9-4933-8424-33b611e6fdcd"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b5dd4176-d247-4204-85b8-921214f3ccea" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="01529062-7a8b-4d76-943d-e0db5644ee6d" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="359b39ce-e1f9-4933-8424-33b611e6fdcd" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c9b73259-0823-4f05-8927-4a40ee49fbe1}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="359b39ce-e1f9-4933-8424-33b611e6fdcd">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5dd4176-d247-4204-85b8-921214f3ccea">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="359b39ce-e1f9-4933-8424-33b611e6fdcd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA887D86-EDD2-4DE1-8852-E3BE7ECF6628}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A485E033-AAD4-4FCD-AF87-38C5695C96C3}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB1D750A-7C1E-4E47-9AC0-5CC24FFE23D9}"/>
 </file>
--- a/web_ces/Paneles/global_trimestral/input/DF_paneles.xlsx
+++ b/web_ces/Paneles/global_trimestral/input/DF_paneles.xlsx
@@ -10109,237 +10109,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C5B9F2161CEE1040BBC03CB11300495F" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="126bfeb7ae601119bfc9c37fe78f3e1b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5dd4176-d247-4204-85b8-921214f3ccea" xmlns:ns3="359b39ce-e1f9-4933-8424-33b611e6fdcd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2137ec74e9b380cd6ab08453deebfc43" ns2:_="" ns3:_="">
-    <xsd:import namespace="b5dd4176-d247-4204-85b8-921214f3ccea"/>
-    <xsd:import namespace="359b39ce-e1f9-4933-8424-33b611e6fdcd"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b5dd4176-d247-4204-85b8-921214f3ccea" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="01529062-7a8b-4d76-943d-e0db5644ee6d" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="359b39ce-e1f9-4933-8424-33b611e6fdcd" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c9b73259-0823-4f05-8927-4a40ee49fbe1}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="359b39ce-e1f9-4933-8424-33b611e6fdcd">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5dd4176-d247-4204-85b8-921214f3ccea">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="359b39ce-e1f9-4933-8424-33b611e6fdcd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA887D86-EDD2-4DE1-8852-E3BE7ECF6628}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A485E033-AAD4-4FCD-AF87-38C5695C96C3}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB1D750A-7C1E-4E47-9AC0-5CC24FFE23D9}"/>
 </file>
--- a/web_ces/Paneles/global_trimestral/input/DF_paneles.xlsx
+++ b/web_ces/Paneles/global_trimestral/input/DF_paneles.xlsx
@@ -10109,4 +10109,237 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C5B9F2161CEE1040BBC03CB11300495F" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="126bfeb7ae601119bfc9c37fe78f3e1b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5dd4176-d247-4204-85b8-921214f3ccea" xmlns:ns3="359b39ce-e1f9-4933-8424-33b611e6fdcd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2137ec74e9b380cd6ab08453deebfc43" ns2:_="" ns3:_="">
+    <xsd:import namespace="b5dd4176-d247-4204-85b8-921214f3ccea"/>
+    <xsd:import namespace="359b39ce-e1f9-4933-8424-33b611e6fdcd"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b5dd4176-d247-4204-85b8-921214f3ccea" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="01529062-7a8b-4d76-943d-e0db5644ee6d" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="359b39ce-e1f9-4933-8424-33b611e6fdcd" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c9b73259-0823-4f05-8927-4a40ee49fbe1}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="359b39ce-e1f9-4933-8424-33b611e6fdcd">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5dd4176-d247-4204-85b8-921214f3ccea">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="359b39ce-e1f9-4933-8424-33b611e6fdcd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FA4D3F9-4479-4370-A88C-FAF495C59119}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A42D83F6-ED05-48C9-BF85-847A06BCE8B7}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{226E4411-7184-4769-85AC-AC4DC76D1A9E}"/>
 </file>
--- a/web_ces/Paneles/global_trimestral/input/DF_paneles.xlsx
+++ b/web_ces/Paneles/global_trimestral/input/DF_paneles.xlsx
@@ -10109,237 +10109,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C5B9F2161CEE1040BBC03CB11300495F" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="126bfeb7ae601119bfc9c37fe78f3e1b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5dd4176-d247-4204-85b8-921214f3ccea" xmlns:ns3="359b39ce-e1f9-4933-8424-33b611e6fdcd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2137ec74e9b380cd6ab08453deebfc43" ns2:_="" ns3:_="">
-    <xsd:import namespace="b5dd4176-d247-4204-85b8-921214f3ccea"/>
-    <xsd:import namespace="359b39ce-e1f9-4933-8424-33b611e6fdcd"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b5dd4176-d247-4204-85b8-921214f3ccea" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="01529062-7a8b-4d76-943d-e0db5644ee6d" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="359b39ce-e1f9-4933-8424-33b611e6fdcd" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c9b73259-0823-4f05-8927-4a40ee49fbe1}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="359b39ce-e1f9-4933-8424-33b611e6fdcd">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5dd4176-d247-4204-85b8-921214f3ccea">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="359b39ce-e1f9-4933-8424-33b611e6fdcd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FA4D3F9-4479-4370-A88C-FAF495C59119}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A42D83F6-ED05-48C9-BF85-847A06BCE8B7}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{226E4411-7184-4769-85AC-AC4DC76D1A9E}"/>
 </file>
--- a/web_ces/Paneles/global_trimestral/input/DF_paneles.xlsx
+++ b/web_ces/Paneles/global_trimestral/input/DF_paneles.xlsx
@@ -10109,4 +10109,237 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C5B9F2161CEE1040BBC03CB11300495F" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="126bfeb7ae601119bfc9c37fe78f3e1b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5dd4176-d247-4204-85b8-921214f3ccea" xmlns:ns3="359b39ce-e1f9-4933-8424-33b611e6fdcd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2137ec74e9b380cd6ab08453deebfc43" ns2:_="" ns3:_="">
+    <xsd:import namespace="b5dd4176-d247-4204-85b8-921214f3ccea"/>
+    <xsd:import namespace="359b39ce-e1f9-4933-8424-33b611e6fdcd"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b5dd4176-d247-4204-85b8-921214f3ccea" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="01529062-7a8b-4d76-943d-e0db5644ee6d" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="359b39ce-e1f9-4933-8424-33b611e6fdcd" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c9b73259-0823-4f05-8927-4a40ee49fbe1}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="359b39ce-e1f9-4933-8424-33b611e6fdcd">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5dd4176-d247-4204-85b8-921214f3ccea">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="359b39ce-e1f9-4933-8424-33b611e6fdcd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{615C7EA0-3E5B-4D96-9C0F-B96248C5F4B6}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4447CC71-0B1F-4858-B2CA-E5E196B385FE}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DC7DFAC-2EE4-4B3D-B32D-12B2603DCD73}"/>
 </file>
--- a/web_ces/Paneles/global_trimestral/input/DF_paneles.xlsx
+++ b/web_ces/Paneles/global_trimestral/input/DF_paneles.xlsx
@@ -10109,237 +10109,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C5B9F2161CEE1040BBC03CB11300495F" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="126bfeb7ae601119bfc9c37fe78f3e1b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5dd4176-d247-4204-85b8-921214f3ccea" xmlns:ns3="359b39ce-e1f9-4933-8424-33b611e6fdcd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2137ec74e9b380cd6ab08453deebfc43" ns2:_="" ns3:_="">
-    <xsd:import namespace="b5dd4176-d247-4204-85b8-921214f3ccea"/>
-    <xsd:import namespace="359b39ce-e1f9-4933-8424-33b611e6fdcd"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b5dd4176-d247-4204-85b8-921214f3ccea" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="01529062-7a8b-4d76-943d-e0db5644ee6d" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="359b39ce-e1f9-4933-8424-33b611e6fdcd" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c9b73259-0823-4f05-8927-4a40ee49fbe1}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="359b39ce-e1f9-4933-8424-33b611e6fdcd">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5dd4176-d247-4204-85b8-921214f3ccea">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="359b39ce-e1f9-4933-8424-33b611e6fdcd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{615C7EA0-3E5B-4D96-9C0F-B96248C5F4B6}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4447CC71-0B1F-4858-B2CA-E5E196B385FE}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DC7DFAC-2EE4-4B3D-B32D-12B2603DCD73}"/>
 </file>
--- a/web_ces/Paneles/global_trimestral/input/DF_paneles.xlsx
+++ b/web_ces/Paneles/global_trimestral/input/DF_paneles.xlsx
@@ -10109,4 +10109,237 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C5B9F2161CEE1040BBC03CB11300495F" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="126bfeb7ae601119bfc9c37fe78f3e1b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5dd4176-d247-4204-85b8-921214f3ccea" xmlns:ns3="359b39ce-e1f9-4933-8424-33b611e6fdcd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2137ec74e9b380cd6ab08453deebfc43" ns2:_="" ns3:_="">
+    <xsd:import namespace="b5dd4176-d247-4204-85b8-921214f3ccea"/>
+    <xsd:import namespace="359b39ce-e1f9-4933-8424-33b611e6fdcd"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b5dd4176-d247-4204-85b8-921214f3ccea" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="01529062-7a8b-4d76-943d-e0db5644ee6d" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="359b39ce-e1f9-4933-8424-33b611e6fdcd" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c9b73259-0823-4f05-8927-4a40ee49fbe1}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="359b39ce-e1f9-4933-8424-33b611e6fdcd">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5dd4176-d247-4204-85b8-921214f3ccea">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="359b39ce-e1f9-4933-8424-33b611e6fdcd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{489D9ABE-CFD5-4D28-BE80-AE6F0C73BBEC}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{097A0465-CC61-4E56-A70F-314A1440F5E1}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12626414-5531-4398-9B83-C49F9C677C40}"/>
 </file>
--- a/web_ces/Paneles/global_trimestral/input/DF_paneles.xlsx
+++ b/web_ces/Paneles/global_trimestral/input/DF_paneles.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H225"/>
+  <dimension ref="A1:H245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3637,6 +3637,106 @@
         <v>45931</v>
       </c>
     </row>
+    <row r="226">
+      <c r="A226" s="2">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2">
+        <v>46113</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2">
+        <v>46204</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2">
+        <v>46296</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2">
+        <v>46388</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2">
+        <v>46478</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2">
+        <v>46569</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2">
+        <v>46661</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2">
+        <v>46753</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2">
+        <v>46844</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2">
+        <v>46935</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2">
+        <v>47027</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2">
+        <v>47119</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2">
+        <v>47209</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2">
+        <v>47300</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2">
+        <v>47392</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2">
+        <v>47484</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2">
+        <v>47574</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2">
+        <v>47665</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2">
+        <v>47757</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3644,7 +3744,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H225"/>
+  <dimension ref="A1:H245"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6903,6 +7003,106 @@
         <v>45931</v>
       </c>
     </row>
+    <row r="226">
+      <c r="A226" s="2">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2">
+        <v>46113</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2">
+        <v>46204</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2">
+        <v>46296</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2">
+        <v>46388</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2">
+        <v>46478</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2">
+        <v>46569</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2">
+        <v>46661</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2">
+        <v>46753</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2">
+        <v>46844</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2">
+        <v>46935</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2">
+        <v>47027</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2">
+        <v>47119</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2">
+        <v>47209</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2">
+        <v>47300</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2">
+        <v>47392</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2">
+        <v>47484</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2">
+        <v>47574</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2">
+        <v>47665</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2">
+        <v>47757</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6910,7 +7110,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H225"/>
+  <dimension ref="A1:H245"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10106,240 +10306,107 @@
         <v>45931</v>
       </c>
     </row>
+    <row r="226">
+      <c r="A226" s="2">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2">
+        <v>46113</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2">
+        <v>46204</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2">
+        <v>46296</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2">
+        <v>46388</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2">
+        <v>46478</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2">
+        <v>46569</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2">
+        <v>46661</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2">
+        <v>46753</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2">
+        <v>46844</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2">
+        <v>46935</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2">
+        <v>47027</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2">
+        <v>47119</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2">
+        <v>47209</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2">
+        <v>47300</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2">
+        <v>47392</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2">
+        <v>47484</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2">
+        <v>47574</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2">
+        <v>47665</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2">
+        <v>47757</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C5B9F2161CEE1040BBC03CB11300495F" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="126bfeb7ae601119bfc9c37fe78f3e1b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5dd4176-d247-4204-85b8-921214f3ccea" xmlns:ns3="359b39ce-e1f9-4933-8424-33b611e6fdcd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2137ec74e9b380cd6ab08453deebfc43" ns2:_="" ns3:_="">
-    <xsd:import namespace="b5dd4176-d247-4204-85b8-921214f3ccea"/>
-    <xsd:import namespace="359b39ce-e1f9-4933-8424-33b611e6fdcd"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b5dd4176-d247-4204-85b8-921214f3ccea" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="01529062-7a8b-4d76-943d-e0db5644ee6d" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="359b39ce-e1f9-4933-8424-33b611e6fdcd" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c9b73259-0823-4f05-8927-4a40ee49fbe1}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="359b39ce-e1f9-4933-8424-33b611e6fdcd">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5dd4176-d247-4204-85b8-921214f3ccea">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="359b39ce-e1f9-4933-8424-33b611e6fdcd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{489D9ABE-CFD5-4D28-BE80-AE6F0C73BBEC}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{097A0465-CC61-4E56-A70F-314A1440F5E1}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12626414-5531-4398-9B83-C49F9C677C40}"/>
 </file>
--- a/web_ces/Paneles/global_trimestral/input/DF_paneles.xlsx
+++ b/web_ces/Paneles/global_trimestral/input/DF_paneles.xlsx
@@ -10409,4 +10409,237 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C5B9F2161CEE1040BBC03CB11300495F" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="a7cec21613a3259523bdab11a1e26aca">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5dd4176-d247-4204-85b8-921214f3ccea" xmlns:ns3="359b39ce-e1f9-4933-8424-33b611e6fdcd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="68943c349d3a016936c8f8cb3335004b" ns2:_="" ns3:_="">
+    <xsd:import namespace="b5dd4176-d247-4204-85b8-921214f3ccea"/>
+    <xsd:import namespace="359b39ce-e1f9-4933-8424-33b611e6fdcd"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b5dd4176-d247-4204-85b8-921214f3ccea" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="01529062-7a8b-4d76-943d-e0db5644ee6d" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="359b39ce-e1f9-4933-8424-33b611e6fdcd" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c9b73259-0823-4f05-8927-4a40ee49fbe1}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="359b39ce-e1f9-4933-8424-33b611e6fdcd">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5dd4176-d247-4204-85b8-921214f3ccea">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="359b39ce-e1f9-4933-8424-33b611e6fdcd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6324A1D-2752-42E4-AB7A-CE80FE7C1444}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD13DAFB-EB13-435E-ACA9-799C36622492}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4931777A-290F-46F2-AEE5-B9F6E7F6E0A1}"/>
 </file>